--- a/5/9/Índice de stress local 2010 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2010 - Diaria.xlsx
@@ -1158,13 +1158,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.378</v>
+        <v>0.3518</v>
       </c>
       <c r="C2">
-        <v>0.1853</v>
+        <v>0.1901</v>
       </c>
       <c r="D2">
-        <v>0.1927</v>
+        <v>0.1617</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3817</v>
+        <v>0.3535</v>
       </c>
       <c r="C3">
-        <v>0.1842</v>
+        <v>0.1889</v>
       </c>
       <c r="D3">
-        <v>0.1974</v>
+        <v>0.1646</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3853</v>
+        <v>0.3553</v>
       </c>
       <c r="C4">
-        <v>0.1829</v>
+        <v>0.1874</v>
       </c>
       <c r="D4">
-        <v>0.2024</v>
+        <v>0.1679</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3891</v>
+        <v>0.3579</v>
       </c>
       <c r="C5">
-        <v>0.1823</v>
+        <v>0.1868</v>
       </c>
       <c r="D5">
-        <v>0.2068</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3922</v>
+        <v>0.3599</v>
       </c>
       <c r="C6">
-        <v>0.1812</v>
+        <v>0.1857</v>
       </c>
       <c r="D6">
-        <v>0.211</v>
+        <v>0.1742</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3955</v>
+        <v>0.3622</v>
       </c>
       <c r="C7">
-        <v>0.1799</v>
+        <v>0.1843</v>
       </c>
       <c r="D7">
-        <v>0.2156</v>
+        <v>0.1779</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3986</v>
+        <v>0.3647</v>
       </c>
       <c r="C8">
-        <v>0.1789</v>
+        <v>0.1833</v>
       </c>
       <c r="D8">
-        <v>0.2197</v>
+        <v>0.1814</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3969</v>
+        <v>0.3635</v>
       </c>
       <c r="C9">
-        <v>0.1768</v>
+        <v>0.1812</v>
       </c>
       <c r="D9">
-        <v>0.2202</v>
+        <v>0.1824</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3961</v>
+        <v>0.3633</v>
       </c>
       <c r="C10">
-        <v>0.1753</v>
+        <v>0.1797</v>
       </c>
       <c r="D10">
-        <v>0.2208</v>
+        <v>0.1836</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3955</v>
+        <v>0.3634</v>
       </c>
       <c r="C11">
-        <v>0.1738</v>
+        <v>0.1782</v>
       </c>
       <c r="D11">
-        <v>0.2216</v>
+        <v>0.1853</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3948</v>
+        <v>0.3636</v>
       </c>
       <c r="C12">
-        <v>0.1721</v>
+        <v>0.1765</v>
       </c>
       <c r="D12">
-        <v>0.2226</v>
+        <v>0.1871</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3944</v>
+        <v>0.3641</v>
       </c>
       <c r="C13">
-        <v>0.1701</v>
+        <v>0.1744</v>
       </c>
       <c r="D13">
-        <v>0.2244</v>
+        <v>0.1897</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3948</v>
+        <v>0.3656</v>
       </c>
       <c r="C14">
-        <v>0.1688</v>
+        <v>0.1733</v>
       </c>
       <c r="D14">
-        <v>0.226</v>
+        <v>0.1924</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3962</v>
+        <v>0.3682</v>
       </c>
       <c r="C15">
-        <v>0.1677</v>
+        <v>0.1722</v>
       </c>
       <c r="D15">
-        <v>0.2285</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3977</v>
+        <v>0.3712</v>
       </c>
       <c r="C16">
-        <v>0.1671</v>
+        <v>0.1717</v>
       </c>
       <c r="D16">
-        <v>0.2306</v>
+        <v>0.1995</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.4001</v>
+        <v>0.3755</v>
       </c>
       <c r="C17">
-        <v>0.1674</v>
+        <v>0.1722</v>
       </c>
       <c r="D17">
-        <v>0.2327</v>
+        <v>0.2033</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.4029</v>
+        <v>0.3805</v>
       </c>
       <c r="C18">
-        <v>0.1684</v>
+        <v>0.1734</v>
       </c>
       <c r="D18">
-        <v>0.2345</v>
+        <v>0.2071</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.4048</v>
+        <v>0.3847</v>
       </c>
       <c r="C19">
-        <v>0.1685</v>
+        <v>0.1737</v>
       </c>
       <c r="D19">
-        <v>0.2363</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.4057</v>
+        <v>0.3885</v>
       </c>
       <c r="C20">
-        <v>0.1694</v>
+        <v>0.1749</v>
       </c>
       <c r="D20">
-        <v>0.2363</v>
+        <v>0.2136</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.4063</v>
+        <v>0.3919</v>
       </c>
       <c r="C21">
-        <v>0.1701</v>
+        <v>0.1757</v>
       </c>
       <c r="D21">
-        <v>0.2362</v>
+        <v>0.2162</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.4083</v>
+        <v>0.3967</v>
       </c>
       <c r="C22">
-        <v>0.1717</v>
+        <v>0.1776</v>
       </c>
       <c r="D22">
-        <v>0.2366</v>
+        <v>0.2191</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.4098</v>
+        <v>0.4011</v>
       </c>
       <c r="C23">
-        <v>0.1732</v>
+        <v>0.1793</v>
       </c>
       <c r="D23">
-        <v>0.2367</v>
+        <v>0.2218</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.4105</v>
+        <v>0.4046</v>
       </c>
       <c r="C24">
-        <v>0.1742</v>
+        <v>0.1806</v>
       </c>
       <c r="D24">
-        <v>0.2363</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.4118</v>
+        <v>0.409</v>
       </c>
       <c r="C25">
-        <v>0.1766</v>
+        <v>0.1833</v>
       </c>
       <c r="D25">
-        <v>0.2352</v>
+        <v>0.2257</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.4121</v>
+        <v>0.4123</v>
       </c>
       <c r="C26">
-        <v>0.1781</v>
+        <v>0.185</v>
       </c>
       <c r="D26">
-        <v>0.234</v>
+        <v>0.2272</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4114</v>
+        <v>0.4145</v>
       </c>
       <c r="C27">
-        <v>0.1788</v>
+        <v>0.1859</v>
       </c>
       <c r="D27">
-        <v>0.2326</v>
+        <v>0.2285</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.4126</v>
+        <v>0.4181</v>
       </c>
       <c r="C28">
-        <v>0.1802</v>
+        <v>0.1875</v>
       </c>
       <c r="D28">
-        <v>0.2324</v>
+        <v>0.2307</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.4136</v>
+        <v>0.4216</v>
       </c>
       <c r="C29">
-        <v>0.1813</v>
+        <v>0.1888</v>
       </c>
       <c r="D29">
-        <v>0.2323</v>
+        <v>0.2328</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.4138</v>
+        <v>0.4242</v>
       </c>
       <c r="C30">
-        <v>0.1819</v>
+        <v>0.1896</v>
       </c>
       <c r="D30">
-        <v>0.2319</v>
+        <v>0.2346</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.4146</v>
+        <v>0.4276</v>
       </c>
       <c r="C31">
-        <v>0.1837</v>
+        <v>0.1916</v>
       </c>
       <c r="D31">
-        <v>0.2309</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.4146</v>
+        <v>0.43</v>
       </c>
       <c r="C32">
-        <v>0.1843</v>
+        <v>0.1924</v>
       </c>
       <c r="D32">
-        <v>0.2303</v>
+        <v>0.2376</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.4136</v>
+        <v>0.4317</v>
       </c>
       <c r="C33">
-        <v>0.1855</v>
+        <v>0.1938</v>
       </c>
       <c r="D33">
-        <v>0.2281</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.4118</v>
+        <v>0.4325</v>
       </c>
       <c r="C34">
-        <v>0.186</v>
+        <v>0.1944</v>
       </c>
       <c r="D34">
-        <v>0.2257</v>
+        <v>0.2381</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.4101</v>
+        <v>0.4335</v>
       </c>
       <c r="C35">
-        <v>0.1874</v>
+        <v>0.196</v>
       </c>
       <c r="D35">
-        <v>0.2227</v>
+        <v>0.2376</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.4085</v>
+        <v>0.4344</v>
       </c>
       <c r="C36">
-        <v>0.1884</v>
+        <v>0.1971</v>
       </c>
       <c r="D36">
-        <v>0.2201</v>
+        <v>0.2373</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.4061</v>
+        <v>0.4344</v>
       </c>
       <c r="C37">
-        <v>0.1889</v>
+        <v>0.1978</v>
       </c>
       <c r="D37">
-        <v>0.2172</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.4038</v>
+        <v>0.4344</v>
       </c>
       <c r="C38">
-        <v>0.1895</v>
+        <v>0.1985</v>
       </c>
       <c r="D38">
-        <v>0.2144</v>
+        <v>0.2359</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.4014</v>
+        <v>0.4344</v>
       </c>
       <c r="C39">
-        <v>0.1902</v>
+        <v>0.1994</v>
       </c>
       <c r="D39">
-        <v>0.2112</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.3979</v>
+        <v>0.4333</v>
       </c>
       <c r="C40">
-        <v>0.1902</v>
+        <v>0.1995</v>
       </c>
       <c r="D40">
-        <v>0.2077</v>
+        <v>0.2338</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.3945</v>
+        <v>0.4323</v>
       </c>
       <c r="C41">
-        <v>0.1903</v>
+        <v>0.1997</v>
       </c>
       <c r="D41">
-        <v>0.2042</v>
+        <v>0.2326</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.3912</v>
+        <v>0.4317</v>
       </c>
       <c r="C42">
-        <v>0.1909</v>
+        <v>0.2004</v>
       </c>
       <c r="D42">
-        <v>0.2003</v>
+        <v>0.2312</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.3873</v>
+        <v>0.4305</v>
       </c>
       <c r="C43">
-        <v>0.1911</v>
+        <v>0.2009</v>
       </c>
       <c r="D43">
-        <v>0.1961</v>
+        <v>0.2297</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.3835</v>
+        <v>0.4295</v>
       </c>
       <c r="C44">
-        <v>0.1913</v>
+        <v>0.2012</v>
       </c>
       <c r="D44">
-        <v>0.1922</v>
+        <v>0.2283</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3776</v>
+        <v>0.4262</v>
       </c>
       <c r="C45">
-        <v>0.1897</v>
+        <v>0.1996</v>
       </c>
       <c r="D45">
-        <v>0.1879</v>
+        <v>0.2266</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.3729</v>
+        <v>0.4243</v>
       </c>
       <c r="C46">
-        <v>0.1891</v>
+        <v>0.1993</v>
       </c>
       <c r="D46">
-        <v>0.1837</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3679</v>
+        <v>0.4222</v>
       </c>
       <c r="C47">
-        <v>0.1887</v>
+        <v>0.199</v>
       </c>
       <c r="D47">
-        <v>0.1792</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.3614</v>
+        <v>0.4188</v>
       </c>
       <c r="C48">
-        <v>0.1879</v>
+        <v>0.1984</v>
       </c>
       <c r="D48">
-        <v>0.1735</v>
+        <v>0.2204</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3549</v>
+        <v>0.4153</v>
       </c>
       <c r="C49">
-        <v>0.1871</v>
+        <v>0.1978</v>
       </c>
       <c r="D49">
-        <v>0.1677</v>
+        <v>0.2175</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3506</v>
+        <v>0.4135</v>
       </c>
       <c r="C50">
-        <v>0.1864</v>
+        <v>0.1971</v>
       </c>
       <c r="D50">
-        <v>0.1643</v>
+        <v>0.2163</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3453</v>
+        <v>0.4104</v>
       </c>
       <c r="C51">
-        <v>0.1844</v>
+        <v>0.1952</v>
       </c>
       <c r="D51">
-        <v>0.1609</v>
+        <v>0.2151</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3405</v>
+        <v>0.4077</v>
       </c>
       <c r="C52">
-        <v>0.1835</v>
+        <v>0.1944</v>
       </c>
       <c r="D52">
-        <v>0.157</v>
+        <v>0.2133</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.3352</v>
+        <v>0.4045</v>
       </c>
       <c r="C53">
-        <v>0.1822</v>
+        <v>0.1932</v>
       </c>
       <c r="D53">
-        <v>0.153</v>
+        <v>0.2113</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.3292</v>
+        <v>0.4004</v>
       </c>
       <c r="C54">
-        <v>0.1802</v>
+        <v>0.1912</v>
       </c>
       <c r="D54">
-        <v>0.1491</v>
+        <v>0.2092</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3218</v>
+        <v>0.3947</v>
       </c>
       <c r="C55">
-        <v>0.1775</v>
+        <v>0.1886</v>
       </c>
       <c r="D55">
-        <v>0.1443</v>
+        <v>0.2062</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.3131</v>
+        <v>0.3878</v>
       </c>
       <c r="C56">
-        <v>0.1742</v>
+        <v>0.1853</v>
       </c>
       <c r="D56">
-        <v>0.1389</v>
+        <v>0.2025</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.3042</v>
+        <v>0.3804</v>
       </c>
       <c r="C57">
-        <v>0.1707</v>
+        <v>0.1818</v>
       </c>
       <c r="D57">
-        <v>0.1335</v>
+        <v>0.1986</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.2953</v>
+        <v>0.3728</v>
       </c>
       <c r="C58">
-        <v>0.1671</v>
+        <v>0.1782</v>
       </c>
       <c r="D58">
-        <v>0.1282</v>
+        <v>0.1946</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.2863</v>
+        <v>0.3647</v>
       </c>
       <c r="C59">
-        <v>0.1633</v>
+        <v>0.1744</v>
       </c>
       <c r="D59">
-        <v>0.123</v>
+        <v>0.1903</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.2759</v>
+        <v>0.3549</v>
       </c>
       <c r="C60">
-        <v>0.1583</v>
+        <v>0.1693</v>
       </c>
       <c r="D60">
-        <v>0.1176</v>
+        <v>0.1856</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.2655</v>
+        <v>0.3448</v>
       </c>
       <c r="C61">
-        <v>0.1534</v>
+        <v>0.1644</v>
       </c>
       <c r="D61">
-        <v>0.1121</v>
+        <v>0.1804</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.2542</v>
+        <v>0.3336</v>
       </c>
       <c r="C62">
-        <v>0.148</v>
+        <v>0.159</v>
       </c>
       <c r="D62">
-        <v>0.1062</v>
+        <v>0.1746</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.2441</v>
+        <v>0.3233</v>
       </c>
       <c r="C63">
-        <v>0.1434</v>
+        <v>0.1543</v>
       </c>
       <c r="D63">
-        <v>0.1007</v>
+        <v>0.1689</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.2336</v>
+        <v>0.3123</v>
       </c>
       <c r="C64">
-        <v>0.1386</v>
+        <v>0.1494</v>
       </c>
       <c r="D64">
-        <v>0.095</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.2231</v>
+        <v>0.3011</v>
       </c>
       <c r="C65">
-        <v>0.1336</v>
+        <v>0.1444</v>
       </c>
       <c r="D65">
-        <v>0.0895</v>
+        <v>0.1567</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.2125</v>
+        <v>0.2895</v>
       </c>
       <c r="C66">
-        <v>0.1285</v>
+        <v>0.1393</v>
       </c>
       <c r="D66">
-        <v>0.08400000000000001</v>
+        <v>0.1503</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.2014</v>
+        <v>0.2772</v>
       </c>
       <c r="C67">
-        <v>0.1228</v>
+        <v>0.1336</v>
       </c>
       <c r="D67">
-        <v>0.0786</v>
+        <v>0.1436</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.1908</v>
+        <v>0.2652</v>
       </c>
       <c r="C68">
-        <v>0.1175</v>
+        <v>0.1283</v>
       </c>
       <c r="D68">
-        <v>0.0733</v>
+        <v>0.1369</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.1819</v>
+        <v>0.2544</v>
       </c>
       <c r="C69">
-        <v>0.1128</v>
+        <v>0.1234</v>
       </c>
       <c r="D69">
-        <v>0.06909999999999999</v>
+        <v>0.1309</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.1712</v>
+        <v>0.242</v>
       </c>
       <c r="C70">
-        <v>0.1078</v>
+        <v>0.1182</v>
       </c>
       <c r="D70">
-        <v>0.0634</v>
+        <v>0.1237</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.1607</v>
+        <v>0.2297</v>
       </c>
       <c r="C71">
-        <v>0.103</v>
+        <v>0.1133</v>
       </c>
       <c r="D71">
-        <v>0.0576</v>
+        <v>0.1164</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.1502</v>
+        <v>0.2173</v>
       </c>
       <c r="C72">
-        <v>0.09810000000000001</v>
+        <v>0.1081</v>
       </c>
       <c r="D72">
-        <v>0.0522</v>
+        <v>0.1092</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.1407</v>
+        <v>0.2057</v>
       </c>
       <c r="C73">
-        <v>0.0934</v>
+        <v>0.1032</v>
       </c>
       <c r="D73">
-        <v>0.0474</v>
+        <v>0.1025</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.1316</v>
+        <v>0.1944</v>
       </c>
       <c r="C74">
-        <v>0.089</v>
+        <v>0.0987</v>
       </c>
       <c r="D74">
-        <v>0.0426</v>
+        <v>0.0958</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.1231</v>
+        <v>0.1838</v>
       </c>
       <c r="C75">
-        <v>0.0848</v>
+        <v>0.0944</v>
       </c>
       <c r="D75">
-        <v>0.0382</v>
+        <v>0.0893</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.1153</v>
+        <v>0.1737</v>
       </c>
       <c r="C76">
-        <v>0.08119999999999999</v>
+        <v>0.0906</v>
       </c>
       <c r="D76">
-        <v>0.0342</v>
+        <v>0.08309999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.1079</v>
+        <v>0.1639</v>
       </c>
       <c r="C77">
-        <v>0.0775</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="D77">
-        <v>0.0304</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.1004</v>
+        <v>0.1538</v>
       </c>
       <c r="C78">
-        <v>0.0735</v>
+        <v>0.0827</v>
       </c>
       <c r="D78">
-        <v>0.0269</v>
+        <v>0.0711</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.09429999999999999</v>
+        <v>0.1453</v>
       </c>
       <c r="C79">
-        <v>0.0706</v>
+        <v>0.0798</v>
       </c>
       <c r="D79">
-        <v>0.0237</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.09</v>
+        <v>0.1384</v>
       </c>
       <c r="C80">
-        <v>0.0687</v>
+        <v>0.0776</v>
       </c>
       <c r="D80">
-        <v>0.0213</v>
+        <v>0.0608</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.0859</v>
+        <v>0.1317</v>
       </c>
       <c r="C81">
-        <v>0.0667</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="D81">
-        <v>0.0192</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.081</v>
+        <v>0.1242</v>
       </c>
       <c r="C82">
-        <v>0.06370000000000001</v>
+        <v>0.0722</v>
       </c>
       <c r="D82">
-        <v>0.0172</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.0757</v>
+        <v>0.1164</v>
       </c>
       <c r="C83">
-        <v>0.0603</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="D83">
-        <v>0.0154</v>
+        <v>0.0478</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.0704</v>
+        <v>0.1086</v>
       </c>
       <c r="C84">
-        <v>0.0565</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="D84">
-        <v>0.0138</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.06619999999999999</v>
+        <v>0.1019</v>
       </c>
       <c r="C85">
-        <v>0.0534</v>
+        <v>0.0612</v>
       </c>
       <c r="D85">
-        <v>0.0128</v>
+        <v>0.0407</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.0622</v>
+        <v>0.0953</v>
       </c>
       <c r="C86">
-        <v>0.05</v>
+        <v>0.0575</v>
       </c>
       <c r="D86">
-        <v>0.0122</v>
+        <v>0.0379</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.0595</v>
+        <v>0.09</v>
       </c>
       <c r="C87">
-        <v>0.0474</v>
+        <v>0.0543</v>
       </c>
       <c r="D87">
-        <v>0.012</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.0572</v>
+        <v>0.0853</v>
       </c>
       <c r="C88">
-        <v>0.0453</v>
+        <v>0.0516</v>
       </c>
       <c r="D88">
-        <v>0.012</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.0547</v>
+        <v>0.0806</v>
       </c>
       <c r="C89">
-        <v>0.0433</v>
+        <v>0.0492</v>
       </c>
       <c r="D89">
-        <v>0.0114</v>
+        <v>0.0314</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.0524</v>
+        <v>0.0766</v>
       </c>
       <c r="C90">
-        <v>0.0421</v>
+        <v>0.0477</v>
       </c>
       <c r="D90">
-        <v>0.0104</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.0523</v>
+        <v>0.0746</v>
       </c>
       <c r="C91">
-        <v>0.0421</v>
+        <v>0.0473</v>
       </c>
       <c r="D91">
-        <v>0.0102</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.0527</v>
+        <v>0.0731</v>
       </c>
       <c r="C92">
-        <v>0.0422</v>
+        <v>0.047</v>
       </c>
       <c r="D92">
-        <v>0.0105</v>
+        <v>0.0261</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.0542</v>
+        <v>0.0728</v>
       </c>
       <c r="C93">
-        <v>0.0431</v>
+        <v>0.0476</v>
       </c>
       <c r="D93">
-        <v>0.011</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.0562</v>
+        <v>0.073</v>
       </c>
       <c r="C94">
-        <v>0.0443</v>
+        <v>0.0483</v>
       </c>
       <c r="D94">
-        <v>0.0119</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.0583</v>
+        <v>0.0735</v>
       </c>
       <c r="C95">
-        <v>0.0456</v>
+        <v>0.0493</v>
       </c>
       <c r="D95">
-        <v>0.0127</v>
+        <v>0.0242</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.0611</v>
+        <v>0.0747</v>
       </c>
       <c r="C96">
-        <v>0.0475</v>
+        <v>0.0507</v>
       </c>
       <c r="D96">
-        <v>0.0136</v>
+        <v>0.0241</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.0648</v>
+        <v>0.0771</v>
       </c>
       <c r="C97">
-        <v>0.0501</v>
+        <v>0.0529</v>
       </c>
       <c r="D97">
-        <v>0.0146</v>
+        <v>0.0242</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.06809999999999999</v>
+        <v>0.0793</v>
       </c>
       <c r="C98">
-        <v>0.0525</v>
+        <v>0.0548</v>
       </c>
       <c r="D98">
-        <v>0.0157</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.0716</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="C99">
-        <v>0.0546</v>
+        <v>0.0566</v>
       </c>
       <c r="D99">
-        <v>0.0169</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.0762</v>
+        <v>0.0851</v>
       </c>
       <c r="C100">
-        <v>0.0573</v>
+        <v>0.059</v>
       </c>
       <c r="D100">
-        <v>0.0189</v>
+        <v>0.0261</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.08110000000000001</v>
+        <v>0.0891</v>
       </c>
       <c r="C101">
-        <v>0.0601</v>
+        <v>0.0616</v>
       </c>
       <c r="D101">
-        <v>0.021</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.0891</v>
+        <v>0.0956</v>
       </c>
       <c r="C102">
-        <v>0.0645</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="D102">
-        <v>0.0246</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.0975</v>
+        <v>0.1028</v>
       </c>
       <c r="C103">
-        <v>0.0692</v>
+        <v>0.0701</v>
       </c>
       <c r="D103">
-        <v>0.0283</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.1067</v>
+        <v>0.1107</v>
       </c>
       <c r="C104">
-        <v>0.0747</v>
+        <v>0.0752</v>
       </c>
       <c r="D104">
-        <v>0.032</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.115</v>
+        <v>0.1179</v>
       </c>
       <c r="C105">
-        <v>0.0793</v>
+        <v>0.0796</v>
       </c>
       <c r="D105">
-        <v>0.0357</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.1232</v>
+        <v>0.125</v>
       </c>
       <c r="C106">
-        <v>0.0839</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D106">
-        <v>0.0393</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.1304</v>
+        <v>0.1313</v>
       </c>
       <c r="C107">
-        <v>0.08799999999999999</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="D107">
-        <v>0.0424</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2645,10 +2645,10 @@
         <v>0.1367</v>
       </c>
       <c r="C108">
-        <v>0.0914</v>
+        <v>0.0912</v>
       </c>
       <c r="D108">
-        <v>0.0453</v>
+        <v>0.0455</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.1416</v>
+        <v>0.1408</v>
       </c>
       <c r="C109">
-        <v>0.09370000000000001</v>
+        <v>0.0935</v>
       </c>
       <c r="D109">
-        <v>0.0478</v>
+        <v>0.0474</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.1458</v>
+        <v>0.1443</v>
       </c>
       <c r="C110">
-        <v>0.0955</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="D110">
-        <v>0.0503</v>
+        <v>0.0491</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.1483</v>
+        <v>0.1463</v>
       </c>
       <c r="C111">
-        <v>0.09619999999999999</v>
+        <v>0.0958</v>
       </c>
       <c r="D111">
-        <v>0.0522</v>
+        <v>0.0505</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.1505</v>
+        <v>0.1479</v>
       </c>
       <c r="C112">
-        <v>0.0964</v>
+        <v>0.096</v>
       </c>
       <c r="D112">
-        <v>0.054</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.1524</v>
+        <v>0.1495</v>
       </c>
       <c r="C113">
-        <v>0.0969</v>
+        <v>0.0964</v>
       </c>
       <c r="D113">
-        <v>0.0555</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.1545</v>
+        <v>0.1513</v>
       </c>
       <c r="C114">
-        <v>0.0974</v>
+        <v>0.097</v>
       </c>
       <c r="D114">
-        <v>0.0571</v>
+        <v>0.0543</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.1566</v>
+        <v>0.1531</v>
       </c>
       <c r="C115">
-        <v>0.0977</v>
+        <v>0.0973</v>
       </c>
       <c r="D115">
-        <v>0.059</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.1581</v>
+        <v>0.1542</v>
       </c>
       <c r="C116">
-        <v>0.0973</v>
+        <v>0.0969</v>
       </c>
       <c r="D116">
-        <v>0.0608</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.1595</v>
+        <v>0.1551</v>
       </c>
       <c r="C117">
-        <v>0.09660000000000001</v>
+        <v>0.0961</v>
       </c>
       <c r="D117">
-        <v>0.0629</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.1619</v>
+        <v>0.1568</v>
       </c>
       <c r="C118">
-        <v>0.0961</v>
+        <v>0.0956</v>
       </c>
       <c r="D118">
-        <v>0.0658</v>
+        <v>0.0612</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.1643</v>
+        <v>0.1583</v>
       </c>
       <c r="C119">
-        <v>0.0956</v>
+        <v>0.095</v>
       </c>
       <c r="D119">
-        <v>0.0687</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.1656</v>
+        <v>0.1591</v>
       </c>
       <c r="C120">
-        <v>0.0951</v>
+        <v>0.0944</v>
       </c>
       <c r="D120">
-        <v>0.07049999999999999</v>
+        <v>0.06469999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.1673</v>
+        <v>0.1601</v>
       </c>
       <c r="C121">
-        <v>0.0946</v>
+        <v>0.0939</v>
       </c>
       <c r="D121">
-        <v>0.0727</v>
+        <v>0.06610000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.1671</v>
+        <v>0.1593</v>
       </c>
       <c r="C122">
-        <v>0.0934</v>
+        <v>0.0926</v>
       </c>
       <c r="D122">
-        <v>0.0737</v>
+        <v>0.0667</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.1673</v>
+        <v>0.1588</v>
       </c>
       <c r="C123">
-        <v>0.0922</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="D123">
-        <v>0.0751</v>
+        <v>0.0675</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.1683</v>
+        <v>0.159</v>
       </c>
       <c r="C124">
-        <v>0.0915</v>
+        <v>0.0905</v>
       </c>
       <c r="D124">
-        <v>0.0767</v>
+        <v>0.0684</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.1693</v>
+        <v>0.1592</v>
       </c>
       <c r="C125">
-        <v>0.0912</v>
+        <v>0.0902</v>
       </c>
       <c r="D125">
-        <v>0.078</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.1719</v>
+        <v>0.1611</v>
       </c>
       <c r="C126">
-        <v>0.0921</v>
+        <v>0.091</v>
       </c>
       <c r="D126">
-        <v>0.0798</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.1753</v>
+        <v>0.1636</v>
       </c>
       <c r="C127">
-        <v>0.0934</v>
+        <v>0.0924</v>
       </c>
       <c r="D127">
-        <v>0.0819</v>
+        <v>0.0712</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.1797</v>
+        <v>0.1668</v>
       </c>
       <c r="C128">
-        <v>0.0948</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="D128">
-        <v>0.0849</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.1855</v>
+        <v>0.1712</v>
       </c>
       <c r="C129">
-        <v>0.0969</v>
+        <v>0.0959</v>
       </c>
       <c r="D129">
-        <v>0.0886</v>
+        <v>0.07530000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.1911</v>
+        <v>0.1754</v>
       </c>
       <c r="C130">
-        <v>0.0989</v>
+        <v>0.0979</v>
       </c>
       <c r="D130">
-        <v>0.0922</v>
+        <v>0.0774</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.1965</v>
+        <v>0.1793</v>
       </c>
       <c r="C131">
-        <v>0.1007</v>
+        <v>0.0998</v>
       </c>
       <c r="D131">
-        <v>0.0958</v>
+        <v>0.0795</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.2024</v>
+        <v>0.1837</v>
       </c>
       <c r="C132">
-        <v>0.1032</v>
+        <v>0.1023</v>
       </c>
       <c r="D132">
-        <v>0.0992</v>
+        <v>0.0814</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.2086</v>
+        <v>0.1883</v>
       </c>
       <c r="C133">
-        <v>0.1058</v>
+        <v>0.1049</v>
       </c>
       <c r="D133">
-        <v>0.1028</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.2152</v>
+        <v>0.193</v>
       </c>
       <c r="C134">
-        <v>0.1087</v>
+        <v>0.1078</v>
       </c>
       <c r="D134">
-        <v>0.1065</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.222</v>
+        <v>0.1978</v>
       </c>
       <c r="C135">
-        <v>0.1117</v>
+        <v>0.1109</v>
       </c>
       <c r="D135">
-        <v>0.1103</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.2288</v>
+        <v>0.2025</v>
       </c>
       <c r="C136">
-        <v>0.1147</v>
+        <v>0.1138</v>
       </c>
       <c r="D136">
-        <v>0.1141</v>
+        <v>0.0887</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.2351</v>
+        <v>0.2068</v>
       </c>
       <c r="C137">
-        <v>0.1176</v>
+        <v>0.1167</v>
       </c>
       <c r="D137">
-        <v>0.1175</v>
+        <v>0.0901</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.241</v>
+        <v>0.2108</v>
       </c>
       <c r="C138">
-        <v>0.1206</v>
+        <v>0.1196</v>
       </c>
       <c r="D138">
-        <v>0.1204</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.2461</v>
+        <v>0.2141</v>
       </c>
       <c r="C139">
-        <v>0.1229</v>
+        <v>0.122</v>
       </c>
       <c r="D139">
-        <v>0.1231</v>
+        <v>0.0921</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.2515</v>
+        <v>0.2177</v>
       </c>
       <c r="C140">
-        <v>0.1254</v>
+        <v>0.1244</v>
       </c>
       <c r="D140">
-        <v>0.1261</v>
+        <v>0.09329999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.2564</v>
+        <v>0.2209</v>
       </c>
       <c r="C141">
-        <v>0.1274</v>
+        <v>0.1265</v>
       </c>
       <c r="D141">
-        <v>0.1289</v>
+        <v>0.0945</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.2615</v>
+        <v>0.2246</v>
       </c>
       <c r="C142">
-        <v>0.1299</v>
+        <v>0.129</v>
       </c>
       <c r="D142">
-        <v>0.1316</v>
+        <v>0.0956</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.2659</v>
+        <v>0.2276</v>
       </c>
       <c r="C143">
-        <v>0.1319</v>
+        <v>0.131</v>
       </c>
       <c r="D143">
-        <v>0.134</v>
+        <v>0.09660000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.2697</v>
+        <v>0.23</v>
       </c>
       <c r="C144">
-        <v>0.1332</v>
+        <v>0.1323</v>
       </c>
       <c r="D144">
-        <v>0.1364</v>
+        <v>0.0977</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.2741</v>
+        <v>0.2331</v>
       </c>
       <c r="C145">
-        <v>0.1348</v>
+        <v>0.1339</v>
       </c>
       <c r="D145">
-        <v>0.1393</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.2786</v>
+        <v>0.2361</v>
       </c>
       <c r="C146">
-        <v>0.1356</v>
+        <v>0.1347</v>
       </c>
       <c r="D146">
-        <v>0.143</v>
+        <v>0.1014</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.2829</v>
+        <v>0.2388</v>
       </c>
       <c r="C147">
-        <v>0.1357</v>
+        <v>0.1349</v>
       </c>
       <c r="D147">
-        <v>0.1471</v>
+        <v>0.1039</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.2871</v>
+        <v>0.2415</v>
       </c>
       <c r="C148">
-        <v>0.1358</v>
+        <v>0.1349</v>
       </c>
       <c r="D148">
-        <v>0.1513</v>
+        <v>0.1065</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.291</v>
+        <v>0.244</v>
       </c>
       <c r="C149">
-        <v>0.1359</v>
+        <v>0.135</v>
       </c>
       <c r="D149">
-        <v>0.1551</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.295</v>
+        <v>0.2467</v>
       </c>
       <c r="C150">
-        <v>0.136</v>
+        <v>0.1352</v>
       </c>
       <c r="D150">
-        <v>0.159</v>
+        <v>0.1115</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.2994</v>
+        <v>0.2499</v>
       </c>
       <c r="C151">
-        <v>0.1365</v>
+        <v>0.1358</v>
       </c>
       <c r="D151">
-        <v>0.1629</v>
+        <v>0.1141</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.3043</v>
+        <v>0.2537</v>
       </c>
       <c r="C152">
-        <v>0.1375</v>
+        <v>0.1369</v>
       </c>
       <c r="D152">
-        <v>0.1667</v>
+        <v>0.1168</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.3076</v>
+        <v>0.2561</v>
       </c>
       <c r="C153">
-        <v>0.1373</v>
+        <v>0.1367</v>
       </c>
       <c r="D153">
-        <v>0.1703</v>
+        <v>0.1194</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.3106</v>
+        <v>0.2583</v>
       </c>
       <c r="C154">
-        <v>0.1371</v>
+        <v>0.1366</v>
       </c>
       <c r="D154">
-        <v>0.1735</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.3136</v>
+        <v>0.2606</v>
       </c>
       <c r="C155">
-        <v>0.1368</v>
+        <v>0.1364</v>
       </c>
       <c r="D155">
-        <v>0.1767</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.3172</v>
+        <v>0.2636</v>
       </c>
       <c r="C156">
-        <v>0.1373</v>
+        <v>0.1369</v>
       </c>
       <c r="D156">
-        <v>0.1799</v>
+        <v>0.1267</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.3207</v>
+        <v>0.2666</v>
       </c>
       <c r="C157">
-        <v>0.1377</v>
+        <v>0.1375</v>
       </c>
       <c r="D157">
-        <v>0.183</v>
+        <v>0.1291</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.3248</v>
+        <v>0.2703</v>
       </c>
       <c r="C158">
-        <v>0.139</v>
+        <v>0.1388</v>
       </c>
       <c r="D158">
-        <v>0.1858</v>
+        <v>0.1315</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.3294</v>
+        <v>0.2746</v>
       </c>
       <c r="C159">
-        <v>0.1411</v>
+        <v>0.1412</v>
       </c>
       <c r="D159">
-        <v>0.1883</v>
+        <v>0.1335</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.3332</v>
+        <v>0.2779</v>
       </c>
       <c r="C160">
-        <v>0.1427</v>
+        <v>0.1429</v>
       </c>
       <c r="D160">
-        <v>0.1904</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.3376</v>
+        <v>0.2817</v>
       </c>
       <c r="C161">
-        <v>0.1447</v>
+        <v>0.145</v>
       </c>
       <c r="D161">
-        <v>0.193</v>
+        <v>0.1368</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.3423</v>
+        <v>0.2856</v>
       </c>
       <c r="C162">
-        <v>0.1467</v>
+        <v>0.1471</v>
       </c>
       <c r="D162">
-        <v>0.1956</v>
+        <v>0.1384</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.3465</v>
+        <v>0.2888</v>
       </c>
       <c r="C163">
-        <v>0.1487</v>
+        <v>0.1493</v>
       </c>
       <c r="D163">
-        <v>0.1978</v>
+        <v>0.1395</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.3505</v>
+        <v>0.2917</v>
       </c>
       <c r="C164">
-        <v>0.1509</v>
+        <v>0.1515</v>
       </c>
       <c r="D164">
-        <v>0.1996</v>
+        <v>0.1402</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.3535</v>
+        <v>0.2935</v>
       </c>
       <c r="C165">
-        <v>0.1525</v>
+        <v>0.1531</v>
       </c>
       <c r="D165">
-        <v>0.201</v>
+        <v>0.1403</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.3555</v>
+        <v>0.2944</v>
       </c>
       <c r="C166">
-        <v>0.1543</v>
+        <v>0.1549</v>
       </c>
       <c r="D166">
-        <v>0.2013</v>
+        <v>0.1395</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.3575</v>
+        <v>0.2954</v>
       </c>
       <c r="C167">
-        <v>0.1569</v>
+        <v>0.1575</v>
       </c>
       <c r="D167">
-        <v>0.2007</v>
+        <v>0.1379</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.359</v>
+        <v>0.2959</v>
       </c>
       <c r="C168">
-        <v>0.1597</v>
+        <v>0.1603</v>
       </c>
       <c r="D168">
-        <v>0.1993</v>
+        <v>0.1356</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3496,13 +3496,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.3603</v>
+        <v>0.296</v>
       </c>
       <c r="C169">
-        <v>0.1622</v>
+        <v>0.1627</v>
       </c>
       <c r="D169">
-        <v>0.198</v>
+        <v>0.1332</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.3623</v>
+        <v>0.2964</v>
       </c>
       <c r="C170">
-        <v>0.1645</v>
+        <v>0.1649</v>
       </c>
       <c r="D170">
-        <v>0.1978</v>
+        <v>0.1314</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.3645</v>
+        <v>0.2969</v>
       </c>
       <c r="C171">
-        <v>0.1672</v>
+        <v>0.1676</v>
       </c>
       <c r="D171">
-        <v>0.1973</v>
+        <v>0.1293</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.3656</v>
+        <v>0.2961</v>
       </c>
       <c r="C172">
-        <v>0.1689</v>
+        <v>0.1691</v>
       </c>
       <c r="D172">
-        <v>0.1967</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.3672</v>
+        <v>0.2957</v>
       </c>
       <c r="C173">
-        <v>0.1711</v>
+        <v>0.1712</v>
       </c>
       <c r="D173">
-        <v>0.1961</v>
+        <v>0.1245</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.3683</v>
+        <v>0.2947</v>
       </c>
       <c r="C174">
-        <v>0.1728</v>
+        <v>0.1727</v>
       </c>
       <c r="D174">
-        <v>0.1956</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.3696</v>
+        <v>0.2937</v>
       </c>
       <c r="C175">
-        <v>0.1745</v>
+        <v>0.1743</v>
       </c>
       <c r="D175">
-        <v>0.1951</v>
+        <v>0.1194</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.3703</v>
+        <v>0.292</v>
       </c>
       <c r="C176">
-        <v>0.1756</v>
+        <v>0.1752</v>
       </c>
       <c r="D176">
-        <v>0.1946</v>
+        <v>0.1168</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.3716</v>
+        <v>0.2906</v>
       </c>
       <c r="C177">
-        <v>0.1762</v>
+        <v>0.1756</v>
       </c>
       <c r="D177">
-        <v>0.1953</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.3715</v>
+        <v>0.2878</v>
       </c>
       <c r="C178">
-        <v>0.1757</v>
+        <v>0.1748</v>
       </c>
       <c r="D178">
-        <v>0.1958</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.3706</v>
+        <v>0.2842</v>
       </c>
       <c r="C179">
-        <v>0.1742</v>
+        <v>0.173</v>
       </c>
       <c r="D179">
-        <v>0.1964</v>
+        <v>0.1112</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3698</v>
+        <v>0.281</v>
       </c>
       <c r="C180">
-        <v>0.173</v>
+        <v>0.1715</v>
       </c>
       <c r="D180">
-        <v>0.1967</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.3678</v>
+        <v>0.2769</v>
       </c>
       <c r="C181">
-        <v>0.1715</v>
+        <v>0.1697</v>
       </c>
       <c r="D181">
-        <v>0.1964</v>
+        <v>0.1073</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.3651</v>
+        <v>0.2724</v>
       </c>
       <c r="C182">
-        <v>0.1693</v>
+        <v>0.1672</v>
       </c>
       <c r="D182">
-        <v>0.1958</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.362</v>
+        <v>0.2677</v>
       </c>
       <c r="C183">
-        <v>0.1669</v>
+        <v>0.1645</v>
       </c>
       <c r="D183">
-        <v>0.195</v>
+        <v>0.1033</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.3591</v>
+        <v>0.2635</v>
       </c>
       <c r="C184">
-        <v>0.1644</v>
+        <v>0.1616</v>
       </c>
       <c r="D184">
-        <v>0.1947</v>
+        <v>0.1019</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.3568</v>
+        <v>0.26</v>
       </c>
       <c r="C185">
-        <v>0.1622</v>
+        <v>0.1592</v>
       </c>
       <c r="D185">
-        <v>0.1946</v>
+        <v>0.1008</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.3542</v>
+        <v>0.2566</v>
       </c>
       <c r="C186">
-        <v>0.16</v>
+        <v>0.1568</v>
       </c>
       <c r="D186">
-        <v>0.1942</v>
+        <v>0.0998</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.3515</v>
+        <v>0.2532</v>
       </c>
       <c r="C187">
-        <v>0.1574</v>
+        <v>0.154</v>
       </c>
       <c r="D187">
-        <v>0.1941</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.3486</v>
+        <v>0.2499</v>
       </c>
       <c r="C188">
-        <v>0.1546</v>
+        <v>0.1511</v>
       </c>
       <c r="D188">
-        <v>0.1939</v>
+        <v>0.0988</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.3456</v>
+        <v>0.2468</v>
       </c>
       <c r="C189">
-        <v>0.1521</v>
+        <v>0.1483</v>
       </c>
       <c r="D189">
-        <v>0.1935</v>
+        <v>0.0985</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.3424</v>
+        <v>0.244</v>
       </c>
       <c r="C190">
-        <v>0.15</v>
+        <v>0.1462</v>
       </c>
       <c r="D190">
-        <v>0.1924</v>
+        <v>0.0978</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.3391</v>
+        <v>0.2411</v>
       </c>
       <c r="C191">
-        <v>0.1476</v>
+        <v>0.1437</v>
       </c>
       <c r="D191">
-        <v>0.1914</v>
+        <v>0.0974</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.3365</v>
+        <v>0.2393</v>
       </c>
       <c r="C192">
-        <v>0.146</v>
+        <v>0.142</v>
       </c>
       <c r="D192">
-        <v>0.1905</v>
+        <v>0.09719999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.3345</v>
+        <v>0.2383</v>
       </c>
       <c r="C193">
-        <v>0.1451</v>
+        <v>0.1411</v>
       </c>
       <c r="D193">
-        <v>0.1894</v>
+        <v>0.09710000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.3329</v>
+        <v>0.2378</v>
       </c>
       <c r="C194">
-        <v>0.1446</v>
+        <v>0.1407</v>
       </c>
       <c r="D194">
-        <v>0.1883</v>
+        <v>0.09710000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.3316</v>
+        <v>0.2378</v>
       </c>
       <c r="C195">
-        <v>0.1444</v>
+        <v>0.1405</v>
       </c>
       <c r="D195">
-        <v>0.1872</v>
+        <v>0.09719999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.3308</v>
+        <v>0.2384</v>
       </c>
       <c r="C196">
-        <v>0.1449</v>
+        <v>0.1411</v>
       </c>
       <c r="D196">
-        <v>0.186</v>
+        <v>0.0973</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.3304</v>
+        <v>0.2397</v>
       </c>
       <c r="C197">
-        <v>0.1466</v>
+        <v>0.143</v>
       </c>
       <c r="D197">
-        <v>0.1838</v>
+        <v>0.09669999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.3301</v>
+        <v>0.2411</v>
       </c>
       <c r="C198">
-        <v>0.1484</v>
+        <v>0.1449</v>
       </c>
       <c r="D198">
-        <v>0.1817</v>
+        <v>0.09619999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.3294</v>
+        <v>0.242</v>
       </c>
       <c r="C199">
-        <v>0.1499</v>
+        <v>0.1465</v>
       </c>
       <c r="D199">
-        <v>0.1795</v>
+        <v>0.0955</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.328</v>
+        <v>0.2422</v>
       </c>
       <c r="C200">
-        <v>0.1507</v>
+        <v>0.1475</v>
       </c>
       <c r="D200">
-        <v>0.1773</v>
+        <v>0.09470000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.3271</v>
+        <v>0.2426</v>
       </c>
       <c r="C201">
-        <v>0.152</v>
+        <v>0.1488</v>
       </c>
       <c r="D201">
-        <v>0.1751</v>
+        <v>0.09379999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.3265</v>
+        <v>0.2432</v>
       </c>
       <c r="C202">
-        <v>0.1537</v>
+        <v>0.1505</v>
       </c>
       <c r="D202">
-        <v>0.1728</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.326</v>
+        <v>0.2437</v>
       </c>
       <c r="C203">
-        <v>0.1553</v>
+        <v>0.1522</v>
       </c>
       <c r="D203">
-        <v>0.1707</v>
+        <v>0.0915</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.3248</v>
+        <v>0.2434</v>
       </c>
       <c r="C204">
-        <v>0.1566</v>
+        <v>0.1535</v>
       </c>
       <c r="D204">
-        <v>0.1682</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.3237</v>
+        <v>0.2431</v>
       </c>
       <c r="C205">
-        <v>0.158</v>
+        <v>0.1548</v>
       </c>
       <c r="D205">
-        <v>0.1658</v>
+        <v>0.0883</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.3222</v>
+        <v>0.2421</v>
       </c>
       <c r="C206">
-        <v>0.1588</v>
+        <v>0.1556</v>
       </c>
       <c r="D206">
-        <v>0.1634</v>
+        <v>0.08649999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.3211</v>
+        <v>0.2415</v>
       </c>
       <c r="C207">
-        <v>0.1602</v>
+        <v>0.1569</v>
       </c>
       <c r="D207">
-        <v>0.1609</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.3205</v>
+        <v>0.241</v>
       </c>
       <c r="C208">
-        <v>0.1611</v>
+        <v>0.1577</v>
       </c>
       <c r="D208">
-        <v>0.1594</v>
+        <v>0.0832</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.32</v>
+        <v>0.2405</v>
       </c>
       <c r="C209">
-        <v>0.1621</v>
+        <v>0.1587</v>
       </c>
       <c r="D209">
-        <v>0.1579</v>
+        <v>0.0818</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.3186</v>
+        <v>0.2391</v>
       </c>
       <c r="C210">
-        <v>0.1625</v>
+        <v>0.1589</v>
       </c>
       <c r="D210">
-        <v>0.1561</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.3181</v>
+        <v>0.2384</v>
       </c>
       <c r="C211">
-        <v>0.163</v>
+        <v>0.1594</v>
       </c>
       <c r="D211">
-        <v>0.1551</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.3167</v>
+        <v>0.2366</v>
       </c>
       <c r="C212">
-        <v>0.1626</v>
+        <v>0.1588</v>
       </c>
       <c r="D212">
-        <v>0.1541</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.3159</v>
+        <v>0.2354</v>
       </c>
       <c r="C213">
-        <v>0.1623</v>
+        <v>0.1584</v>
       </c>
       <c r="D213">
-        <v>0.1536</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.315</v>
+        <v>0.2342</v>
       </c>
       <c r="C214">
-        <v>0.1618</v>
+        <v>0.1578</v>
       </c>
       <c r="D214">
-        <v>0.1532</v>
+        <v>0.07630000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.3137</v>
+        <v>0.2324</v>
       </c>
       <c r="C215">
-        <v>0.1608</v>
+        <v>0.1568</v>
       </c>
       <c r="D215">
-        <v>0.1528</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.3118</v>
+        <v>0.2302</v>
       </c>
       <c r="C216">
-        <v>0.1594</v>
+        <v>0.1552</v>
       </c>
       <c r="D216">
-        <v>0.1524</v>
+        <v>0.0751</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.3087</v>
+        <v>0.2269</v>
       </c>
       <c r="C217">
-        <v>0.1568</v>
+        <v>0.1524</v>
       </c>
       <c r="D217">
-        <v>0.152</v>
+        <v>0.0746</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.3058</v>
+        <v>0.2238</v>
       </c>
       <c r="C218">
-        <v>0.1542</v>
+        <v>0.1497</v>
       </c>
       <c r="D218">
-        <v>0.1515</v>
+        <v>0.0742</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.3029</v>
+        <v>0.2209</v>
       </c>
       <c r="C219">
-        <v>0.1516</v>
+        <v>0.1469</v>
       </c>
       <c r="D219">
-        <v>0.1513</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.3</v>
+        <v>0.218</v>
       </c>
       <c r="C220">
-        <v>0.1486</v>
+        <v>0.1438</v>
       </c>
       <c r="D220">
-        <v>0.1513</v>
+        <v>0.0742</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.2971</v>
+        <v>0.2154</v>
       </c>
       <c r="C221">
-        <v>0.1456</v>
+        <v>0.1407</v>
       </c>
       <c r="D221">
-        <v>0.1515</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.2931</v>
+        <v>0.2117</v>
       </c>
       <c r="C222">
-        <v>0.1413</v>
+        <v>0.1363</v>
       </c>
       <c r="D222">
-        <v>0.1518</v>
+        <v>0.07539999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.2897</v>
+        <v>0.2089</v>
       </c>
       <c r="C223">
-        <v>0.1374</v>
+        <v>0.1324</v>
       </c>
       <c r="D223">
-        <v>0.1523</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.2865</v>
+        <v>0.2064</v>
       </c>
       <c r="C224">
-        <v>0.1332</v>
+        <v>0.1283</v>
       </c>
       <c r="D224">
-        <v>0.1533</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.2826</v>
+        <v>0.2034</v>
       </c>
       <c r="C225">
-        <v>0.1285</v>
+        <v>0.1236</v>
       </c>
       <c r="D225">
-        <v>0.1541</v>
+        <v>0.0798</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.2794</v>
+        <v>0.2011</v>
       </c>
       <c r="C226">
-        <v>0.1242</v>
+        <v>0.1194</v>
       </c>
       <c r="D226">
-        <v>0.1552</v>
+        <v>0.08169999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.2753</v>
+        <v>0.198</v>
       </c>
       <c r="C227">
-        <v>0.1189</v>
+        <v>0.1142</v>
       </c>
       <c r="D227">
-        <v>0.1564</v>
+        <v>0.0838</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.2708</v>
+        <v>0.1948</v>
       </c>
       <c r="C228">
-        <v>0.1141</v>
+        <v>0.1096</v>
       </c>
       <c r="D228">
-        <v>0.1566</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.2662</v>
+        <v>0.1916</v>
       </c>
       <c r="C229">
-        <v>0.1094</v>
+        <v>0.1049</v>
       </c>
       <c r="D229">
-        <v>0.1569</v>
+        <v>0.0868</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.2628</v>
+        <v>0.1898</v>
       </c>
       <c r="C230">
-        <v>0.1057</v>
+        <v>0.1013</v>
       </c>
       <c r="D230">
-        <v>0.1571</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.2584</v>
+        <v>0.1872</v>
       </c>
       <c r="C231">
-        <v>0.1018</v>
+        <v>0.0975</v>
       </c>
       <c r="D231">
-        <v>0.1566</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.2549</v>
+        <v>0.1856</v>
       </c>
       <c r="C232">
-        <v>0.09859999999999999</v>
+        <v>0.0944</v>
       </c>
       <c r="D232">
-        <v>0.1564</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.2508</v>
+        <v>0.1834</v>
       </c>
       <c r="C233">
-        <v>0.0948</v>
+        <v>0.0907</v>
       </c>
       <c r="D233">
-        <v>0.156</v>
+        <v>0.0927</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.2472</v>
+        <v>0.1817</v>
       </c>
       <c r="C234">
-        <v>0.09130000000000001</v>
+        <v>0.0873</v>
       </c>
       <c r="D234">
-        <v>0.1559</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.2433</v>
+        <v>0.1797</v>
       </c>
       <c r="C235">
-        <v>0.0877</v>
+        <v>0.0838</v>
       </c>
       <c r="D235">
-        <v>0.1556</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.24</v>
+        <v>0.1783</v>
       </c>
       <c r="C236">
-        <v>0.08450000000000001</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="D236">
-        <v>0.1556</v>
+        <v>0.09760000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.2381</v>
+        <v>0.1781</v>
       </c>
       <c r="C237">
-        <v>0.0819</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="D237">
-        <v>0.1562</v>
+        <v>0.0998</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.2372</v>
+        <v>0.1786</v>
       </c>
       <c r="C238">
-        <v>0.0796</v>
+        <v>0.0761</v>
       </c>
       <c r="D238">
-        <v>0.1576</v>
+        <v>0.1025</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.2374</v>
+        <v>0.1803</v>
       </c>
       <c r="C239">
-        <v>0.07829999999999999</v>
+        <v>0.075</v>
       </c>
       <c r="D239">
-        <v>0.159</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.2385</v>
+        <v>0.1828</v>
       </c>
       <c r="C240">
-        <v>0.07779999999999999</v>
+        <v>0.0747</v>
       </c>
       <c r="D240">
-        <v>0.1607</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.2397</v>
+        <v>0.1851</v>
       </c>
       <c r="C241">
-        <v>0.0769</v>
+        <v>0.0741</v>
       </c>
       <c r="D241">
-        <v>0.1628</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.2415</v>
+        <v>0.188</v>
       </c>
       <c r="C242">
-        <v>0.07679999999999999</v>
+        <v>0.0742</v>
       </c>
       <c r="D242">
-        <v>0.1646</v>
+        <v>0.1138</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.2433</v>
+        <v>0.1908</v>
       </c>
       <c r="C243">
-        <v>0.0767</v>
+        <v>0.0742</v>
       </c>
       <c r="D243">
-        <v>0.1666</v>
+        <v>0.1166</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.2454</v>
+        <v>0.194</v>
       </c>
       <c r="C244">
-        <v>0.0772</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="D244">
-        <v>0.1683</v>
+        <v>0.1191</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.2481</v>
+        <v>0.1977</v>
       </c>
       <c r="C245">
-        <v>0.07829999999999999</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="D245">
-        <v>0.1697</v>
+        <v>0.1214</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.2505</v>
+        <v>0.2012</v>
       </c>
       <c r="C246">
-        <v>0.0794</v>
+        <v>0.0775</v>
       </c>
       <c r="D246">
-        <v>0.1711</v>
+        <v>0.1237</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.2536</v>
+        <v>0.2053</v>
       </c>
       <c r="C247">
-        <v>0.08069999999999999</v>
+        <v>0.079</v>
       </c>
       <c r="D247">
-        <v>0.1729</v>
+        <v>0.1263</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.2572</v>
+        <v>0.2099</v>
       </c>
       <c r="C248">
-        <v>0.0818</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="D248">
-        <v>0.1754</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.2607</v>
+        <v>0.2142</v>
       </c>
       <c r="C249">
-        <v>0.08260000000000001</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="D249">
-        <v>0.1781</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.2639</v>
+        <v>0.2182</v>
       </c>
       <c r="C250">
-        <v>0.0828</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="D250">
-        <v>0.1811</v>
+        <v>0.1366</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.2674</v>
+        <v>0.2223</v>
       </c>
       <c r="C251">
-        <v>0.083</v>
+        <v>0.082</v>
       </c>
       <c r="D251">
-        <v>0.1844</v>
+        <v>0.1404</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2010 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2010 - Diaria.xlsx
@@ -1158,13 +1158,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3518</v>
+        <v>0.3507</v>
       </c>
       <c r="C2">
-        <v>0.1901</v>
+        <v>0.19</v>
       </c>
       <c r="D2">
-        <v>0.1617</v>
+        <v>0.1607</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3535</v>
+        <v>0.3524</v>
       </c>
       <c r="C3">
-        <v>0.1889</v>
+        <v>0.1888</v>
       </c>
       <c r="D3">
-        <v>0.1646</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3553</v>
+        <v>0.3543</v>
       </c>
       <c r="C4">
         <v>0.1874</v>
       </c>
       <c r="D4">
-        <v>0.1679</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3579</v>
+        <v>0.3568</v>
       </c>
       <c r="C5">
         <v>0.1868</v>
       </c>
       <c r="D5">
-        <v>0.171</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3599</v>
+        <v>0.3589</v>
       </c>
       <c r="C6">
-        <v>0.1857</v>
+        <v>0.1856</v>
       </c>
       <c r="D6">
-        <v>0.1742</v>
+        <v>0.1733</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3622</v>
+        <v>0.3612</v>
       </c>
       <c r="C7">
-        <v>0.1843</v>
+        <v>0.1842</v>
       </c>
       <c r="D7">
-        <v>0.1779</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3647</v>
+        <v>0.3638</v>
       </c>
       <c r="C8">
-        <v>0.1833</v>
+        <v>0.1832</v>
       </c>
       <c r="D8">
-        <v>0.1814</v>
+        <v>0.1805</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3635</v>
+        <v>0.3627</v>
       </c>
       <c r="C9">
-        <v>0.1812</v>
+        <v>0.1811</v>
       </c>
       <c r="D9">
-        <v>0.1824</v>
+        <v>0.1816</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3633</v>
+        <v>0.3626</v>
       </c>
       <c r="C10">
-        <v>0.1797</v>
+        <v>0.1796</v>
       </c>
       <c r="D10">
-        <v>0.1836</v>
+        <v>0.1829</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3634</v>
+        <v>0.3627</v>
       </c>
       <c r="C11">
-        <v>0.1782</v>
+        <v>0.1781</v>
       </c>
       <c r="D11">
-        <v>0.1853</v>
+        <v>0.1846</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3636</v>
+        <v>0.363</v>
       </c>
       <c r="C12">
         <v>0.1765</v>
       </c>
       <c r="D12">
-        <v>0.1871</v>
+        <v>0.1865</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3641</v>
+        <v>0.3635</v>
       </c>
       <c r="C13">
         <v>0.1744</v>
       </c>
       <c r="D13">
-        <v>0.1897</v>
+        <v>0.1891</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3656</v>
+        <v>0.365</v>
       </c>
       <c r="C14">
-        <v>0.1733</v>
+        <v>0.1732</v>
       </c>
       <c r="D14">
-        <v>0.1924</v>
+        <v>0.1918</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3682</v>
+        <v>0.3676</v>
       </c>
       <c r="C15">
         <v>0.1722</v>
       </c>
       <c r="D15">
-        <v>0.196</v>
+        <v>0.1954</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3712</v>
+        <v>0.3706</v>
       </c>
       <c r="C16">
         <v>0.1717</v>
       </c>
       <c r="D16">
-        <v>0.1995</v>
+        <v>0.1989</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.3755</v>
+        <v>0.3749</v>
       </c>
       <c r="C17">
         <v>0.1722</v>
       </c>
       <c r="D17">
-        <v>0.2033</v>
+        <v>0.2027</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3805</v>
+        <v>0.3799</v>
       </c>
       <c r="C18">
         <v>0.1734</v>
       </c>
       <c r="D18">
-        <v>0.2071</v>
+        <v>0.2065</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.3847</v>
+        <v>0.384</v>
       </c>
       <c r="C19">
         <v>0.1737</v>
       </c>
       <c r="D19">
-        <v>0.211</v>
+        <v>0.2104</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3885</v>
+        <v>0.3879</v>
       </c>
       <c r="C20">
-        <v>0.1749</v>
+        <v>0.1748</v>
       </c>
       <c r="D20">
-        <v>0.2136</v>
+        <v>0.2131</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3919</v>
+        <v>0.3913</v>
       </c>
       <c r="C21">
         <v>0.1757</v>
       </c>
       <c r="D21">
-        <v>0.2162</v>
+        <v>0.2157</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.3967</v>
+        <v>0.3961</v>
       </c>
       <c r="C22">
-        <v>0.1776</v>
+        <v>0.1775</v>
       </c>
       <c r="D22">
-        <v>0.2191</v>
+        <v>0.2185</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.4011</v>
+        <v>0.4005</v>
       </c>
       <c r="C23">
-        <v>0.1793</v>
+        <v>0.1792</v>
       </c>
       <c r="D23">
-        <v>0.2218</v>
+        <v>0.2212</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.4046</v>
+        <v>0.404</v>
       </c>
       <c r="C24">
-        <v>0.1806</v>
+        <v>0.1805</v>
       </c>
       <c r="D24">
-        <v>0.224</v>
+        <v>0.2235</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.409</v>
+        <v>0.4084</v>
       </c>
       <c r="C25">
-        <v>0.1833</v>
+        <v>0.1832</v>
       </c>
       <c r="D25">
-        <v>0.2257</v>
+        <v>0.2252</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.4123</v>
+        <v>0.4117</v>
       </c>
       <c r="C26">
-        <v>0.185</v>
+        <v>0.1849</v>
       </c>
       <c r="D26">
-        <v>0.2272</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4145</v>
+        <v>0.4139</v>
       </c>
       <c r="C27">
-        <v>0.1859</v>
+        <v>0.1858</v>
       </c>
       <c r="D27">
-        <v>0.2285</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.4181</v>
+        <v>0.4175</v>
       </c>
       <c r="C28">
-        <v>0.1875</v>
+        <v>0.1874</v>
       </c>
       <c r="D28">
-        <v>0.2307</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.4216</v>
+        <v>0.4209</v>
       </c>
       <c r="C29">
-        <v>0.1888</v>
+        <v>0.1887</v>
       </c>
       <c r="D29">
-        <v>0.2328</v>
+        <v>0.2322</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.4242</v>
+        <v>0.4235</v>
       </c>
       <c r="C30">
-        <v>0.1896</v>
+        <v>0.1895</v>
       </c>
       <c r="D30">
-        <v>0.2346</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.4276</v>
+        <v>0.4269</v>
       </c>
       <c r="C31">
-        <v>0.1916</v>
+        <v>0.1915</v>
       </c>
       <c r="D31">
-        <v>0.236</v>
+        <v>0.2354</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.43</v>
+        <v>0.4292</v>
       </c>
       <c r="C32">
-        <v>0.1924</v>
+        <v>0.1923</v>
       </c>
       <c r="D32">
-        <v>0.2376</v>
+        <v>0.2369</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.4317</v>
+        <v>0.4309</v>
       </c>
       <c r="C33">
-        <v>0.1938</v>
+        <v>0.1937</v>
       </c>
       <c r="D33">
-        <v>0.238</v>
+        <v>0.2373</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.4325</v>
+        <v>0.4317</v>
       </c>
       <c r="C34">
-        <v>0.1944</v>
+        <v>0.1943</v>
       </c>
       <c r="D34">
-        <v>0.2381</v>
+        <v>0.2373</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.4335</v>
+        <v>0.4327</v>
       </c>
       <c r="C35">
-        <v>0.196</v>
+        <v>0.1958</v>
       </c>
       <c r="D35">
-        <v>0.2376</v>
+        <v>0.2369</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.4344</v>
+        <v>0.4336</v>
       </c>
       <c r="C36">
-        <v>0.1971</v>
+        <v>0.197</v>
       </c>
       <c r="D36">
-        <v>0.2373</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.4344</v>
+        <v>0.4336</v>
       </c>
       <c r="C37">
-        <v>0.1978</v>
+        <v>0.1977</v>
       </c>
       <c r="D37">
-        <v>0.2366</v>
+        <v>0.2359</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.4344</v>
+        <v>0.4336</v>
       </c>
       <c r="C38">
-        <v>0.1985</v>
+        <v>0.1984</v>
       </c>
       <c r="D38">
-        <v>0.2359</v>
+        <v>0.2352</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.4344</v>
+        <v>0.4335</v>
       </c>
       <c r="C39">
-        <v>0.1994</v>
+        <v>0.1992</v>
       </c>
       <c r="D39">
-        <v>0.235</v>
+        <v>0.2342</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.4333</v>
+        <v>0.4324</v>
       </c>
       <c r="C40">
-        <v>0.1995</v>
+        <v>0.1994</v>
       </c>
       <c r="D40">
-        <v>0.2338</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.4323</v>
+        <v>0.4314</v>
       </c>
       <c r="C41">
-        <v>0.1997</v>
+        <v>0.1996</v>
       </c>
       <c r="D41">
-        <v>0.2326</v>
+        <v>0.2318</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.4317</v>
+        <v>0.4308</v>
       </c>
       <c r="C42">
-        <v>0.2004</v>
+        <v>0.2003</v>
       </c>
       <c r="D42">
-        <v>0.2312</v>
+        <v>0.2304</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.4305</v>
+        <v>0.4296</v>
       </c>
       <c r="C43">
-        <v>0.2009</v>
+        <v>0.2007</v>
       </c>
       <c r="D43">
-        <v>0.2297</v>
+        <v>0.2289</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.4295</v>
+        <v>0.4286</v>
       </c>
       <c r="C44">
-        <v>0.2012</v>
+        <v>0.2011</v>
       </c>
       <c r="D44">
-        <v>0.2283</v>
+        <v>0.2275</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.4262</v>
+        <v>0.4253</v>
       </c>
       <c r="C45">
-        <v>0.1996</v>
+        <v>0.1995</v>
       </c>
       <c r="D45">
-        <v>0.2266</v>
+        <v>0.2258</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.4243</v>
+        <v>0.4234</v>
       </c>
       <c r="C46">
-        <v>0.1993</v>
+        <v>0.1992</v>
       </c>
       <c r="D46">
-        <v>0.225</v>
+        <v>0.2242</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.4222</v>
+        <v>0.4212</v>
       </c>
       <c r="C47">
-        <v>0.199</v>
+        <v>0.1989</v>
       </c>
       <c r="D47">
-        <v>0.2232</v>
+        <v>0.2223</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.4188</v>
+        <v>0.4178</v>
       </c>
       <c r="C48">
-        <v>0.1984</v>
+        <v>0.1983</v>
       </c>
       <c r="D48">
-        <v>0.2204</v>
+        <v>0.2196</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.4153</v>
+        <v>0.4144</v>
       </c>
       <c r="C49">
-        <v>0.1978</v>
+        <v>0.1977</v>
       </c>
       <c r="D49">
-        <v>0.2175</v>
+        <v>0.2167</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4135</v>
+        <v>0.4125</v>
       </c>
       <c r="C50">
-        <v>0.1971</v>
+        <v>0.197</v>
       </c>
       <c r="D50">
-        <v>0.2163</v>
+        <v>0.2155</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.4104</v>
+        <v>0.4093</v>
       </c>
       <c r="C51">
-        <v>0.1952</v>
+        <v>0.1951</v>
       </c>
       <c r="D51">
-        <v>0.2151</v>
+        <v>0.2142</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4077</v>
+        <v>0.4067</v>
       </c>
       <c r="C52">
-        <v>0.1944</v>
+        <v>0.1943</v>
       </c>
       <c r="D52">
-        <v>0.2133</v>
+        <v>0.2124</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4045</v>
+        <v>0.4035</v>
       </c>
       <c r="C53">
-        <v>0.1932</v>
+        <v>0.1931</v>
       </c>
       <c r="D53">
-        <v>0.2113</v>
+        <v>0.2104</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4004</v>
+        <v>0.3993</v>
       </c>
       <c r="C54">
-        <v>0.1912</v>
+        <v>0.1911</v>
       </c>
       <c r="D54">
-        <v>0.2092</v>
+        <v>0.2082</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3947</v>
+        <v>0.3936</v>
       </c>
       <c r="C55">
-        <v>0.1886</v>
+        <v>0.1884</v>
       </c>
       <c r="D55">
-        <v>0.2062</v>
+        <v>0.2052</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.3878</v>
+        <v>0.3867</v>
       </c>
       <c r="C56">
-        <v>0.1853</v>
+        <v>0.1852</v>
       </c>
       <c r="D56">
-        <v>0.2025</v>
+        <v>0.2015</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.3804</v>
+        <v>0.3793</v>
       </c>
       <c r="C57">
-        <v>0.1818</v>
+        <v>0.1817</v>
       </c>
       <c r="D57">
-        <v>0.1986</v>
+        <v>0.1976</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3728</v>
+        <v>0.3717</v>
       </c>
       <c r="C58">
-        <v>0.1782</v>
+        <v>0.1781</v>
       </c>
       <c r="D58">
-        <v>0.1946</v>
+        <v>0.1936</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3647</v>
+        <v>0.3636</v>
       </c>
       <c r="C59">
-        <v>0.1744</v>
+        <v>0.1743</v>
       </c>
       <c r="D59">
-        <v>0.1903</v>
+        <v>0.1893</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3549</v>
+        <v>0.3538</v>
       </c>
       <c r="C60">
-        <v>0.1693</v>
+        <v>0.1692</v>
       </c>
       <c r="D60">
-        <v>0.1856</v>
+        <v>0.1845</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3448</v>
+        <v>0.3436</v>
       </c>
       <c r="C61">
-        <v>0.1644</v>
+        <v>0.1643</v>
       </c>
       <c r="D61">
-        <v>0.1804</v>
+        <v>0.1793</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3336</v>
+        <v>0.3324</v>
       </c>
       <c r="C62">
-        <v>0.159</v>
+        <v>0.1589</v>
       </c>
       <c r="D62">
-        <v>0.1746</v>
+        <v>0.1736</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3233</v>
+        <v>0.3221</v>
       </c>
       <c r="C63">
-        <v>0.1543</v>
+        <v>0.1542</v>
       </c>
       <c r="D63">
-        <v>0.1689</v>
+        <v>0.1679</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3123</v>
+        <v>0.3111</v>
       </c>
       <c r="C64">
-        <v>0.1494</v>
+        <v>0.1493</v>
       </c>
       <c r="D64">
-        <v>0.1629</v>
+        <v>0.1618</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3011</v>
+        <v>0.2999</v>
       </c>
       <c r="C65">
-        <v>0.1444</v>
+        <v>0.1443</v>
       </c>
       <c r="D65">
-        <v>0.1567</v>
+        <v>0.1556</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.2895</v>
+        <v>0.2883</v>
       </c>
       <c r="C66">
-        <v>0.1393</v>
+        <v>0.1392</v>
       </c>
       <c r="D66">
-        <v>0.1503</v>
+        <v>0.1491</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.2772</v>
+        <v>0.276</v>
       </c>
       <c r="C67">
-        <v>0.1336</v>
+        <v>0.1335</v>
       </c>
       <c r="D67">
-        <v>0.1436</v>
+        <v>0.1425</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.2652</v>
+        <v>0.2639</v>
       </c>
       <c r="C68">
-        <v>0.1283</v>
+        <v>0.1282</v>
       </c>
       <c r="D68">
-        <v>0.1369</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.2544</v>
+        <v>0.2531</v>
       </c>
       <c r="C69">
-        <v>0.1234</v>
+        <v>0.1233</v>
       </c>
       <c r="D69">
-        <v>0.1309</v>
+        <v>0.1297</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.242</v>
+        <v>0.2406</v>
       </c>
       <c r="C70">
-        <v>0.1182</v>
+        <v>0.1181</v>
       </c>
       <c r="D70">
-        <v>0.1237</v>
+        <v>0.1225</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.2297</v>
+        <v>0.2284</v>
       </c>
       <c r="C71">
-        <v>0.1133</v>
+        <v>0.1131</v>
       </c>
       <c r="D71">
-        <v>0.1164</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.2173</v>
+        <v>0.216</v>
       </c>
       <c r="C72">
-        <v>0.1081</v>
+        <v>0.108</v>
       </c>
       <c r="D72">
-        <v>0.1092</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.2057</v>
+        <v>0.2044</v>
       </c>
       <c r="C73">
-        <v>0.1032</v>
+        <v>0.1031</v>
       </c>
       <c r="D73">
-        <v>0.1025</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.1944</v>
+        <v>0.1931</v>
       </c>
       <c r="C74">
-        <v>0.0987</v>
+        <v>0.0985</v>
       </c>
       <c r="D74">
-        <v>0.0958</v>
+        <v>0.0946</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.1838</v>
+        <v>0.1824</v>
       </c>
       <c r="C75">
-        <v>0.0944</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="D75">
-        <v>0.0893</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.1737</v>
+        <v>0.1724</v>
       </c>
       <c r="C76">
-        <v>0.0906</v>
+        <v>0.0905</v>
       </c>
       <c r="D76">
-        <v>0.08309999999999999</v>
+        <v>0.0819</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.1639</v>
+        <v>0.1625</v>
       </c>
       <c r="C77">
-        <v>0.08690000000000001</v>
+        <v>0.0867</v>
       </c>
       <c r="D77">
-        <v>0.077</v>
+        <v>0.07580000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.1538</v>
+        <v>0.1524</v>
       </c>
       <c r="C78">
-        <v>0.0827</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="D78">
-        <v>0.0711</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.1453</v>
+        <v>0.1439</v>
       </c>
       <c r="C79">
-        <v>0.0798</v>
+        <v>0.0796</v>
       </c>
       <c r="D79">
-        <v>0.0655</v>
+        <v>0.0643</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.1384</v>
+        <v>0.137</v>
       </c>
       <c r="C80">
-        <v>0.0776</v>
+        <v>0.0774</v>
       </c>
       <c r="D80">
-        <v>0.0608</v>
+        <v>0.0596</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.1317</v>
+        <v>0.1302</v>
       </c>
       <c r="C81">
-        <v>0.07539999999999999</v>
+        <v>0.0752</v>
       </c>
       <c r="D81">
-        <v>0.0563</v>
+        <v>0.0551</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.1242</v>
+        <v>0.1227</v>
       </c>
       <c r="C82">
-        <v>0.0722</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D82">
-        <v>0.052</v>
+        <v>0.0507</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.1164</v>
+        <v>0.115</v>
       </c>
       <c r="C83">
-        <v>0.06859999999999999</v>
+        <v>0.0684</v>
       </c>
       <c r="D83">
-        <v>0.0478</v>
+        <v>0.0466</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.1086</v>
+        <v>0.1072</v>
       </c>
       <c r="C84">
-        <v>0.06469999999999999</v>
+        <v>0.0645</v>
       </c>
       <c r="D84">
-        <v>0.0439</v>
+        <v>0.0427</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.1019</v>
+        <v>0.1005</v>
       </c>
       <c r="C85">
-        <v>0.0612</v>
+        <v>0.0609</v>
       </c>
       <c r="D85">
-        <v>0.0407</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.0953</v>
+        <v>0.0939</v>
       </c>
       <c r="C86">
-        <v>0.0575</v>
+        <v>0.0571</v>
       </c>
       <c r="D86">
-        <v>0.0379</v>
+        <v>0.0367</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.09</v>
+        <v>0.0885</v>
       </c>
       <c r="C87">
-        <v>0.0543</v>
+        <v>0.054</v>
       </c>
       <c r="D87">
-        <v>0.0357</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.0853</v>
+        <v>0.0838</v>
       </c>
       <c r="C88">
-        <v>0.0516</v>
+        <v>0.0513</v>
       </c>
       <c r="D88">
-        <v>0.0337</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.0806</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="C89">
-        <v>0.0492</v>
+        <v>0.0489</v>
       </c>
       <c r="D89">
-        <v>0.0314</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.0766</v>
+        <v>0.0752</v>
       </c>
       <c r="C90">
-        <v>0.0477</v>
+        <v>0.0473</v>
       </c>
       <c r="D90">
-        <v>0.0289</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.0746</v>
+        <v>0.0732</v>
       </c>
       <c r="C91">
-        <v>0.0473</v>
+        <v>0.047</v>
       </c>
       <c r="D91">
-        <v>0.0273</v>
+        <v>0.0262</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.0731</v>
+        <v>0.0717</v>
       </c>
       <c r="C92">
-        <v>0.047</v>
+        <v>0.0467</v>
       </c>
       <c r="D92">
-        <v>0.0261</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.0728</v>
+        <v>0.0713</v>
       </c>
       <c r="C93">
-        <v>0.0476</v>
+        <v>0.0472</v>
       </c>
       <c r="D93">
-        <v>0.0252</v>
+        <v>0.0241</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.073</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="C94">
-        <v>0.0483</v>
+        <v>0.0479</v>
       </c>
       <c r="D94">
-        <v>0.0247</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.0735</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C95">
-        <v>0.0493</v>
+        <v>0.0489</v>
       </c>
       <c r="D95">
-        <v>0.0242</v>
+        <v>0.0231</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.0747</v>
+        <v>0.0733</v>
       </c>
       <c r="C96">
-        <v>0.0507</v>
+        <v>0.0503</v>
       </c>
       <c r="D96">
-        <v>0.0241</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.0771</v>
+        <v>0.0757</v>
       </c>
       <c r="C97">
-        <v>0.0529</v>
+        <v>0.0525</v>
       </c>
       <c r="D97">
-        <v>0.0242</v>
+        <v>0.0231</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.0793</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="C98">
-        <v>0.0548</v>
+        <v>0.0545</v>
       </c>
       <c r="D98">
-        <v>0.0245</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.08160000000000001</v>
+        <v>0.0801</v>
       </c>
       <c r="C99">
-        <v>0.0566</v>
+        <v>0.0562</v>
       </c>
       <c r="D99">
-        <v>0.025</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.0851</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="C100">
-        <v>0.059</v>
+        <v>0.0586</v>
       </c>
       <c r="D100">
-        <v>0.0261</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.0891</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="C101">
-        <v>0.0616</v>
+        <v>0.0612</v>
       </c>
       <c r="D101">
-        <v>0.0275</v>
+        <v>0.0263</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.0956</v>
+        <v>0.0941</v>
       </c>
       <c r="C102">
-        <v>0.06560000000000001</v>
+        <v>0.0653</v>
       </c>
       <c r="D102">
-        <v>0.03</v>
+        <v>0.0288</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.1028</v>
+        <v>0.1012</v>
       </c>
       <c r="C103">
-        <v>0.0701</v>
+        <v>0.0698</v>
       </c>
       <c r="D103">
-        <v>0.0327</v>
+        <v>0.0315</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.1107</v>
+        <v>0.1091</v>
       </c>
       <c r="C104">
-        <v>0.0752</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="D104">
-        <v>0.0356</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.1179</v>
+        <v>0.1162</v>
       </c>
       <c r="C105">
-        <v>0.0796</v>
+        <v>0.0793</v>
       </c>
       <c r="D105">
-        <v>0.0383</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.125</v>
+        <v>0.1234</v>
       </c>
       <c r="C106">
-        <v>0.08400000000000001</v>
+        <v>0.0837</v>
       </c>
       <c r="D106">
-        <v>0.041</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.1313</v>
+        <v>0.1297</v>
       </c>
       <c r="C107">
-        <v>0.08790000000000001</v>
+        <v>0.0876</v>
       </c>
       <c r="D107">
-        <v>0.0434</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.1367</v>
+        <v>0.1351</v>
       </c>
       <c r="C108">
-        <v>0.0912</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="D108">
-        <v>0.0455</v>
+        <v>0.0442</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.1408</v>
+        <v>0.1392</v>
       </c>
       <c r="C109">
-        <v>0.0935</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="D109">
-        <v>0.0474</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.1443</v>
+        <v>0.1427</v>
       </c>
       <c r="C110">
-        <v>0.09520000000000001</v>
+        <v>0.0949</v>
       </c>
       <c r="D110">
-        <v>0.0491</v>
+        <v>0.0478</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.1463</v>
+        <v>0.1447</v>
       </c>
       <c r="C111">
-        <v>0.0958</v>
+        <v>0.0955</v>
       </c>
       <c r="D111">
-        <v>0.0505</v>
+        <v>0.0491</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.1479</v>
+        <v>0.1463</v>
       </c>
       <c r="C112">
-        <v>0.096</v>
+        <v>0.0958</v>
       </c>
       <c r="D112">
-        <v>0.0519</v>
+        <v>0.0505</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.1495</v>
+        <v>0.1479</v>
       </c>
       <c r="C113">
-        <v>0.0964</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="D113">
-        <v>0.053</v>
+        <v>0.0517</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.1513</v>
+        <v>0.1498</v>
       </c>
       <c r="C114">
-        <v>0.097</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="D114">
-        <v>0.0543</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.1531</v>
+        <v>0.1516</v>
       </c>
       <c r="C115">
-        <v>0.0973</v>
+        <v>0.097</v>
       </c>
       <c r="D115">
-        <v>0.0558</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.1542</v>
+        <v>0.1527</v>
       </c>
       <c r="C116">
-        <v>0.0969</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="D116">
-        <v>0.0573</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.1551</v>
+        <v>0.1536</v>
       </c>
       <c r="C117">
-        <v>0.0961</v>
+        <v>0.0959</v>
       </c>
       <c r="D117">
-        <v>0.059</v>
+        <v>0.0577</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.1568</v>
+        <v>0.1553</v>
       </c>
       <c r="C118">
-        <v>0.0956</v>
+        <v>0.0954</v>
       </c>
       <c r="D118">
-        <v>0.0612</v>
+        <v>0.0599</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.1583</v>
+        <v>0.1569</v>
       </c>
       <c r="C119">
-        <v>0.095</v>
+        <v>0.0948</v>
       </c>
       <c r="D119">
-        <v>0.0633</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.1591</v>
+        <v>0.1576</v>
       </c>
       <c r="C120">
-        <v>0.0944</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="D120">
-        <v>0.06469999999999999</v>
+        <v>0.0634</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.1601</v>
+        <v>0.1586</v>
       </c>
       <c r="C121">
-        <v>0.0939</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="D121">
-        <v>0.06610000000000001</v>
+        <v>0.0649</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.1593</v>
+        <v>0.1579</v>
       </c>
       <c r="C122">
-        <v>0.0926</v>
+        <v>0.0925</v>
       </c>
       <c r="D122">
-        <v>0.0667</v>
+        <v>0.0654</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.1588</v>
+        <v>0.1574</v>
       </c>
       <c r="C123">
-        <v>0.09130000000000001</v>
+        <v>0.0911</v>
       </c>
       <c r="D123">
-        <v>0.0675</v>
+        <v>0.06619999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.159</v>
+        <v>0.1576</v>
       </c>
       <c r="C124">
-        <v>0.0905</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="D124">
-        <v>0.0684</v>
+        <v>0.0672</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.1592</v>
+        <v>0.1578</v>
       </c>
       <c r="C125">
-        <v>0.0902</v>
+        <v>0.09</v>
       </c>
       <c r="D125">
-        <v>0.06900000000000001</v>
+        <v>0.0678</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.1611</v>
+        <v>0.1597</v>
       </c>
       <c r="C126">
-        <v>0.091</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="D126">
-        <v>0.07000000000000001</v>
+        <v>0.0688</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.1636</v>
+        <v>0.1622</v>
       </c>
       <c r="C127">
-        <v>0.0924</v>
+        <v>0.0922</v>
       </c>
       <c r="D127">
-        <v>0.0712</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.1668</v>
+        <v>0.1654</v>
       </c>
       <c r="C128">
-        <v>0.09379999999999999</v>
+        <v>0.0936</v>
       </c>
       <c r="D128">
-        <v>0.073</v>
+        <v>0.0718</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.1712</v>
+        <v>0.1698</v>
       </c>
       <c r="C129">
-        <v>0.0959</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="D129">
-        <v>0.07530000000000001</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.1754</v>
+        <v>0.174</v>
       </c>
       <c r="C130">
-        <v>0.0979</v>
+        <v>0.0978</v>
       </c>
       <c r="D130">
-        <v>0.0774</v>
+        <v>0.0762</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.1793</v>
+        <v>0.1778</v>
       </c>
       <c r="C131">
-        <v>0.0998</v>
+        <v>0.09959999999999999</v>
       </c>
       <c r="D131">
-        <v>0.0795</v>
+        <v>0.07820000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.1837</v>
+        <v>0.1822</v>
       </c>
       <c r="C132">
-        <v>0.1023</v>
+        <v>0.1021</v>
       </c>
       <c r="D132">
-        <v>0.0814</v>
+        <v>0.0801</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.1883</v>
+        <v>0.1868</v>
       </c>
       <c r="C133">
-        <v>0.1049</v>
+        <v>0.1048</v>
       </c>
       <c r="D133">
-        <v>0.0833</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.193</v>
+        <v>0.1915</v>
       </c>
       <c r="C134">
-        <v>0.1078</v>
+        <v>0.1077</v>
       </c>
       <c r="D134">
-        <v>0.0852</v>
+        <v>0.0838</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.1978</v>
+        <v>0.1963</v>
       </c>
       <c r="C135">
-        <v>0.1109</v>
+        <v>0.1107</v>
       </c>
       <c r="D135">
-        <v>0.08699999999999999</v>
+        <v>0.0856</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.2025</v>
+        <v>0.201</v>
       </c>
       <c r="C136">
-        <v>0.1138</v>
+        <v>0.1136</v>
       </c>
       <c r="D136">
-        <v>0.0887</v>
+        <v>0.08740000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.2068</v>
+        <v>0.2053</v>
       </c>
       <c r="C137">
-        <v>0.1167</v>
+        <v>0.1165</v>
       </c>
       <c r="D137">
-        <v>0.0901</v>
+        <v>0.0888</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.2108</v>
+        <v>0.2093</v>
       </c>
       <c r="C138">
-        <v>0.1196</v>
+        <v>0.1195</v>
       </c>
       <c r="D138">
-        <v>0.0912</v>
+        <v>0.0898</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.2141</v>
+        <v>0.2126</v>
       </c>
       <c r="C139">
-        <v>0.122</v>
+        <v>0.1218</v>
       </c>
       <c r="D139">
-        <v>0.0921</v>
+        <v>0.09080000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.2177</v>
+        <v>0.2162</v>
       </c>
       <c r="C140">
-        <v>0.1244</v>
+        <v>0.1243</v>
       </c>
       <c r="D140">
-        <v>0.09329999999999999</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.2209</v>
+        <v>0.2194</v>
       </c>
       <c r="C141">
-        <v>0.1265</v>
+        <v>0.1263</v>
       </c>
       <c r="D141">
-        <v>0.0945</v>
+        <v>0.0931</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.2246</v>
+        <v>0.223</v>
       </c>
       <c r="C142">
-        <v>0.129</v>
+        <v>0.1288</v>
       </c>
       <c r="D142">
-        <v>0.0956</v>
+        <v>0.09420000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.2276</v>
+        <v>0.226</v>
       </c>
       <c r="C143">
-        <v>0.131</v>
+        <v>0.1308</v>
       </c>
       <c r="D143">
-        <v>0.09660000000000001</v>
+        <v>0.09520000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.23</v>
+        <v>0.2284</v>
       </c>
       <c r="C144">
-        <v>0.1323</v>
+        <v>0.1322</v>
       </c>
       <c r="D144">
-        <v>0.0977</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.2331</v>
+        <v>0.2315</v>
       </c>
       <c r="C145">
-        <v>0.1339</v>
+        <v>0.1338</v>
       </c>
       <c r="D145">
-        <v>0.0992</v>
+        <v>0.0978</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.2361</v>
+        <v>0.2345</v>
       </c>
       <c r="C146">
-        <v>0.1347</v>
+        <v>0.1346</v>
       </c>
       <c r="D146">
-        <v>0.1014</v>
+        <v>0.0999</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.2388</v>
+        <v>0.2371</v>
       </c>
       <c r="C147">
-        <v>0.1349</v>
+        <v>0.1347</v>
       </c>
       <c r="D147">
-        <v>0.1039</v>
+        <v>0.1024</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.2415</v>
+        <v>0.2397</v>
       </c>
       <c r="C148">
-        <v>0.1349</v>
+        <v>0.1348</v>
       </c>
       <c r="D148">
-        <v>0.1065</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.244</v>
+        <v>0.2423</v>
       </c>
       <c r="C149">
-        <v>0.135</v>
+        <v>0.1349</v>
       </c>
       <c r="D149">
-        <v>0.109</v>
+        <v>0.1074</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.2467</v>
+        <v>0.2449</v>
       </c>
       <c r="C150">
-        <v>0.1352</v>
+        <v>0.1351</v>
       </c>
       <c r="D150">
-        <v>0.1115</v>
+        <v>0.1099</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.2499</v>
+        <v>0.2481</v>
       </c>
       <c r="C151">
-        <v>0.1358</v>
+        <v>0.1356</v>
       </c>
       <c r="D151">
-        <v>0.1141</v>
+        <v>0.1125</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.2537</v>
+        <v>0.2519</v>
       </c>
       <c r="C152">
-        <v>0.1369</v>
+        <v>0.1367</v>
       </c>
       <c r="D152">
-        <v>0.1168</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2561</v>
+        <v>0.2543</v>
       </c>
       <c r="C153">
-        <v>0.1367</v>
+        <v>0.1366</v>
       </c>
       <c r="D153">
-        <v>0.1194</v>
+        <v>0.1177</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.2583</v>
+        <v>0.2565</v>
       </c>
       <c r="C154">
-        <v>0.1366</v>
+        <v>0.1364</v>
       </c>
       <c r="D154">
-        <v>0.1217</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.2606</v>
+        <v>0.2588</v>
       </c>
       <c r="C155">
-        <v>0.1364</v>
+        <v>0.1362</v>
       </c>
       <c r="D155">
-        <v>0.1242</v>
+        <v>0.1226</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.2636</v>
+        <v>0.2618</v>
       </c>
       <c r="C156">
-        <v>0.1369</v>
+        <v>0.1367</v>
       </c>
       <c r="D156">
-        <v>0.1267</v>
+        <v>0.1251</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.2666</v>
+        <v>0.2649</v>
       </c>
       <c r="C157">
-        <v>0.1375</v>
+        <v>0.1373</v>
       </c>
       <c r="D157">
-        <v>0.1291</v>
+        <v>0.1276</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.2703</v>
+        <v>0.2686</v>
       </c>
       <c r="C158">
-        <v>0.1388</v>
+        <v>0.1387</v>
       </c>
       <c r="D158">
-        <v>0.1315</v>
+        <v>0.1299</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.2746</v>
+        <v>0.2729</v>
       </c>
       <c r="C159">
-        <v>0.1412</v>
+        <v>0.141</v>
       </c>
       <c r="D159">
-        <v>0.1335</v>
+        <v>0.1319</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.2779</v>
+        <v>0.2763</v>
       </c>
       <c r="C160">
-        <v>0.1429</v>
+        <v>0.1428</v>
       </c>
       <c r="D160">
-        <v>0.135</v>
+        <v>0.1335</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.2817</v>
+        <v>0.2801</v>
       </c>
       <c r="C161">
-        <v>0.145</v>
+        <v>0.1448</v>
       </c>
       <c r="D161">
-        <v>0.1368</v>
+        <v>0.1353</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.2856</v>
+        <v>0.284</v>
       </c>
       <c r="C162">
-        <v>0.1471</v>
+        <v>0.147</v>
       </c>
       <c r="D162">
-        <v>0.1384</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.2888</v>
+        <v>0.2873</v>
       </c>
       <c r="C163">
-        <v>0.1493</v>
+        <v>0.1491</v>
       </c>
       <c r="D163">
-        <v>0.1395</v>
+        <v>0.1381</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.2917</v>
+        <v>0.2902</v>
       </c>
       <c r="C164">
-        <v>0.1515</v>
+        <v>0.1514</v>
       </c>
       <c r="D164">
-        <v>0.1402</v>
+        <v>0.1388</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.2935</v>
+        <v>0.292</v>
       </c>
       <c r="C165">
-        <v>0.1531</v>
+        <v>0.153</v>
       </c>
       <c r="D165">
-        <v>0.1403</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.2944</v>
+        <v>0.293</v>
       </c>
       <c r="C166">
-        <v>0.1549</v>
+        <v>0.1548</v>
       </c>
       <c r="D166">
-        <v>0.1395</v>
+        <v>0.1382</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.2954</v>
+        <v>0.294</v>
       </c>
       <c r="C167">
-        <v>0.1575</v>
+        <v>0.1574</v>
       </c>
       <c r="D167">
-        <v>0.1379</v>
+        <v>0.1367</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.2959</v>
+        <v>0.2946</v>
       </c>
       <c r="C168">
-        <v>0.1603</v>
+        <v>0.1602</v>
       </c>
       <c r="D168">
-        <v>0.1356</v>
+        <v>0.1344</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3496,13 +3496,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.296</v>
+        <v>0.2947</v>
       </c>
       <c r="C169">
-        <v>0.1627</v>
+        <v>0.1626</v>
       </c>
       <c r="D169">
-        <v>0.1332</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.2964</v>
+        <v>0.2951</v>
       </c>
       <c r="C170">
-        <v>0.1649</v>
+        <v>0.1648</v>
       </c>
       <c r="D170">
-        <v>0.1314</v>
+        <v>0.1302</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.2969</v>
+        <v>0.2956</v>
       </c>
       <c r="C171">
-        <v>0.1676</v>
+        <v>0.1675</v>
       </c>
       <c r="D171">
-        <v>0.1293</v>
+        <v>0.1281</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.2961</v>
+        <v>0.2948</v>
       </c>
       <c r="C172">
-        <v>0.1691</v>
+        <v>0.169</v>
       </c>
       <c r="D172">
-        <v>0.127</v>
+        <v>0.1258</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.2957</v>
+        <v>0.2945</v>
       </c>
       <c r="C173">
-        <v>0.1712</v>
+        <v>0.1711</v>
       </c>
       <c r="D173">
-        <v>0.1245</v>
+        <v>0.1234</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.2947</v>
+        <v>0.2935</v>
       </c>
       <c r="C174">
-        <v>0.1727</v>
+        <v>0.1726</v>
       </c>
       <c r="D174">
-        <v>0.122</v>
+        <v>0.1208</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.2937</v>
+        <v>0.2925</v>
       </c>
       <c r="C175">
-        <v>0.1743</v>
+        <v>0.1742</v>
       </c>
       <c r="D175">
-        <v>0.1194</v>
+        <v>0.1182</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.292</v>
+        <v>0.2907</v>
       </c>
       <c r="C176">
-        <v>0.1752</v>
+        <v>0.1751</v>
       </c>
       <c r="D176">
-        <v>0.1168</v>
+        <v>0.1156</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2906</v>
+        <v>0.2893</v>
       </c>
       <c r="C177">
-        <v>0.1756</v>
+        <v>0.1755</v>
       </c>
       <c r="D177">
-        <v>0.115</v>
+        <v>0.1138</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.2878</v>
+        <v>0.2865</v>
       </c>
       <c r="C178">
-        <v>0.1748</v>
+        <v>0.1747</v>
       </c>
       <c r="D178">
-        <v>0.113</v>
+        <v>0.1118</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.2842</v>
+        <v>0.2828</v>
       </c>
       <c r="C179">
-        <v>0.173</v>
+        <v>0.1729</v>
       </c>
       <c r="D179">
-        <v>0.1112</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.281</v>
+        <v>0.2796</v>
       </c>
       <c r="C180">
-        <v>0.1715</v>
+        <v>0.1714</v>
       </c>
       <c r="D180">
-        <v>0.1095</v>
+        <v>0.1082</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.2769</v>
+        <v>0.2756</v>
       </c>
       <c r="C181">
-        <v>0.1697</v>
+        <v>0.1696</v>
       </c>
       <c r="D181">
-        <v>0.1073</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.2724</v>
+        <v>0.271</v>
       </c>
       <c r="C182">
-        <v>0.1672</v>
+        <v>0.1671</v>
       </c>
       <c r="D182">
-        <v>0.1052</v>
+        <v>0.1039</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.2677</v>
+        <v>0.2664</v>
       </c>
       <c r="C183">
-        <v>0.1645</v>
+        <v>0.1644</v>
       </c>
       <c r="D183">
-        <v>0.1033</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.2635</v>
+        <v>0.2621</v>
       </c>
       <c r="C184">
-        <v>0.1616</v>
+        <v>0.1615</v>
       </c>
       <c r="D184">
-        <v>0.1019</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.26</v>
+        <v>0.2587</v>
       </c>
       <c r="C185">
         <v>0.1592</v>
       </c>
       <c r="D185">
-        <v>0.1008</v>
+        <v>0.09950000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.2566</v>
+        <v>0.2553</v>
       </c>
       <c r="C186">
-        <v>0.1568</v>
+        <v>0.1567</v>
       </c>
       <c r="D186">
-        <v>0.0998</v>
+        <v>0.09859999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.2532</v>
+        <v>0.2519</v>
       </c>
       <c r="C187">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="D187">
-        <v>0.0992</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.2499</v>
+        <v>0.2486</v>
       </c>
       <c r="C188">
-        <v>0.1511</v>
+        <v>0.151</v>
       </c>
       <c r="D188">
-        <v>0.0988</v>
+        <v>0.09760000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.2468</v>
+        <v>0.2455</v>
       </c>
       <c r="C189">
-        <v>0.1483</v>
+        <v>0.1482</v>
       </c>
       <c r="D189">
-        <v>0.0985</v>
+        <v>0.09719999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.244</v>
+        <v>0.2427</v>
       </c>
       <c r="C190">
-        <v>0.1462</v>
+        <v>0.1461</v>
       </c>
       <c r="D190">
-        <v>0.0978</v>
+        <v>0.09660000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.2411</v>
+        <v>0.2398</v>
       </c>
       <c r="C191">
-        <v>0.1437</v>
+        <v>0.1436</v>
       </c>
       <c r="D191">
-        <v>0.0974</v>
+        <v>0.09619999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.2393</v>
+        <v>0.238</v>
       </c>
       <c r="C192">
-        <v>0.142</v>
+        <v>0.1419</v>
       </c>
       <c r="D192">
-        <v>0.09719999999999999</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.2383</v>
+        <v>0.237</v>
       </c>
       <c r="C193">
         <v>0.1411</v>
       </c>
       <c r="D193">
-        <v>0.09710000000000001</v>
+        <v>0.0959</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.2378</v>
+        <v>0.2365</v>
       </c>
       <c r="C194">
-        <v>0.1407</v>
+        <v>0.1406</v>
       </c>
       <c r="D194">
-        <v>0.09710000000000001</v>
+        <v>0.0959</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.2378</v>
+        <v>0.2365</v>
       </c>
       <c r="C195">
-        <v>0.1405</v>
+        <v>0.1404</v>
       </c>
       <c r="D195">
-        <v>0.09719999999999999</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.2384</v>
+        <v>0.2371</v>
       </c>
       <c r="C196">
-        <v>0.1411</v>
+        <v>0.141</v>
       </c>
       <c r="D196">
-        <v>0.0973</v>
+        <v>0.0961</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.2397</v>
+        <v>0.2384</v>
       </c>
       <c r="C197">
-        <v>0.143</v>
+        <v>0.1429</v>
       </c>
       <c r="D197">
-        <v>0.09669999999999999</v>
+        <v>0.0955</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.2411</v>
+        <v>0.2398</v>
       </c>
       <c r="C198">
-        <v>0.1449</v>
+        <v>0.1448</v>
       </c>
       <c r="D198">
-        <v>0.09619999999999999</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.242</v>
+        <v>0.2408</v>
       </c>
       <c r="C199">
-        <v>0.1465</v>
+        <v>0.1464</v>
       </c>
       <c r="D199">
-        <v>0.0955</v>
+        <v>0.09429999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.2422</v>
+        <v>0.2409</v>
       </c>
       <c r="C200">
-        <v>0.1475</v>
+        <v>0.1474</v>
       </c>
       <c r="D200">
-        <v>0.09470000000000001</v>
+        <v>0.0935</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.2426</v>
+        <v>0.2413</v>
       </c>
       <c r="C201">
-        <v>0.1488</v>
+        <v>0.1487</v>
       </c>
       <c r="D201">
-        <v>0.09379999999999999</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.2432</v>
+        <v>0.2418</v>
       </c>
       <c r="C202">
-        <v>0.1505</v>
+        <v>0.1504</v>
       </c>
       <c r="D202">
-        <v>0.0926</v>
+        <v>0.0914</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.2437</v>
+        <v>0.2423</v>
       </c>
       <c r="C203">
-        <v>0.1522</v>
+        <v>0.1521</v>
       </c>
       <c r="D203">
-        <v>0.0915</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.2434</v>
+        <v>0.2421</v>
       </c>
       <c r="C204">
-        <v>0.1535</v>
+        <v>0.1534</v>
       </c>
       <c r="D204">
-        <v>0.08989999999999999</v>
+        <v>0.0887</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.2431</v>
+        <v>0.2418</v>
       </c>
       <c r="C205">
-        <v>0.1548</v>
+        <v>0.1547</v>
       </c>
       <c r="D205">
-        <v>0.0883</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.2421</v>
+        <v>0.2407</v>
       </c>
       <c r="C206">
-        <v>0.1556</v>
+        <v>0.1555</v>
       </c>
       <c r="D206">
-        <v>0.08649999999999999</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.2415</v>
+        <v>0.2401</v>
       </c>
       <c r="C207">
-        <v>0.1569</v>
+        <v>0.1568</v>
       </c>
       <c r="D207">
-        <v>0.08459999999999999</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.241</v>
+        <v>0.2395</v>
       </c>
       <c r="C208">
-        <v>0.1577</v>
+        <v>0.1576</v>
       </c>
       <c r="D208">
-        <v>0.0832</v>
+        <v>0.0819</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.2405</v>
+        <v>0.239</v>
       </c>
       <c r="C209">
-        <v>0.1587</v>
+        <v>0.1586</v>
       </c>
       <c r="D209">
-        <v>0.0818</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.2391</v>
+        <v>0.2376</v>
       </c>
       <c r="C210">
-        <v>0.1589</v>
+        <v>0.1588</v>
       </c>
       <c r="D210">
-        <v>0.08019999999999999</v>
+        <v>0.0788</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.2384</v>
+        <v>0.2369</v>
       </c>
       <c r="C211">
-        <v>0.1594</v>
+        <v>0.1593</v>
       </c>
       <c r="D211">
-        <v>0.079</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.2366</v>
+        <v>0.2351</v>
       </c>
       <c r="C212">
-        <v>0.1588</v>
+        <v>0.1587</v>
       </c>
       <c r="D212">
-        <v>0.07779999999999999</v>
+        <v>0.0764</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.2354</v>
+        <v>0.2339</v>
       </c>
       <c r="C213">
-        <v>0.1584</v>
+        <v>0.1583</v>
       </c>
       <c r="D213">
-        <v>0.077</v>
+        <v>0.0756</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.2342</v>
+        <v>0.2326</v>
       </c>
       <c r="C214">
-        <v>0.1578</v>
+        <v>0.1577</v>
       </c>
       <c r="D214">
-        <v>0.07630000000000001</v>
+        <v>0.07489999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.2324</v>
+        <v>0.2308</v>
       </c>
       <c r="C215">
-        <v>0.1568</v>
+        <v>0.1566</v>
       </c>
       <c r="D215">
-        <v>0.0757</v>
+        <v>0.0742</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.2302</v>
+        <v>0.2286</v>
       </c>
       <c r="C216">
-        <v>0.1552</v>
+        <v>0.155</v>
       </c>
       <c r="D216">
-        <v>0.0751</v>
+        <v>0.0736</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.2269</v>
+        <v>0.2253</v>
       </c>
       <c r="C217">
-        <v>0.1524</v>
+        <v>0.1522</v>
       </c>
       <c r="D217">
-        <v>0.0746</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.2238</v>
+        <v>0.2222</v>
       </c>
       <c r="C218">
-        <v>0.1497</v>
+        <v>0.1495</v>
       </c>
       <c r="D218">
-        <v>0.0742</v>
+        <v>0.0727</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.2209</v>
+        <v>0.2193</v>
       </c>
       <c r="C219">
-        <v>0.1469</v>
+        <v>0.1467</v>
       </c>
       <c r="D219">
-        <v>0.074</v>
+        <v>0.0726</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.218</v>
+        <v>0.2164</v>
       </c>
       <c r="C220">
-        <v>0.1438</v>
+        <v>0.1436</v>
       </c>
       <c r="D220">
-        <v>0.0742</v>
+        <v>0.0727</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.2154</v>
+        <v>0.2137</v>
       </c>
       <c r="C221">
-        <v>0.1407</v>
+        <v>0.1406</v>
       </c>
       <c r="D221">
-        <v>0.0747</v>
+        <v>0.0732</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.2117</v>
+        <v>0.21</v>
       </c>
       <c r="C222">
-        <v>0.1363</v>
+        <v>0.1361</v>
       </c>
       <c r="D222">
-        <v>0.07539999999999999</v>
+        <v>0.07389999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.2089</v>
+        <v>0.2072</v>
       </c>
       <c r="C223">
-        <v>0.1324</v>
+        <v>0.1322</v>
       </c>
       <c r="D223">
-        <v>0.0765</v>
+        <v>0.07489999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.2064</v>
+        <v>0.2047</v>
       </c>
       <c r="C224">
-        <v>0.1283</v>
+        <v>0.1281</v>
       </c>
       <c r="D224">
-        <v>0.0781</v>
+        <v>0.0766</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.2034</v>
+        <v>0.2017</v>
       </c>
       <c r="C225">
-        <v>0.1236</v>
+        <v>0.1235</v>
       </c>
       <c r="D225">
-        <v>0.0798</v>
+        <v>0.07820000000000001</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.2011</v>
+        <v>0.1994</v>
       </c>
       <c r="C226">
-        <v>0.1194</v>
+        <v>0.1192</v>
       </c>
       <c r="D226">
-        <v>0.08169999999999999</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.198</v>
+        <v>0.1963</v>
       </c>
       <c r="C227">
-        <v>0.1142</v>
+        <v>0.1141</v>
       </c>
       <c r="D227">
-        <v>0.0838</v>
+        <v>0.0822</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.1948</v>
+        <v>0.1931</v>
       </c>
       <c r="C228">
-        <v>0.1096</v>
+        <v>0.1094</v>
       </c>
       <c r="D228">
-        <v>0.0852</v>
+        <v>0.08359999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.1916</v>
+        <v>0.1899</v>
       </c>
       <c r="C229">
-        <v>0.1049</v>
+        <v>0.1047</v>
       </c>
       <c r="D229">
-        <v>0.0868</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.1898</v>
+        <v>0.1881</v>
       </c>
       <c r="C230">
-        <v>0.1013</v>
+        <v>0.1012</v>
       </c>
       <c r="D230">
-        <v>0.0885</v>
+        <v>0.08690000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.1872</v>
+        <v>0.1855</v>
       </c>
       <c r="C231">
-        <v>0.0975</v>
+        <v>0.0973</v>
       </c>
       <c r="D231">
-        <v>0.0897</v>
+        <v>0.0882</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.1856</v>
+        <v>0.1839</v>
       </c>
       <c r="C232">
-        <v>0.0944</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="D232">
-        <v>0.0912</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.1834</v>
+        <v>0.1817</v>
       </c>
       <c r="C233">
-        <v>0.0907</v>
+        <v>0.0906</v>
       </c>
       <c r="D233">
-        <v>0.0927</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.1817</v>
+        <v>0.18</v>
       </c>
       <c r="C234">
-        <v>0.0873</v>
+        <v>0.0871</v>
       </c>
       <c r="D234">
-        <v>0.0944</v>
+        <v>0.0929</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.1797</v>
+        <v>0.1781</v>
       </c>
       <c r="C235">
-        <v>0.0838</v>
+        <v>0.0837</v>
       </c>
       <c r="D235">
-        <v>0.096</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.1783</v>
+        <v>0.1766</v>
       </c>
       <c r="C236">
-        <v>0.08069999999999999</v>
+        <v>0.0806</v>
       </c>
       <c r="D236">
-        <v>0.09760000000000001</v>
+        <v>0.0961</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.1781</v>
+        <v>0.1764</v>
       </c>
       <c r="C237">
-        <v>0.07820000000000001</v>
+        <v>0.0781</v>
       </c>
       <c r="D237">
-        <v>0.0998</v>
+        <v>0.0983</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.1786</v>
+        <v>0.1769</v>
       </c>
       <c r="C238">
-        <v>0.0761</v>
+        <v>0.076</v>
       </c>
       <c r="D238">
-        <v>0.1025</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.1803</v>
+        <v>0.1785</v>
       </c>
       <c r="C239">
-        <v>0.075</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="D239">
-        <v>0.1052</v>
+        <v>0.1036</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.1828</v>
+        <v>0.181</v>
       </c>
       <c r="C240">
-        <v>0.0747</v>
+        <v>0.0746</v>
       </c>
       <c r="D240">
-        <v>0.108</v>
+        <v>0.1064</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.1851</v>
+        <v>0.1833</v>
       </c>
       <c r="C241">
-        <v>0.0741</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="D241">
-        <v>0.1111</v>
+        <v>0.1094</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.188</v>
+        <v>0.1862</v>
       </c>
       <c r="C242">
-        <v>0.0742</v>
+        <v>0.0741</v>
       </c>
       <c r="D242">
-        <v>0.1138</v>
+        <v>0.1121</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.1908</v>
+        <v>0.189</v>
       </c>
       <c r="C243">
-        <v>0.0742</v>
+        <v>0.0741</v>
       </c>
       <c r="D243">
-        <v>0.1166</v>
+        <v>0.1149</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.194</v>
+        <v>0.1922</v>
       </c>
       <c r="C244">
-        <v>0.07489999999999999</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="D244">
-        <v>0.1191</v>
+        <v>0.1174</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.1977</v>
+        <v>0.1958</v>
       </c>
       <c r="C245">
-        <v>0.07630000000000001</v>
+        <v>0.0761</v>
       </c>
       <c r="D245">
-        <v>0.1214</v>
+        <v>0.1197</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.2012</v>
+        <v>0.1993</v>
       </c>
       <c r="C246">
-        <v>0.0775</v>
+        <v>0.0774</v>
       </c>
       <c r="D246">
-        <v>0.1237</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.2053</v>
+        <v>0.2035</v>
       </c>
       <c r="C247">
-        <v>0.079</v>
+        <v>0.0789</v>
       </c>
       <c r="D247">
-        <v>0.1263</v>
+        <v>0.1246</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.2099</v>
+        <v>0.208</v>
       </c>
       <c r="C248">
-        <v>0.08019999999999999</v>
+        <v>0.0801</v>
       </c>
       <c r="D248">
-        <v>0.1296</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.2142</v>
+        <v>0.2124</v>
       </c>
       <c r="C249">
-        <v>0.08119999999999999</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="D249">
-        <v>0.133</v>
+        <v>0.1313</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.2182</v>
+        <v>0.2164</v>
       </c>
       <c r="C250">
-        <v>0.08160000000000001</v>
+        <v>0.0815</v>
       </c>
       <c r="D250">
-        <v>0.1366</v>
+        <v>0.1348</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.2223</v>
+        <v>0.2205</v>
       </c>
       <c r="C251">
-        <v>0.082</v>
+        <v>0.0819</v>
       </c>
       <c r="D251">
-        <v>0.1404</v>
+        <v>0.1387</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2010 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2010 - Diaria.xlsx
@@ -1158,13 +1158,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3507</v>
+        <v>0.3509</v>
       </c>
       <c r="C2">
-        <v>0.19</v>
+        <v>0.1899</v>
       </c>
       <c r="D2">
-        <v>0.1607</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3524</v>
+        <v>0.3526</v>
       </c>
       <c r="C3">
         <v>0.1888</v>
       </c>
       <c r="D3">
-        <v>0.1636</v>
+        <v>0.1639</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3543</v>
+        <v>0.3545</v>
       </c>
       <c r="C4">
-        <v>0.1874</v>
+        <v>0.1873</v>
       </c>
       <c r="D4">
-        <v>0.1669</v>
+        <v>0.1672</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3568</v>
+        <v>0.357</v>
       </c>
       <c r="C5">
-        <v>0.1868</v>
+        <v>0.1867</v>
       </c>
       <c r="D5">
-        <v>0.17</v>
+        <v>0.1703</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3589</v>
+        <v>0.3591</v>
       </c>
       <c r="C6">
         <v>0.1856</v>
       </c>
       <c r="D6">
-        <v>0.1733</v>
+        <v>0.1735</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3612</v>
+        <v>0.3614</v>
       </c>
       <c r="C7">
         <v>0.1842</v>
       </c>
       <c r="D7">
-        <v>0.177</v>
+        <v>0.1772</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3638</v>
+        <v>0.364</v>
       </c>
       <c r="C8">
         <v>0.1832</v>
       </c>
       <c r="D8">
-        <v>0.1805</v>
+        <v>0.1808</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3627</v>
+        <v>0.3628</v>
       </c>
       <c r="C9">
-        <v>0.1811</v>
+        <v>0.181</v>
       </c>
       <c r="D9">
-        <v>0.1816</v>
+        <v>0.1818</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3626</v>
+        <v>0.3627</v>
       </c>
       <c r="C10">
         <v>0.1796</v>
       </c>
       <c r="D10">
-        <v>0.1829</v>
+        <v>0.1831</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3627</v>
+        <v>0.3629</v>
       </c>
       <c r="C11">
         <v>0.1781</v>
       </c>
       <c r="D11">
-        <v>0.1846</v>
+        <v>0.1848</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.363</v>
+        <v>0.3631</v>
       </c>
       <c r="C12">
-        <v>0.1765</v>
+        <v>0.1764</v>
       </c>
       <c r="D12">
-        <v>0.1865</v>
+        <v>0.1867</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3635</v>
+        <v>0.3636</v>
       </c>
       <c r="C13">
-        <v>0.1744</v>
+        <v>0.1743</v>
       </c>
       <c r="D13">
-        <v>0.1891</v>
+        <v>0.1893</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.365</v>
+        <v>0.3651</v>
       </c>
       <c r="C14">
-        <v>0.1732</v>
+        <v>0.1731</v>
       </c>
       <c r="D14">
-        <v>0.1918</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3676</v>
+        <v>0.3677</v>
       </c>
       <c r="C15">
-        <v>0.1722</v>
+        <v>0.1721</v>
       </c>
       <c r="D15">
-        <v>0.1954</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3706</v>
+        <v>0.3707</v>
       </c>
       <c r="C16">
-        <v>0.1717</v>
+        <v>0.1716</v>
       </c>
       <c r="D16">
-        <v>0.1989</v>
+        <v>0.1992</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.3749</v>
+        <v>0.375</v>
       </c>
       <c r="C17">
-        <v>0.1722</v>
+        <v>0.1721</v>
       </c>
       <c r="D17">
-        <v>0.2027</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3799</v>
+        <v>0.38</v>
       </c>
       <c r="C18">
-        <v>0.1734</v>
+        <v>0.1732</v>
       </c>
       <c r="D18">
-        <v>0.2065</v>
+        <v>0.2068</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.384</v>
+        <v>0.3841</v>
       </c>
       <c r="C19">
-        <v>0.1737</v>
+        <v>0.1735</v>
       </c>
       <c r="D19">
-        <v>0.2104</v>
+        <v>0.2106</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3879</v>
+        <v>0.388</v>
       </c>
       <c r="C20">
-        <v>0.1748</v>
+        <v>0.1747</v>
       </c>
       <c r="D20">
-        <v>0.2131</v>
+        <v>0.2133</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3913</v>
+        <v>0.3914</v>
       </c>
       <c r="C21">
-        <v>0.1757</v>
+        <v>0.1755</v>
       </c>
       <c r="D21">
-        <v>0.2157</v>
+        <v>0.2159</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.3961</v>
+        <v>0.3962</v>
       </c>
       <c r="C22">
-        <v>0.1775</v>
+        <v>0.1774</v>
       </c>
       <c r="D22">
-        <v>0.2185</v>
+        <v>0.2188</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1455,10 +1455,10 @@
         <v>0.4005</v>
       </c>
       <c r="C23">
-        <v>0.1792</v>
+        <v>0.1791</v>
       </c>
       <c r="D23">
-        <v>0.2212</v>
+        <v>0.2215</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1469,10 +1469,10 @@
         <v>0.404</v>
       </c>
       <c r="C24">
-        <v>0.1805</v>
+        <v>0.1803</v>
       </c>
       <c r="D24">
-        <v>0.2235</v>
+        <v>0.2237</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1483,10 +1483,10 @@
         <v>0.4084</v>
       </c>
       <c r="C25">
-        <v>0.1832</v>
+        <v>0.183</v>
       </c>
       <c r="D25">
-        <v>0.2252</v>
+        <v>0.2254</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1497,10 +1497,10 @@
         <v>0.4117</v>
       </c>
       <c r="C26">
-        <v>0.1849</v>
+        <v>0.1848</v>
       </c>
       <c r="D26">
-        <v>0.2267</v>
+        <v>0.2269</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1511,10 +1511,10 @@
         <v>0.4139</v>
       </c>
       <c r="C27">
-        <v>0.1858</v>
+        <v>0.1857</v>
       </c>
       <c r="D27">
-        <v>0.228</v>
+        <v>0.2282</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.4175</v>
+        <v>0.4176</v>
       </c>
       <c r="C28">
-        <v>0.1874</v>
+        <v>0.1872</v>
       </c>
       <c r="D28">
-        <v>0.2301</v>
+        <v>0.2303</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.4209</v>
+        <v>0.421</v>
       </c>
       <c r="C29">
-        <v>0.1887</v>
+        <v>0.1886</v>
       </c>
       <c r="D29">
-        <v>0.2322</v>
+        <v>0.2324</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.4235</v>
+        <v>0.4236</v>
       </c>
       <c r="C30">
-        <v>0.1895</v>
+        <v>0.1893</v>
       </c>
       <c r="D30">
-        <v>0.234</v>
+        <v>0.2342</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.4269</v>
+        <v>0.427</v>
       </c>
       <c r="C31">
-        <v>0.1915</v>
+        <v>0.1913</v>
       </c>
       <c r="D31">
-        <v>0.2354</v>
+        <v>0.2356</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.4292</v>
+        <v>0.4293</v>
       </c>
       <c r="C32">
-        <v>0.1923</v>
+        <v>0.1921</v>
       </c>
       <c r="D32">
-        <v>0.2369</v>
+        <v>0.2371</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.4309</v>
+        <v>0.431</v>
       </c>
       <c r="C33">
-        <v>0.1937</v>
+        <v>0.1935</v>
       </c>
       <c r="D33">
-        <v>0.2373</v>
+        <v>0.2375</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.4317</v>
+        <v>0.4318</v>
       </c>
       <c r="C34">
-        <v>0.1943</v>
+        <v>0.1942</v>
       </c>
       <c r="D34">
-        <v>0.2373</v>
+        <v>0.2376</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.4327</v>
+        <v>0.4328</v>
       </c>
       <c r="C35">
-        <v>0.1958</v>
+        <v>0.1957</v>
       </c>
       <c r="D35">
-        <v>0.2369</v>
+        <v>0.2371</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.4336</v>
+        <v>0.4337</v>
       </c>
       <c r="C36">
-        <v>0.197</v>
+        <v>0.1969</v>
       </c>
       <c r="D36">
-        <v>0.2366</v>
+        <v>0.2368</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.4336</v>
+        <v>0.4337</v>
       </c>
       <c r="C37">
-        <v>0.1977</v>
+        <v>0.1976</v>
       </c>
       <c r="D37">
-        <v>0.2359</v>
+        <v>0.2361</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.4336</v>
+        <v>0.4337</v>
       </c>
       <c r="C38">
-        <v>0.1984</v>
+        <v>0.1983</v>
       </c>
       <c r="D38">
-        <v>0.2352</v>
+        <v>0.2354</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.4335</v>
+        <v>0.4336</v>
       </c>
       <c r="C39">
-        <v>0.1992</v>
+        <v>0.1991</v>
       </c>
       <c r="D39">
-        <v>0.2342</v>
+        <v>0.2345</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.4324</v>
+        <v>0.4326</v>
       </c>
       <c r="C40">
-        <v>0.1994</v>
+        <v>0.1993</v>
       </c>
       <c r="D40">
-        <v>0.233</v>
+        <v>0.2333</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.4314</v>
+        <v>0.4316</v>
       </c>
       <c r="C41">
-        <v>0.1996</v>
+        <v>0.1995</v>
       </c>
       <c r="D41">
-        <v>0.2318</v>
+        <v>0.2321</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.4308</v>
+        <v>0.431</v>
       </c>
       <c r="C42">
         <v>0.2003</v>
       </c>
       <c r="D42">
-        <v>0.2304</v>
+        <v>0.2307</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.4296</v>
+        <v>0.4298</v>
       </c>
       <c r="C43">
         <v>0.2007</v>
       </c>
       <c r="D43">
-        <v>0.2289</v>
+        <v>0.2291</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.4286</v>
+        <v>0.4288</v>
       </c>
       <c r="C44">
         <v>0.2011</v>
       </c>
       <c r="D44">
-        <v>0.2275</v>
+        <v>0.2277</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.4253</v>
+        <v>0.4255</v>
       </c>
       <c r="C45">
         <v>0.1995</v>
       </c>
       <c r="D45">
-        <v>0.2258</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.4234</v>
+        <v>0.4236</v>
       </c>
       <c r="C46">
         <v>0.1992</v>
       </c>
       <c r="D46">
-        <v>0.2242</v>
+        <v>0.2244</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.4212</v>
+        <v>0.4215</v>
       </c>
       <c r="C47">
         <v>0.1989</v>
       </c>
       <c r="D47">
-        <v>0.2223</v>
+        <v>0.2226</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.4178</v>
+        <v>0.4181</v>
       </c>
       <c r="C48">
         <v>0.1983</v>
       </c>
       <c r="D48">
-        <v>0.2196</v>
+        <v>0.2198</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.4144</v>
+        <v>0.4146</v>
       </c>
       <c r="C49">
         <v>0.1977</v>
       </c>
       <c r="D49">
-        <v>0.2167</v>
+        <v>0.2169</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4125</v>
+        <v>0.4127</v>
       </c>
       <c r="C50">
         <v>0.197</v>
       </c>
       <c r="D50">
-        <v>0.2155</v>
+        <v>0.2157</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.4093</v>
+        <v>0.4096</v>
       </c>
       <c r="C51">
         <v>0.1951</v>
       </c>
       <c r="D51">
-        <v>0.2142</v>
+        <v>0.2145</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4067</v>
+        <v>0.4069</v>
       </c>
       <c r="C52">
         <v>0.1943</v>
       </c>
       <c r="D52">
-        <v>0.2124</v>
+        <v>0.2126</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4035</v>
+        <v>0.4037</v>
       </c>
       <c r="C53">
         <v>0.1931</v>
       </c>
       <c r="D53">
-        <v>0.2104</v>
+        <v>0.2106</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.3993</v>
+        <v>0.3995</v>
       </c>
       <c r="C54">
         <v>0.1911</v>
       </c>
       <c r="D54">
-        <v>0.2082</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3936</v>
+        <v>0.3939</v>
       </c>
       <c r="C55">
         <v>0.1884</v>
       </c>
       <c r="D55">
-        <v>0.2052</v>
+        <v>0.2055</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.3867</v>
+        <v>0.3869</v>
       </c>
       <c r="C56">
-        <v>0.1852</v>
+        <v>0.1851</v>
       </c>
       <c r="D56">
-        <v>0.2015</v>
+        <v>0.2018</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.3793</v>
+        <v>0.3795</v>
       </c>
       <c r="C57">
-        <v>0.1817</v>
+        <v>0.1816</v>
       </c>
       <c r="D57">
-        <v>0.1976</v>
+        <v>0.1979</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3717</v>
+        <v>0.3719</v>
       </c>
       <c r="C58">
         <v>0.1781</v>
       </c>
       <c r="D58">
-        <v>0.1936</v>
+        <v>0.1938</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3636</v>
+        <v>0.3638</v>
       </c>
       <c r="C59">
         <v>0.1743</v>
       </c>
       <c r="D59">
-        <v>0.1893</v>
+        <v>0.1895</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3538</v>
+        <v>0.3539</v>
       </c>
       <c r="C60">
         <v>0.1692</v>
       </c>
       <c r="D60">
-        <v>0.1845</v>
+        <v>0.1848</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3436</v>
+        <v>0.3438</v>
       </c>
       <c r="C61">
-        <v>0.1643</v>
+        <v>0.1642</v>
       </c>
       <c r="D61">
-        <v>0.1793</v>
+        <v>0.1796</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3324</v>
+        <v>0.3326</v>
       </c>
       <c r="C62">
-        <v>0.1589</v>
+        <v>0.1588</v>
       </c>
       <c r="D62">
-        <v>0.1736</v>
+        <v>0.1738</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3221</v>
+        <v>0.3223</v>
       </c>
       <c r="C63">
         <v>0.1542</v>
       </c>
       <c r="D63">
-        <v>0.1679</v>
+        <v>0.1681</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3111</v>
+        <v>0.3113</v>
       </c>
       <c r="C64">
         <v>0.1493</v>
       </c>
       <c r="D64">
-        <v>0.1618</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.2999</v>
+        <v>0.3</v>
       </c>
       <c r="C65">
-        <v>0.1443</v>
+        <v>0.1442</v>
       </c>
       <c r="D65">
-        <v>0.1556</v>
+        <v>0.1558</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.2883</v>
+        <v>0.2885</v>
       </c>
       <c r="C66">
-        <v>0.1392</v>
+        <v>0.1391</v>
       </c>
       <c r="D66">
-        <v>0.1491</v>
+        <v>0.1494</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.276</v>
+        <v>0.2761</v>
       </c>
       <c r="C67">
-        <v>0.1335</v>
+        <v>0.1334</v>
       </c>
       <c r="D67">
-        <v>0.1425</v>
+        <v>0.1427</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.2639</v>
+        <v>0.2641</v>
       </c>
       <c r="C68">
-        <v>0.1282</v>
+        <v>0.1281</v>
       </c>
       <c r="D68">
-        <v>0.1358</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.2531</v>
+        <v>0.2532</v>
       </c>
       <c r="C69">
         <v>0.1233</v>
       </c>
       <c r="D69">
-        <v>0.1297</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.2406</v>
+        <v>0.2408</v>
       </c>
       <c r="C70">
-        <v>0.1181</v>
+        <v>0.118</v>
       </c>
       <c r="D70">
-        <v>0.1225</v>
+        <v>0.1228</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.2284</v>
+        <v>0.2285</v>
       </c>
       <c r="C71">
         <v>0.1131</v>
       </c>
       <c r="D71">
-        <v>0.1152</v>
+        <v>0.1155</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.216</v>
+        <v>0.2162</v>
       </c>
       <c r="C72">
-        <v>0.108</v>
+        <v>0.1079</v>
       </c>
       <c r="D72">
-        <v>0.108</v>
+        <v>0.1083</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.2044</v>
+        <v>0.2045</v>
       </c>
       <c r="C73">
-        <v>0.1031</v>
+        <v>0.103</v>
       </c>
       <c r="D73">
-        <v>0.1013</v>
+        <v>0.1015</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.1931</v>
+        <v>0.1933</v>
       </c>
       <c r="C74">
         <v>0.0985</v>
       </c>
       <c r="D74">
-        <v>0.0946</v>
+        <v>0.0948</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.1824</v>
+        <v>0.1826</v>
       </c>
       <c r="C75">
-        <v>0.09429999999999999</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="D75">
-        <v>0.0881</v>
+        <v>0.08840000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.1724</v>
+        <v>0.1725</v>
       </c>
       <c r="C76">
-        <v>0.0905</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="D76">
-        <v>0.0819</v>
+        <v>0.08210000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.1625</v>
+        <v>0.1627</v>
       </c>
       <c r="C77">
-        <v>0.0867</v>
+        <v>0.0866</v>
       </c>
       <c r="D77">
-        <v>0.07580000000000001</v>
+        <v>0.0761</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.1524</v>
+        <v>0.1526</v>
       </c>
       <c r="C78">
-        <v>0.08260000000000001</v>
+        <v>0.0825</v>
       </c>
       <c r="D78">
-        <v>0.0699</v>
+        <v>0.0701</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.1439</v>
+        <v>0.1441</v>
       </c>
       <c r="C79">
-        <v>0.0796</v>
+        <v>0.0795</v>
       </c>
       <c r="D79">
-        <v>0.0643</v>
+        <v>0.0646</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.137</v>
+        <v>0.1372</v>
       </c>
       <c r="C80">
         <v>0.0774</v>
       </c>
       <c r="D80">
-        <v>0.0596</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.1302</v>
+        <v>0.1304</v>
       </c>
       <c r="C81">
-        <v>0.0752</v>
+        <v>0.0751</v>
       </c>
       <c r="D81">
-        <v>0.0551</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.1227</v>
+        <v>0.1229</v>
       </c>
       <c r="C82">
-        <v>0.07199999999999999</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="D82">
-        <v>0.0507</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.115</v>
+        <v>0.1152</v>
       </c>
       <c r="C83">
-        <v>0.0684</v>
+        <v>0.0683</v>
       </c>
       <c r="D83">
-        <v>0.0466</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.1072</v>
+        <v>0.1074</v>
       </c>
       <c r="C84">
-        <v>0.0645</v>
+        <v>0.0644</v>
       </c>
       <c r="D84">
-        <v>0.0427</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.1005</v>
+        <v>0.1006</v>
       </c>
       <c r="C85">
         <v>0.0609</v>
       </c>
       <c r="D85">
-        <v>0.0395</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.0939</v>
+        <v>0.094</v>
       </c>
       <c r="C86">
         <v>0.0571</v>
       </c>
       <c r="D86">
-        <v>0.0367</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.0885</v>
+        <v>0.0887</v>
       </c>
       <c r="C87">
         <v>0.054</v>
       </c>
       <c r="D87">
-        <v>0.0345</v>
+        <v>0.0347</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.0838</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C88">
         <v>0.0513</v>
       </c>
       <c r="D88">
-        <v>0.0325</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.07920000000000001</v>
+        <v>0.0793</v>
       </c>
       <c r="C89">
         <v>0.0489</v>
       </c>
       <c r="D89">
-        <v>0.0303</v>
+        <v>0.0305</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.0752</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="C90">
         <v>0.0473</v>
       </c>
       <c r="D90">
-        <v>0.0279</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.0732</v>
+        <v>0.0733</v>
       </c>
       <c r="C91">
-        <v>0.047</v>
+        <v>0.0469</v>
       </c>
       <c r="D91">
-        <v>0.0262</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.0717</v>
+        <v>0.0718</v>
       </c>
       <c r="C92">
-        <v>0.0467</v>
+        <v>0.0466</v>
       </c>
       <c r="D92">
-        <v>0.025</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.0713</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="C93">
         <v>0.0472</v>
       </c>
       <c r="D93">
-        <v>0.0241</v>
+        <v>0.0243</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.07149999999999999</v>
+        <v>0.0716</v>
       </c>
       <c r="C94">
         <v>0.0479</v>
       </c>
       <c r="D94">
-        <v>0.0236</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.07199999999999999</v>
+        <v>0.0721</v>
       </c>
       <c r="C95">
-        <v>0.0489</v>
+        <v>0.0488</v>
       </c>
       <c r="D95">
-        <v>0.0231</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.0733</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="C96">
         <v>0.0503</v>
       </c>
       <c r="D96">
-        <v>0.023</v>
+        <v>0.0232</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.0757</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="C97">
         <v>0.0525</v>
       </c>
       <c r="D97">
-        <v>0.0231</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.07779999999999999</v>
+        <v>0.078</v>
       </c>
       <c r="C98">
-        <v>0.0545</v>
+        <v>0.0544</v>
       </c>
       <c r="D98">
-        <v>0.0234</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.0801</v>
+        <v>0.0803</v>
       </c>
       <c r="C99">
         <v>0.0562</v>
       </c>
       <c r="D99">
-        <v>0.0239</v>
+        <v>0.0241</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.08359999999999999</v>
+        <v>0.0838</v>
       </c>
       <c r="C100">
         <v>0.0586</v>
       </c>
       <c r="D100">
-        <v>0.025</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.08749999999999999</v>
+        <v>0.0877</v>
       </c>
       <c r="C101">
         <v>0.0612</v>
       </c>
       <c r="D101">
-        <v>0.0263</v>
+        <v>0.0265</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.0941</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="C102">
-        <v>0.0653</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="D102">
-        <v>0.0288</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.1012</v>
+        <v>0.1014</v>
       </c>
       <c r="C103">
-        <v>0.0698</v>
+        <v>0.0697</v>
       </c>
       <c r="D103">
-        <v>0.0315</v>
+        <v>0.0317</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.1091</v>
+        <v>0.1092</v>
       </c>
       <c r="C104">
-        <v>0.07480000000000001</v>
+        <v>0.0747</v>
       </c>
       <c r="D104">
-        <v>0.0343</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.1162</v>
+        <v>0.1164</v>
       </c>
       <c r="C105">
-        <v>0.0793</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="D105">
-        <v>0.037</v>
+        <v>0.0372</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.1234</v>
+        <v>0.1235</v>
       </c>
       <c r="C106">
-        <v>0.0837</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="D106">
-        <v>0.0397</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.1297</v>
+        <v>0.1298</v>
       </c>
       <c r="C107">
-        <v>0.0876</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="D107">
-        <v>0.042</v>
+        <v>0.0423</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.1351</v>
+        <v>0.1352</v>
       </c>
       <c r="C108">
-        <v>0.09089999999999999</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="D108">
-        <v>0.0442</v>
+        <v>0.0444</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.1392</v>
+        <v>0.1394</v>
       </c>
       <c r="C109">
-        <v>0.09320000000000001</v>
+        <v>0.0931</v>
       </c>
       <c r="D109">
-        <v>0.046</v>
+        <v>0.0463</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.1427</v>
+        <v>0.1429</v>
       </c>
       <c r="C110">
-        <v>0.0949</v>
+        <v>0.0948</v>
       </c>
       <c r="D110">
-        <v>0.0478</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.1447</v>
+        <v>0.1448</v>
       </c>
       <c r="C111">
-        <v>0.0955</v>
+        <v>0.0954</v>
       </c>
       <c r="D111">
-        <v>0.0491</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.1463</v>
+        <v>0.1464</v>
       </c>
       <c r="C112">
-        <v>0.0958</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="D112">
-        <v>0.0505</v>
+        <v>0.0508</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.1479</v>
+        <v>0.1481</v>
       </c>
       <c r="C113">
-        <v>0.09619999999999999</v>
+        <v>0.0961</v>
       </c>
       <c r="D113">
-        <v>0.0517</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.1498</v>
+        <v>0.1499</v>
       </c>
       <c r="C114">
         <v>0.09669999999999999</v>
       </c>
       <c r="D114">
-        <v>0.053</v>
+        <v>0.0533</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.1516</v>
+        <v>0.1518</v>
       </c>
       <c r="C115">
         <v>0.097</v>
       </c>
       <c r="D115">
-        <v>0.0545</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.1527</v>
+        <v>0.1529</v>
       </c>
       <c r="C116">
-        <v>0.09669999999999999</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="D116">
-        <v>0.056</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.1536</v>
+        <v>0.1538</v>
       </c>
       <c r="C117">
-        <v>0.0959</v>
+        <v>0.0958</v>
       </c>
       <c r="D117">
-        <v>0.0577</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.1553</v>
+        <v>0.1555</v>
       </c>
       <c r="C118">
-        <v>0.0954</v>
+        <v>0.0953</v>
       </c>
       <c r="D118">
-        <v>0.0599</v>
+        <v>0.0602</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.1569</v>
+        <v>0.1571</v>
       </c>
       <c r="C119">
         <v>0.0948</v>
       </c>
       <c r="D119">
-        <v>0.062</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.1576</v>
+        <v>0.1578</v>
       </c>
       <c r="C120">
         <v>0.09420000000000001</v>
       </c>
       <c r="D120">
-        <v>0.0634</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.1586</v>
+        <v>0.1588</v>
       </c>
       <c r="C121">
-        <v>0.09379999999999999</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="D121">
-        <v>0.0649</v>
+        <v>0.06510000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.1579</v>
+        <v>0.1581</v>
       </c>
       <c r="C122">
-        <v>0.0925</v>
+        <v>0.0924</v>
       </c>
       <c r="D122">
-        <v>0.0654</v>
+        <v>0.06569999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.1574</v>
+        <v>0.1576</v>
       </c>
       <c r="C123">
         <v>0.0911</v>
       </c>
       <c r="D123">
-        <v>0.06619999999999999</v>
+        <v>0.0665</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.1576</v>
+        <v>0.1578</v>
       </c>
       <c r="C124">
         <v>0.09039999999999999</v>
       </c>
       <c r="D124">
-        <v>0.0672</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.1578</v>
+        <v>0.1581</v>
       </c>
       <c r="C125">
         <v>0.09</v>
       </c>
       <c r="D125">
-        <v>0.0678</v>
+        <v>0.06809999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.1597</v>
+        <v>0.1599</v>
       </c>
       <c r="C126">
         <v>0.09089999999999999</v>
       </c>
       <c r="D126">
-        <v>0.0688</v>
+        <v>0.06909999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.1622</v>
+        <v>0.1625</v>
       </c>
       <c r="C127">
         <v>0.0922</v>
       </c>
       <c r="D127">
-        <v>0.07000000000000001</v>
+        <v>0.0703</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.1654</v>
+        <v>0.1657</v>
       </c>
       <c r="C128">
         <v>0.0936</v>
       </c>
       <c r="D128">
-        <v>0.0718</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.1698</v>
+        <v>0.17</v>
       </c>
       <c r="C129">
         <v>0.09569999999999999</v>
       </c>
       <c r="D129">
-        <v>0.074</v>
+        <v>0.0743</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.174</v>
+        <v>0.1742</v>
       </c>
       <c r="C130">
         <v>0.0978</v>
       </c>
       <c r="D130">
-        <v>0.0762</v>
+        <v>0.0764</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.1778</v>
+        <v>0.1781</v>
       </c>
       <c r="C131">
         <v>0.09959999999999999</v>
       </c>
       <c r="D131">
-        <v>0.07820000000000001</v>
+        <v>0.0785</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.1822</v>
+        <v>0.1825</v>
       </c>
       <c r="C132">
         <v>0.1021</v>
       </c>
       <c r="D132">
-        <v>0.0801</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.1868</v>
+        <v>0.187</v>
       </c>
       <c r="C133">
         <v>0.1048</v>
       </c>
       <c r="D133">
-        <v>0.082</v>
+        <v>0.0823</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.1915</v>
+        <v>0.1917</v>
       </c>
       <c r="C134">
         <v>0.1077</v>
       </c>
       <c r="D134">
-        <v>0.0838</v>
+        <v>0.08409999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.1963</v>
+        <v>0.1966</v>
       </c>
       <c r="C135">
         <v>0.1107</v>
       </c>
       <c r="D135">
-        <v>0.0856</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.201</v>
+        <v>0.2012</v>
       </c>
       <c r="C136">
         <v>0.1136</v>
       </c>
       <c r="D136">
-        <v>0.08740000000000001</v>
+        <v>0.0876</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.2053</v>
+        <v>0.2056</v>
       </c>
       <c r="C137">
         <v>0.1165</v>
       </c>
       <c r="D137">
-        <v>0.0888</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.2093</v>
+        <v>0.2096</v>
       </c>
       <c r="C138">
         <v>0.1195</v>
       </c>
       <c r="D138">
-        <v>0.0898</v>
+        <v>0.0901</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.2126</v>
+        <v>0.2128</v>
       </c>
       <c r="C139">
         <v>0.1218</v>
       </c>
       <c r="D139">
-        <v>0.09080000000000001</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.2162</v>
+        <v>0.2164</v>
       </c>
       <c r="C140">
-        <v>0.1243</v>
+        <v>0.1242</v>
       </c>
       <c r="D140">
-        <v>0.0919</v>
+        <v>0.0922</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.2194</v>
+        <v>0.2196</v>
       </c>
       <c r="C141">
         <v>0.1263</v>
       </c>
       <c r="D141">
-        <v>0.0931</v>
+        <v>0.09329999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.223</v>
+        <v>0.2233</v>
       </c>
       <c r="C142">
         <v>0.1288</v>
       </c>
       <c r="D142">
-        <v>0.09420000000000001</v>
+        <v>0.0945</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.226</v>
+        <v>0.2263</v>
       </c>
       <c r="C143">
         <v>0.1308</v>
       </c>
       <c r="D143">
-        <v>0.09520000000000001</v>
+        <v>0.0955</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.2284</v>
+        <v>0.2287</v>
       </c>
       <c r="C144">
-        <v>0.1322</v>
+        <v>0.1321</v>
       </c>
       <c r="D144">
-        <v>0.0963</v>
+        <v>0.0965</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.2315</v>
+        <v>0.2318</v>
       </c>
       <c r="C145">
-        <v>0.1338</v>
+        <v>0.1337</v>
       </c>
       <c r="D145">
-        <v>0.0978</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.2345</v>
+        <v>0.2347</v>
       </c>
       <c r="C146">
         <v>0.1346</v>
       </c>
       <c r="D146">
-        <v>0.0999</v>
+        <v>0.1002</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.2371</v>
+        <v>0.2374</v>
       </c>
       <c r="C147">
         <v>0.1347</v>
       </c>
       <c r="D147">
-        <v>0.1024</v>
+        <v>0.1027</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.2397</v>
+        <v>0.24</v>
       </c>
       <c r="C148">
         <v>0.1348</v>
       </c>
       <c r="D148">
-        <v>0.105</v>
+        <v>0.1053</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.2423</v>
+        <v>0.2425</v>
       </c>
       <c r="C149">
-        <v>0.1349</v>
+        <v>0.1348</v>
       </c>
       <c r="D149">
-        <v>0.1074</v>
+        <v>0.1077</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.2449</v>
+        <v>0.2452</v>
       </c>
       <c r="C150">
-        <v>0.1351</v>
+        <v>0.135</v>
       </c>
       <c r="D150">
-        <v>0.1099</v>
+        <v>0.1102</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.2481</v>
+        <v>0.2484</v>
       </c>
       <c r="C151">
         <v>0.1356</v>
       </c>
       <c r="D151">
-        <v>0.1125</v>
+        <v>0.1128</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.2519</v>
+        <v>0.2522</v>
       </c>
       <c r="C152">
         <v>0.1367</v>
       </c>
       <c r="D152">
-        <v>0.1152</v>
+        <v>0.1155</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2543</v>
+        <v>0.2545</v>
       </c>
       <c r="C153">
-        <v>0.1366</v>
+        <v>0.1365</v>
       </c>
       <c r="D153">
-        <v>0.1177</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.2565</v>
+        <v>0.2567</v>
       </c>
       <c r="C154">
         <v>0.1364</v>
       </c>
       <c r="D154">
-        <v>0.1201</v>
+        <v>0.1204</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.2588</v>
+        <v>0.259</v>
       </c>
       <c r="C155">
         <v>0.1362</v>
       </c>
       <c r="D155">
-        <v>0.1226</v>
+        <v>0.1228</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.2618</v>
+        <v>0.2621</v>
       </c>
       <c r="C156">
         <v>0.1367</v>
       </c>
       <c r="D156">
-        <v>0.1251</v>
+        <v>0.1254</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.2649</v>
+        <v>0.2651</v>
       </c>
       <c r="C157">
-        <v>0.1373</v>
+        <v>0.1372</v>
       </c>
       <c r="D157">
-        <v>0.1276</v>
+        <v>0.1278</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.2686</v>
+        <v>0.2688</v>
       </c>
       <c r="C158">
-        <v>0.1387</v>
+        <v>0.1386</v>
       </c>
       <c r="D158">
-        <v>0.1299</v>
+        <v>0.1301</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.2729</v>
+        <v>0.2731</v>
       </c>
       <c r="C159">
         <v>0.141</v>
       </c>
       <c r="D159">
-        <v>0.1319</v>
+        <v>0.1322</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.2763</v>
+        <v>0.2764</v>
       </c>
       <c r="C160">
-        <v>0.1428</v>
+        <v>0.1427</v>
       </c>
       <c r="D160">
-        <v>0.1335</v>
+        <v>0.1337</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.2801</v>
+        <v>0.2803</v>
       </c>
       <c r="C161">
         <v>0.1448</v>
       </c>
       <c r="D161">
-        <v>0.1353</v>
+        <v>0.1355</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.284</v>
+        <v>0.2842</v>
       </c>
       <c r="C162">
-        <v>0.147</v>
+        <v>0.1469</v>
       </c>
       <c r="D162">
-        <v>0.137</v>
+        <v>0.1372</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.2873</v>
+        <v>0.2874</v>
       </c>
       <c r="C163">
         <v>0.1491</v>
       </c>
       <c r="D163">
-        <v>0.1381</v>
+        <v>0.1383</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.2902</v>
+        <v>0.2903</v>
       </c>
       <c r="C164">
-        <v>0.1514</v>
+        <v>0.1513</v>
       </c>
       <c r="D164">
-        <v>0.1388</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.292</v>
+        <v>0.2921</v>
       </c>
       <c r="C165">
-        <v>0.153</v>
+        <v>0.1529</v>
       </c>
       <c r="D165">
-        <v>0.139</v>
+        <v>0.1392</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.293</v>
+        <v>0.2931</v>
       </c>
       <c r="C166">
-        <v>0.1548</v>
+        <v>0.1547</v>
       </c>
       <c r="D166">
-        <v>0.1382</v>
+        <v>0.1384</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.294</v>
+        <v>0.2941</v>
       </c>
       <c r="C167">
-        <v>0.1574</v>
+        <v>0.1573</v>
       </c>
       <c r="D167">
-        <v>0.1367</v>
+        <v>0.1369</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.2946</v>
+        <v>0.2947</v>
       </c>
       <c r="C168">
-        <v>0.1602</v>
+        <v>0.1601</v>
       </c>
       <c r="D168">
-        <v>0.1344</v>
+        <v>0.1346</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3499,10 +3499,10 @@
         <v>0.2947</v>
       </c>
       <c r="C169">
-        <v>0.1626</v>
+        <v>0.1625</v>
       </c>
       <c r="D169">
-        <v>0.132</v>
+        <v>0.1322</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.2951</v>
+        <v>0.2952</v>
       </c>
       <c r="C170">
-        <v>0.1648</v>
+        <v>0.1647</v>
       </c>
       <c r="D170">
-        <v>0.1302</v>
+        <v>0.1304</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.2956</v>
+        <v>0.2957</v>
       </c>
       <c r="C171">
-        <v>0.1675</v>
+        <v>0.1674</v>
       </c>
       <c r="D171">
-        <v>0.1281</v>
+        <v>0.1283</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.2948</v>
+        <v>0.2949</v>
       </c>
       <c r="C172">
-        <v>0.169</v>
+        <v>0.1689</v>
       </c>
       <c r="D172">
-        <v>0.1258</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.2945</v>
+        <v>0.2946</v>
       </c>
       <c r="C173">
-        <v>0.1711</v>
+        <v>0.171</v>
       </c>
       <c r="D173">
-        <v>0.1234</v>
+        <v>0.1236</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.2935</v>
+        <v>0.2936</v>
       </c>
       <c r="C174">
-        <v>0.1726</v>
+        <v>0.1725</v>
       </c>
       <c r="D174">
-        <v>0.1208</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.2925</v>
+        <v>0.2926</v>
       </c>
       <c r="C175">
-        <v>0.1742</v>
+        <v>0.1741</v>
       </c>
       <c r="D175">
-        <v>0.1182</v>
+        <v>0.1185</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.2907</v>
+        <v>0.2908</v>
       </c>
       <c r="C176">
-        <v>0.1751</v>
+        <v>0.175</v>
       </c>
       <c r="D176">
-        <v>0.1156</v>
+        <v>0.1158</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2893</v>
+        <v>0.2894</v>
       </c>
       <c r="C177">
-        <v>0.1755</v>
+        <v>0.1754</v>
       </c>
       <c r="D177">
-        <v>0.1138</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.2865</v>
+        <v>0.2866</v>
       </c>
       <c r="C178">
-        <v>0.1747</v>
+        <v>0.1746</v>
       </c>
       <c r="D178">
-        <v>0.1118</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.2828</v>
+        <v>0.283</v>
       </c>
       <c r="C179">
-        <v>0.1729</v>
+        <v>0.1728</v>
       </c>
       <c r="D179">
-        <v>0.11</v>
+        <v>0.1102</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.2796</v>
+        <v>0.2798</v>
       </c>
       <c r="C180">
-        <v>0.1714</v>
+        <v>0.1713</v>
       </c>
       <c r="D180">
-        <v>0.1082</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.2756</v>
+        <v>0.2757</v>
       </c>
       <c r="C181">
-        <v>0.1696</v>
+        <v>0.1694</v>
       </c>
       <c r="D181">
-        <v>0.106</v>
+        <v>0.1063</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.271</v>
+        <v>0.2712</v>
       </c>
       <c r="C182">
-        <v>0.1671</v>
+        <v>0.167</v>
       </c>
       <c r="D182">
-        <v>0.1039</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.2664</v>
+        <v>0.2665</v>
       </c>
       <c r="C183">
-        <v>0.1644</v>
+        <v>0.1643</v>
       </c>
       <c r="D183">
-        <v>0.102</v>
+        <v>0.1023</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.2621</v>
+        <v>0.2623</v>
       </c>
       <c r="C184">
-        <v>0.1615</v>
+        <v>0.1614</v>
       </c>
       <c r="D184">
-        <v>0.1006</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.2587</v>
+        <v>0.2588</v>
       </c>
       <c r="C185">
-        <v>0.1592</v>
+        <v>0.159</v>
       </c>
       <c r="D185">
-        <v>0.09950000000000001</v>
+        <v>0.0998</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.2553</v>
+        <v>0.2554</v>
       </c>
       <c r="C186">
-        <v>0.1567</v>
+        <v>0.1566</v>
       </c>
       <c r="D186">
-        <v>0.09859999999999999</v>
+        <v>0.0988</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.2519</v>
+        <v>0.252</v>
       </c>
       <c r="C187">
-        <v>0.1539</v>
+        <v>0.1538</v>
       </c>
       <c r="D187">
-        <v>0.098</v>
+        <v>0.0982</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.2486</v>
+        <v>0.2487</v>
       </c>
       <c r="C188">
-        <v>0.151</v>
+        <v>0.1509</v>
       </c>
       <c r="D188">
-        <v>0.09760000000000001</v>
+        <v>0.0979</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.2455</v>
+        <v>0.2456</v>
       </c>
       <c r="C189">
-        <v>0.1482</v>
+        <v>0.1481</v>
       </c>
       <c r="D189">
-        <v>0.09719999999999999</v>
+        <v>0.0975</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.2427</v>
+        <v>0.2429</v>
       </c>
       <c r="C190">
-        <v>0.1461</v>
+        <v>0.146</v>
       </c>
       <c r="D190">
-        <v>0.09660000000000001</v>
+        <v>0.0968</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.2398</v>
+        <v>0.2399</v>
       </c>
       <c r="C191">
-        <v>0.1436</v>
+        <v>0.1435</v>
       </c>
       <c r="D191">
-        <v>0.09619999999999999</v>
+        <v>0.0965</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.238</v>
+        <v>0.2381</v>
       </c>
       <c r="C192">
-        <v>0.1419</v>
+        <v>0.1418</v>
       </c>
       <c r="D192">
-        <v>0.096</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.237</v>
+        <v>0.2371</v>
       </c>
       <c r="C193">
-        <v>0.1411</v>
+        <v>0.1409</v>
       </c>
       <c r="D193">
-        <v>0.0959</v>
+        <v>0.09619999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.2365</v>
+        <v>0.2367</v>
       </c>
       <c r="C194">
-        <v>0.1406</v>
+        <v>0.1405</v>
       </c>
       <c r="D194">
-        <v>0.0959</v>
+        <v>0.09619999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.2365</v>
+        <v>0.2366</v>
       </c>
       <c r="C195">
-        <v>0.1404</v>
+        <v>0.1403</v>
       </c>
       <c r="D195">
-        <v>0.096</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.2371</v>
+        <v>0.2372</v>
       </c>
       <c r="C196">
-        <v>0.141</v>
+        <v>0.1409</v>
       </c>
       <c r="D196">
-        <v>0.0961</v>
+        <v>0.0964</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.2384</v>
+        <v>0.2386</v>
       </c>
       <c r="C197">
-        <v>0.1429</v>
+        <v>0.1428</v>
       </c>
       <c r="D197">
-        <v>0.0955</v>
+        <v>0.0958</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.2398</v>
+        <v>0.24</v>
       </c>
       <c r="C198">
-        <v>0.1448</v>
+        <v>0.1447</v>
       </c>
       <c r="D198">
-        <v>0.095</v>
+        <v>0.09520000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.2408</v>
+        <v>0.2409</v>
       </c>
       <c r="C199">
-        <v>0.1464</v>
+        <v>0.1463</v>
       </c>
       <c r="D199">
-        <v>0.09429999999999999</v>
+        <v>0.0946</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.2409</v>
+        <v>0.241</v>
       </c>
       <c r="C200">
-        <v>0.1474</v>
+        <v>0.1472</v>
       </c>
       <c r="D200">
-        <v>0.0935</v>
+        <v>0.09370000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.2413</v>
+        <v>0.2414</v>
       </c>
       <c r="C201">
-        <v>0.1487</v>
+        <v>0.1486</v>
       </c>
       <c r="D201">
-        <v>0.0926</v>
+        <v>0.09279999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.2418</v>
+        <v>0.242</v>
       </c>
       <c r="C202">
-        <v>0.1504</v>
+        <v>0.1503</v>
       </c>
       <c r="D202">
-        <v>0.0914</v>
+        <v>0.0917</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.2423</v>
+        <v>0.2424</v>
       </c>
       <c r="C203">
-        <v>0.1521</v>
+        <v>0.152</v>
       </c>
       <c r="D203">
-        <v>0.0902</v>
+        <v>0.0905</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.2421</v>
+        <v>0.2422</v>
       </c>
       <c r="C204">
-        <v>0.1534</v>
+        <v>0.1533</v>
       </c>
       <c r="D204">
-        <v>0.0887</v>
+        <v>0.08890000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.2418</v>
+        <v>0.2419</v>
       </c>
       <c r="C205">
-        <v>0.1547</v>
+        <v>0.1546</v>
       </c>
       <c r="D205">
-        <v>0.08699999999999999</v>
+        <v>0.0873</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.2407</v>
+        <v>0.2408</v>
       </c>
       <c r="C206">
-        <v>0.1555</v>
+        <v>0.1554</v>
       </c>
       <c r="D206">
-        <v>0.0852</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.2401</v>
+        <v>0.2402</v>
       </c>
       <c r="C207">
-        <v>0.1568</v>
+        <v>0.1567</v>
       </c>
       <c r="D207">
-        <v>0.0833</v>
+        <v>0.08359999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.2395</v>
+        <v>0.2396</v>
       </c>
       <c r="C208">
-        <v>0.1576</v>
+        <v>0.1575</v>
       </c>
       <c r="D208">
-        <v>0.0819</v>
+        <v>0.08210000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.239</v>
+        <v>0.2391</v>
       </c>
       <c r="C209">
-        <v>0.1586</v>
+        <v>0.1584</v>
       </c>
       <c r="D209">
-        <v>0.0805</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.2376</v>
+        <v>0.2377</v>
       </c>
       <c r="C210">
-        <v>0.1588</v>
+        <v>0.1587</v>
       </c>
       <c r="D210">
-        <v>0.0788</v>
+        <v>0.0791</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.2369</v>
+        <v>0.237</v>
       </c>
       <c r="C211">
-        <v>0.1593</v>
+        <v>0.1592</v>
       </c>
       <c r="D211">
-        <v>0.0776</v>
+        <v>0.0779</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.2351</v>
+        <v>0.2352</v>
       </c>
       <c r="C212">
-        <v>0.1587</v>
+        <v>0.1586</v>
       </c>
       <c r="D212">
-        <v>0.0764</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.2339</v>
+        <v>0.234</v>
       </c>
       <c r="C213">
-        <v>0.1583</v>
+        <v>0.1581</v>
       </c>
       <c r="D213">
-        <v>0.0756</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.2326</v>
+        <v>0.2327</v>
       </c>
       <c r="C214">
-        <v>0.1577</v>
+        <v>0.1576</v>
       </c>
       <c r="D214">
-        <v>0.07489999999999999</v>
+        <v>0.0751</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.2308</v>
+        <v>0.2309</v>
       </c>
       <c r="C215">
-        <v>0.1566</v>
+        <v>0.1565</v>
       </c>
       <c r="D215">
-        <v>0.0742</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.2286</v>
+        <v>0.2287</v>
       </c>
       <c r="C216">
-        <v>0.155</v>
+        <v>0.1549</v>
       </c>
       <c r="D216">
-        <v>0.0736</v>
+        <v>0.07389999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.2253</v>
+        <v>0.2254</v>
       </c>
       <c r="C217">
-        <v>0.1522</v>
+        <v>0.1521</v>
       </c>
       <c r="D217">
-        <v>0.0731</v>
+        <v>0.0733</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.2222</v>
+        <v>0.2223</v>
       </c>
       <c r="C218">
-        <v>0.1495</v>
+        <v>0.1494</v>
       </c>
       <c r="D218">
-        <v>0.0727</v>
+        <v>0.07290000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.2193</v>
+        <v>0.2194</v>
       </c>
       <c r="C219">
-        <v>0.1467</v>
+        <v>0.1466</v>
       </c>
       <c r="D219">
-        <v>0.0726</v>
+        <v>0.0728</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.2164</v>
+        <v>0.2165</v>
       </c>
       <c r="C220">
-        <v>0.1436</v>
+        <v>0.1435</v>
       </c>
       <c r="D220">
-        <v>0.0727</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.2137</v>
+        <v>0.2139</v>
       </c>
       <c r="C221">
-        <v>0.1406</v>
+        <v>0.1405</v>
       </c>
       <c r="D221">
-        <v>0.0732</v>
+        <v>0.07340000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.21</v>
+        <v>0.2102</v>
       </c>
       <c r="C222">
-        <v>0.1361</v>
+        <v>0.136</v>
       </c>
       <c r="D222">
-        <v>0.07389999999999999</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.2072</v>
+        <v>0.2073</v>
       </c>
       <c r="C223">
-        <v>0.1322</v>
+        <v>0.1321</v>
       </c>
       <c r="D223">
-        <v>0.07489999999999999</v>
+        <v>0.0752</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.2047</v>
+        <v>0.2048</v>
       </c>
       <c r="C224">
-        <v>0.1281</v>
+        <v>0.128</v>
       </c>
       <c r="D224">
-        <v>0.0766</v>
+        <v>0.07679999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.2017</v>
+        <v>0.2019</v>
       </c>
       <c r="C225">
-        <v>0.1235</v>
+        <v>0.1234</v>
       </c>
       <c r="D225">
-        <v>0.07820000000000001</v>
+        <v>0.0785</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.1994</v>
+        <v>0.1996</v>
       </c>
       <c r="C226">
-        <v>0.1192</v>
+        <v>0.1191</v>
       </c>
       <c r="D226">
-        <v>0.08019999999999999</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.1963</v>
+        <v>0.1965</v>
       </c>
       <c r="C227">
-        <v>0.1141</v>
+        <v>0.114</v>
       </c>
       <c r="D227">
-        <v>0.0822</v>
+        <v>0.0825</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.1931</v>
+        <v>0.1933</v>
       </c>
       <c r="C228">
-        <v>0.1094</v>
+        <v>0.1093</v>
       </c>
       <c r="D228">
-        <v>0.08359999999999999</v>
+        <v>0.0839</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.1899</v>
+        <v>0.1901</v>
       </c>
       <c r="C229">
-        <v>0.1047</v>
+        <v>0.1046</v>
       </c>
       <c r="D229">
-        <v>0.0852</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.1881</v>
+        <v>0.1883</v>
       </c>
       <c r="C230">
-        <v>0.1012</v>
+        <v>0.1011</v>
       </c>
       <c r="D230">
-        <v>0.08690000000000001</v>
+        <v>0.0872</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.1855</v>
+        <v>0.1857</v>
       </c>
       <c r="C231">
-        <v>0.0973</v>
+        <v>0.09719999999999999</v>
       </c>
       <c r="D231">
-        <v>0.0882</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.1839</v>
+        <v>0.1841</v>
       </c>
       <c r="C232">
         <v>0.09420000000000001</v>
       </c>
       <c r="D232">
-        <v>0.0897</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.1817</v>
+        <v>0.1819</v>
       </c>
       <c r="C233">
-        <v>0.0906</v>
+        <v>0.0905</v>
       </c>
       <c r="D233">
-        <v>0.0912</v>
+        <v>0.0915</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.18</v>
+        <v>0.1802</v>
       </c>
       <c r="C234">
         <v>0.0871</v>
       </c>
       <c r="D234">
-        <v>0.0929</v>
+        <v>0.0931</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.1781</v>
+        <v>0.1783</v>
       </c>
       <c r="C235">
-        <v>0.0837</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="D235">
-        <v>0.0944</v>
+        <v>0.09470000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.1766</v>
+        <v>0.1768</v>
       </c>
       <c r="C236">
-        <v>0.0806</v>
+        <v>0.0805</v>
       </c>
       <c r="D236">
-        <v>0.0961</v>
+        <v>0.0964</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.1764</v>
+        <v>0.1766</v>
       </c>
       <c r="C237">
-        <v>0.0781</v>
+        <v>0.078</v>
       </c>
       <c r="D237">
-        <v>0.0983</v>
+        <v>0.0985</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.1769</v>
+        <v>0.1771</v>
       </c>
       <c r="C238">
-        <v>0.076</v>
+        <v>0.0759</v>
       </c>
       <c r="D238">
-        <v>0.1009</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.1785</v>
+        <v>0.1787</v>
       </c>
       <c r="C239">
-        <v>0.07489999999999999</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="D239">
-        <v>0.1036</v>
+        <v>0.1039</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.181</v>
+        <v>0.1812</v>
       </c>
       <c r="C240">
-        <v>0.0746</v>
+        <v>0.0745</v>
       </c>
       <c r="D240">
-        <v>0.1064</v>
+        <v>0.1067</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.1833</v>
+        <v>0.1835</v>
       </c>
       <c r="C241">
         <v>0.07389999999999999</v>
       </c>
       <c r="D241">
-        <v>0.1094</v>
+        <v>0.1097</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.1862</v>
+        <v>0.1864</v>
       </c>
       <c r="C242">
-        <v>0.0741</v>
+        <v>0.074</v>
       </c>
       <c r="D242">
-        <v>0.1121</v>
+        <v>0.1124</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.189</v>
+        <v>0.1892</v>
       </c>
       <c r="C243">
-        <v>0.0741</v>
+        <v>0.074</v>
       </c>
       <c r="D243">
-        <v>0.1149</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.1922</v>
+        <v>0.1924</v>
       </c>
       <c r="C244">
-        <v>0.07480000000000001</v>
+        <v>0.0747</v>
       </c>
       <c r="D244">
-        <v>0.1174</v>
+        <v>0.1177</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.1958</v>
+        <v>0.1961</v>
       </c>
       <c r="C245">
         <v>0.0761</v>
       </c>
       <c r="D245">
-        <v>0.1197</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.1993</v>
+        <v>0.1996</v>
       </c>
       <c r="C246">
-        <v>0.0774</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="D246">
-        <v>0.122</v>
+        <v>0.1223</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.2035</v>
+        <v>0.2037</v>
       </c>
       <c r="C247">
-        <v>0.0789</v>
+        <v>0.0788</v>
       </c>
       <c r="D247">
-        <v>0.1246</v>
+        <v>0.1249</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.208</v>
+        <v>0.2083</v>
       </c>
       <c r="C248">
-        <v>0.0801</v>
+        <v>0.08</v>
       </c>
       <c r="D248">
-        <v>0.1279</v>
+        <v>0.1282</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.2124</v>
+        <v>0.2126</v>
       </c>
       <c r="C249">
-        <v>0.08110000000000001</v>
+        <v>0.081</v>
       </c>
       <c r="D249">
-        <v>0.1313</v>
+        <v>0.1316</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.2164</v>
+        <v>0.2166</v>
       </c>
       <c r="C250">
-        <v>0.0815</v>
+        <v>0.0814</v>
       </c>
       <c r="D250">
-        <v>0.1348</v>
+        <v>0.1352</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.2205</v>
+        <v>0.2208</v>
       </c>
       <c r="C251">
-        <v>0.0819</v>
+        <v>0.0818</v>
       </c>
       <c r="D251">
-        <v>0.1387</v>
+        <v>0.139</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2010 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2010 - Diaria.xlsx
@@ -1158,13 +1158,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3509</v>
+        <v>0.3501</v>
       </c>
       <c r="C2">
-        <v>0.1899</v>
+        <v>0.1897</v>
       </c>
       <c r="D2">
-        <v>0.161</v>
+        <v>0.1604</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3526</v>
+        <v>0.3518</v>
       </c>
       <c r="C3">
-        <v>0.1888</v>
+        <v>0.1886</v>
       </c>
       <c r="D3">
-        <v>0.1639</v>
+        <v>0.1633</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3545</v>
+        <v>0.3537</v>
       </c>
       <c r="C4">
-        <v>0.1873</v>
+        <v>0.1871</v>
       </c>
       <c r="D4">
-        <v>0.1672</v>
+        <v>0.1666</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.357</v>
+        <v>0.3562</v>
       </c>
       <c r="C5">
-        <v>0.1867</v>
+        <v>0.1865</v>
       </c>
       <c r="D5">
-        <v>0.1703</v>
+        <v>0.1697</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3591</v>
+        <v>0.3583</v>
       </c>
       <c r="C6">
-        <v>0.1856</v>
+        <v>0.1854</v>
       </c>
       <c r="D6">
-        <v>0.1735</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3614</v>
+        <v>0.3607</v>
       </c>
       <c r="C7">
-        <v>0.1842</v>
+        <v>0.184</v>
       </c>
       <c r="D7">
-        <v>0.1772</v>
+        <v>0.1767</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.364</v>
+        <v>0.3633</v>
       </c>
       <c r="C8">
-        <v>0.1832</v>
+        <v>0.183</v>
       </c>
       <c r="D8">
-        <v>0.1808</v>
+        <v>0.1803</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3628</v>
+        <v>0.3622</v>
       </c>
       <c r="C9">
-        <v>0.181</v>
+        <v>0.1808</v>
       </c>
       <c r="D9">
-        <v>0.1818</v>
+        <v>0.1814</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3627</v>
+        <v>0.3622</v>
       </c>
       <c r="C10">
-        <v>0.1796</v>
+        <v>0.1794</v>
       </c>
       <c r="D10">
-        <v>0.1831</v>
+        <v>0.1828</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3629</v>
+        <v>0.3624</v>
       </c>
       <c r="C11">
-        <v>0.1781</v>
+        <v>0.1778</v>
       </c>
       <c r="D11">
-        <v>0.1848</v>
+        <v>0.1846</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3631</v>
+        <v>0.3627</v>
       </c>
       <c r="C12">
-        <v>0.1764</v>
+        <v>0.1761</v>
       </c>
       <c r="D12">
-        <v>0.1867</v>
+        <v>0.1865</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3636</v>
+        <v>0.3632</v>
       </c>
       <c r="C13">
-        <v>0.1743</v>
+        <v>0.174</v>
       </c>
       <c r="D13">
-        <v>0.1893</v>
+        <v>0.1891</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3651</v>
+        <v>0.3647</v>
       </c>
       <c r="C14">
-        <v>0.1731</v>
+        <v>0.1729</v>
       </c>
       <c r="D14">
-        <v>0.192</v>
+        <v>0.1918</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3677</v>
+        <v>0.3672</v>
       </c>
       <c r="C15">
-        <v>0.1721</v>
+        <v>0.1718</v>
       </c>
       <c r="D15">
-        <v>0.1956</v>
+        <v>0.1954</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3707</v>
+        <v>0.3703</v>
       </c>
       <c r="C16">
-        <v>0.1716</v>
+        <v>0.1713</v>
       </c>
       <c r="D16">
-        <v>0.1992</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.375</v>
+        <v>0.3746</v>
       </c>
       <c r="C17">
-        <v>0.1721</v>
+        <v>0.1718</v>
       </c>
       <c r="D17">
-        <v>0.203</v>
+        <v>0.2028</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.38</v>
+        <v>0.3795</v>
       </c>
       <c r="C18">
-        <v>0.1732</v>
+        <v>0.1729</v>
       </c>
       <c r="D18">
-        <v>0.2068</v>
+        <v>0.2066</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.3841</v>
+        <v>0.3837</v>
       </c>
       <c r="C19">
-        <v>0.1735</v>
+        <v>0.1732</v>
       </c>
       <c r="D19">
-        <v>0.2106</v>
+        <v>0.2104</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.388</v>
+        <v>0.3875</v>
       </c>
       <c r="C20">
-        <v>0.1747</v>
+        <v>0.1743</v>
       </c>
       <c r="D20">
-        <v>0.2133</v>
+        <v>0.2131</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3914</v>
+        <v>0.391</v>
       </c>
       <c r="C21">
-        <v>0.1755</v>
+        <v>0.1752</v>
       </c>
       <c r="D21">
-        <v>0.2159</v>
+        <v>0.2158</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.3962</v>
+        <v>0.3957</v>
       </c>
       <c r="C22">
-        <v>0.1774</v>
+        <v>0.177</v>
       </c>
       <c r="D22">
-        <v>0.2188</v>
+        <v>0.2186</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.4005</v>
+        <v>0.4</v>
       </c>
       <c r="C23">
-        <v>0.1791</v>
+        <v>0.1787</v>
       </c>
       <c r="D23">
-        <v>0.2215</v>
+        <v>0.2213</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.404</v>
+        <v>0.4035</v>
       </c>
       <c r="C24">
-        <v>0.1803</v>
+        <v>0.18</v>
       </c>
       <c r="D24">
-        <v>0.2237</v>
+        <v>0.2236</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.4084</v>
+        <v>0.408</v>
       </c>
       <c r="C25">
-        <v>0.183</v>
+        <v>0.1827</v>
       </c>
       <c r="D25">
-        <v>0.2254</v>
+        <v>0.2253</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.4117</v>
+        <v>0.4112</v>
       </c>
       <c r="C26">
-        <v>0.1848</v>
+        <v>0.1844</v>
       </c>
       <c r="D26">
-        <v>0.2269</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4139</v>
+        <v>0.4134</v>
       </c>
       <c r="C27">
-        <v>0.1857</v>
+        <v>0.1853</v>
       </c>
       <c r="D27">
-        <v>0.2282</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.4176</v>
+        <v>0.417</v>
       </c>
       <c r="C28">
-        <v>0.1872</v>
+        <v>0.1868</v>
       </c>
       <c r="D28">
-        <v>0.2303</v>
+        <v>0.2302</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.421</v>
+        <v>0.4204</v>
       </c>
       <c r="C29">
-        <v>0.1886</v>
+        <v>0.1882</v>
       </c>
       <c r="D29">
-        <v>0.2324</v>
+        <v>0.2323</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.4236</v>
+        <v>0.423</v>
       </c>
       <c r="C30">
-        <v>0.1893</v>
+        <v>0.1889</v>
       </c>
       <c r="D30">
-        <v>0.2342</v>
+        <v>0.2341</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.427</v>
+        <v>0.4264</v>
       </c>
       <c r="C31">
-        <v>0.1913</v>
+        <v>0.191</v>
       </c>
       <c r="D31">
-        <v>0.2356</v>
+        <v>0.2354</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.4293</v>
+        <v>0.4286</v>
       </c>
       <c r="C32">
-        <v>0.1921</v>
+        <v>0.1918</v>
       </c>
       <c r="D32">
-        <v>0.2371</v>
+        <v>0.2369</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.431</v>
+        <v>0.4304</v>
       </c>
       <c r="C33">
-        <v>0.1935</v>
+        <v>0.1931</v>
       </c>
       <c r="D33">
-        <v>0.2375</v>
+        <v>0.2373</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.4318</v>
+        <v>0.4312</v>
       </c>
       <c r="C34">
-        <v>0.1942</v>
+        <v>0.1938</v>
       </c>
       <c r="D34">
-        <v>0.2376</v>
+        <v>0.2374</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.4328</v>
+        <v>0.4322</v>
       </c>
       <c r="C35">
-        <v>0.1957</v>
+        <v>0.1954</v>
       </c>
       <c r="D35">
-        <v>0.2371</v>
+        <v>0.2369</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.4337</v>
+        <v>0.4331</v>
       </c>
       <c r="C36">
-        <v>0.1969</v>
+        <v>0.1966</v>
       </c>
       <c r="D36">
-        <v>0.2368</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.4337</v>
+        <v>0.4331</v>
       </c>
       <c r="C37">
-        <v>0.1976</v>
+        <v>0.1972</v>
       </c>
       <c r="D37">
-        <v>0.2361</v>
+        <v>0.2359</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.4337</v>
+        <v>0.4331</v>
       </c>
       <c r="C38">
-        <v>0.1983</v>
+        <v>0.198</v>
       </c>
       <c r="D38">
-        <v>0.2354</v>
+        <v>0.2352</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.4336</v>
+        <v>0.4331</v>
       </c>
       <c r="C39">
-        <v>0.1991</v>
+        <v>0.1988</v>
       </c>
       <c r="D39">
-        <v>0.2345</v>
+        <v>0.2342</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.4326</v>
+        <v>0.432</v>
       </c>
       <c r="C40">
-        <v>0.1993</v>
+        <v>0.199</v>
       </c>
       <c r="D40">
-        <v>0.2333</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.4316</v>
+        <v>0.4311</v>
       </c>
       <c r="C41">
-        <v>0.1995</v>
+        <v>0.1993</v>
       </c>
       <c r="D41">
-        <v>0.2321</v>
+        <v>0.2318</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.431</v>
+        <v>0.4304</v>
       </c>
       <c r="C42">
-        <v>0.2003</v>
+        <v>0.2</v>
       </c>
       <c r="D42">
-        <v>0.2307</v>
+        <v>0.2304</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.4298</v>
+        <v>0.4293</v>
       </c>
       <c r="C43">
-        <v>0.2007</v>
+        <v>0.2005</v>
       </c>
       <c r="D43">
-        <v>0.2291</v>
+        <v>0.2288</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.4288</v>
+        <v>0.4283</v>
       </c>
       <c r="C44">
-        <v>0.2011</v>
+        <v>0.2009</v>
       </c>
       <c r="D44">
-        <v>0.2277</v>
+        <v>0.2274</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.4255</v>
+        <v>0.425</v>
       </c>
       <c r="C45">
-        <v>0.1995</v>
+        <v>0.1993</v>
       </c>
       <c r="D45">
-        <v>0.226</v>
+        <v>0.2257</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.4236</v>
+        <v>0.4231</v>
       </c>
       <c r="C46">
-        <v>0.1992</v>
+        <v>0.199</v>
       </c>
       <c r="D46">
-        <v>0.2244</v>
+        <v>0.2241</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.4215</v>
+        <v>0.421</v>
       </c>
       <c r="C47">
-        <v>0.1989</v>
+        <v>0.1987</v>
       </c>
       <c r="D47">
-        <v>0.2226</v>
+        <v>0.2222</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.4181</v>
+        <v>0.4176</v>
       </c>
       <c r="C48">
-        <v>0.1983</v>
+        <v>0.1981</v>
       </c>
       <c r="D48">
-        <v>0.2198</v>
+        <v>0.2195</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.4146</v>
+        <v>0.4141</v>
       </c>
       <c r="C49">
-        <v>0.1977</v>
+        <v>0.1975</v>
       </c>
       <c r="D49">
-        <v>0.2169</v>
+        <v>0.2166</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4127</v>
+        <v>0.4122</v>
       </c>
       <c r="C50">
-        <v>0.197</v>
+        <v>0.1968</v>
       </c>
       <c r="D50">
-        <v>0.2157</v>
+        <v>0.2153</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.4096</v>
+        <v>0.4089</v>
       </c>
       <c r="C51">
-        <v>0.1951</v>
+        <v>0.1949</v>
       </c>
       <c r="D51">
-        <v>0.2145</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4069</v>
+        <v>0.4063</v>
       </c>
       <c r="C52">
-        <v>0.1943</v>
+        <v>0.1941</v>
       </c>
       <c r="D52">
-        <v>0.2126</v>
+        <v>0.2122</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4037</v>
+        <v>0.403</v>
       </c>
       <c r="C53">
-        <v>0.1931</v>
+        <v>0.1929</v>
       </c>
       <c r="D53">
-        <v>0.2106</v>
+        <v>0.2101</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.3995</v>
+        <v>0.3988</v>
       </c>
       <c r="C54">
-        <v>0.1911</v>
+        <v>0.1909</v>
       </c>
       <c r="D54">
-        <v>0.2084</v>
+        <v>0.2079</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3939</v>
+        <v>0.3931</v>
       </c>
       <c r="C55">
-        <v>0.1884</v>
+        <v>0.1882</v>
       </c>
       <c r="D55">
-        <v>0.2055</v>
+        <v>0.2049</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.3869</v>
+        <v>0.3861</v>
       </c>
       <c r="C56">
-        <v>0.1851</v>
+        <v>0.1849</v>
       </c>
       <c r="D56">
-        <v>0.2018</v>
+        <v>0.2012</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.3795</v>
+        <v>0.3787</v>
       </c>
       <c r="C57">
-        <v>0.1816</v>
+        <v>0.1814</v>
       </c>
       <c r="D57">
-        <v>0.1979</v>
+        <v>0.1973</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3719</v>
+        <v>0.371</v>
       </c>
       <c r="C58">
-        <v>0.1781</v>
+        <v>0.1778</v>
       </c>
       <c r="D58">
-        <v>0.1938</v>
+        <v>0.1932</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3638</v>
+        <v>0.3629</v>
       </c>
       <c r="C59">
-        <v>0.1743</v>
+        <v>0.174</v>
       </c>
       <c r="D59">
-        <v>0.1895</v>
+        <v>0.1889</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3539</v>
+        <v>0.353</v>
       </c>
       <c r="C60">
-        <v>0.1692</v>
+        <v>0.1689</v>
       </c>
       <c r="D60">
-        <v>0.1848</v>
+        <v>0.1841</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3438</v>
+        <v>0.3429</v>
       </c>
       <c r="C61">
-        <v>0.1642</v>
+        <v>0.164</v>
       </c>
       <c r="D61">
-        <v>0.1796</v>
+        <v>0.1789</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3326</v>
+        <v>0.3317</v>
       </c>
       <c r="C62">
-        <v>0.1588</v>
+        <v>0.1586</v>
       </c>
       <c r="D62">
-        <v>0.1738</v>
+        <v>0.1731</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3223</v>
+        <v>0.3213</v>
       </c>
       <c r="C63">
-        <v>0.1542</v>
+        <v>0.1539</v>
       </c>
       <c r="D63">
-        <v>0.1681</v>
+        <v>0.1674</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3113</v>
+        <v>0.3103</v>
       </c>
       <c r="C64">
-        <v>0.1493</v>
+        <v>0.149</v>
       </c>
       <c r="D64">
-        <v>0.162</v>
+        <v>0.1613</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3</v>
+        <v>0.299</v>
       </c>
       <c r="C65">
-        <v>0.1442</v>
+        <v>0.144</v>
       </c>
       <c r="D65">
-        <v>0.1558</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.2885</v>
+        <v>0.2874</v>
       </c>
       <c r="C66">
-        <v>0.1391</v>
+        <v>0.1388</v>
       </c>
       <c r="D66">
-        <v>0.1494</v>
+        <v>0.1485</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.2761</v>
+        <v>0.275</v>
       </c>
       <c r="C67">
-        <v>0.1334</v>
+        <v>0.1332</v>
       </c>
       <c r="D67">
-        <v>0.1427</v>
+        <v>0.1419</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.2641</v>
+        <v>0.263</v>
       </c>
       <c r="C68">
-        <v>0.1281</v>
+        <v>0.1278</v>
       </c>
       <c r="D68">
-        <v>0.136</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.2532</v>
+        <v>0.2521</v>
       </c>
       <c r="C69">
-        <v>0.1233</v>
+        <v>0.123</v>
       </c>
       <c r="D69">
-        <v>0.13</v>
+        <v>0.1291</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.2408</v>
+        <v>0.2397</v>
       </c>
       <c r="C70">
-        <v>0.118</v>
+        <v>0.1178</v>
       </c>
       <c r="D70">
-        <v>0.1228</v>
+        <v>0.1219</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.2285</v>
+        <v>0.2274</v>
       </c>
       <c r="C71">
-        <v>0.1131</v>
+        <v>0.1128</v>
       </c>
       <c r="D71">
-        <v>0.1155</v>
+        <v>0.1146</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.2162</v>
+        <v>0.215</v>
       </c>
       <c r="C72">
-        <v>0.1079</v>
+        <v>0.1076</v>
       </c>
       <c r="D72">
-        <v>0.1083</v>
+        <v>0.1074</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.2045</v>
+        <v>0.2034</v>
       </c>
       <c r="C73">
-        <v>0.103</v>
+        <v>0.1027</v>
       </c>
       <c r="D73">
-        <v>0.1015</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.1933</v>
+        <v>0.1921</v>
       </c>
       <c r="C74">
-        <v>0.0985</v>
+        <v>0.0982</v>
       </c>
       <c r="D74">
-        <v>0.0948</v>
+        <v>0.0939</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.1826</v>
+        <v>0.1814</v>
       </c>
       <c r="C75">
-        <v>0.09420000000000001</v>
+        <v>0.0939</v>
       </c>
       <c r="D75">
-        <v>0.08840000000000001</v>
+        <v>0.08749999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.1725</v>
+        <v>0.1713</v>
       </c>
       <c r="C76">
-        <v>0.09039999999999999</v>
+        <v>0.0901</v>
       </c>
       <c r="D76">
-        <v>0.08210000000000001</v>
+        <v>0.08119999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.1627</v>
+        <v>0.1615</v>
       </c>
       <c r="C77">
-        <v>0.0866</v>
+        <v>0.0863</v>
       </c>
       <c r="D77">
-        <v>0.0761</v>
+        <v>0.0752</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.1526</v>
+        <v>0.1514</v>
       </c>
       <c r="C78">
-        <v>0.0825</v>
+        <v>0.0822</v>
       </c>
       <c r="D78">
-        <v>0.0701</v>
+        <v>0.0692</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.1441</v>
+        <v>0.1429</v>
       </c>
       <c r="C79">
-        <v>0.0795</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="D79">
-        <v>0.0646</v>
+        <v>0.06370000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.1372</v>
+        <v>0.1359</v>
       </c>
       <c r="C80">
-        <v>0.0774</v>
+        <v>0.077</v>
       </c>
       <c r="D80">
-        <v>0.0598</v>
+        <v>0.0589</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.1304</v>
+        <v>0.1291</v>
       </c>
       <c r="C81">
-        <v>0.0751</v>
+        <v>0.0747</v>
       </c>
       <c r="D81">
-        <v>0.0553</v>
+        <v>0.0544</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.1229</v>
+        <v>0.1216</v>
       </c>
       <c r="C82">
-        <v>0.07190000000000001</v>
+        <v>0.0716</v>
       </c>
       <c r="D82">
-        <v>0.051</v>
+        <v>0.0501</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.1152</v>
+        <v>0.1139</v>
       </c>
       <c r="C83">
-        <v>0.0683</v>
+        <v>0.0679</v>
       </c>
       <c r="D83">
-        <v>0.0468</v>
+        <v>0.0459</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.1074</v>
+        <v>0.1061</v>
       </c>
       <c r="C84">
-        <v>0.0644</v>
+        <v>0.064</v>
       </c>
       <c r="D84">
-        <v>0.0429</v>
+        <v>0.0421</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.1006</v>
+        <v>0.0993</v>
       </c>
       <c r="C85">
-        <v>0.0609</v>
+        <v>0.0605</v>
       </c>
       <c r="D85">
-        <v>0.0397</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.094</v>
+        <v>0.0927</v>
       </c>
       <c r="C86">
-        <v>0.0571</v>
+        <v>0.0567</v>
       </c>
       <c r="D86">
-        <v>0.0369</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.0887</v>
+        <v>0.0873</v>
       </c>
       <c r="C87">
-        <v>0.054</v>
+        <v>0.0535</v>
       </c>
       <c r="D87">
-        <v>0.0347</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.08400000000000001</v>
+        <v>0.0827</v>
       </c>
       <c r="C88">
-        <v>0.0513</v>
+        <v>0.0508</v>
       </c>
       <c r="D88">
-        <v>0.0327</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.0793</v>
+        <v>0.078</v>
       </c>
       <c r="C89">
-        <v>0.0489</v>
+        <v>0.0484</v>
       </c>
       <c r="D89">
-        <v>0.0305</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.07530000000000001</v>
+        <v>0.074</v>
       </c>
       <c r="C90">
-        <v>0.0473</v>
+        <v>0.0468</v>
       </c>
       <c r="D90">
-        <v>0.028</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.0733</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C91">
-        <v>0.0469</v>
+        <v>0.0464</v>
       </c>
       <c r="D91">
-        <v>0.0264</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.0718</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="C92">
-        <v>0.0466</v>
+        <v>0.0461</v>
       </c>
       <c r="D92">
-        <v>0.0252</v>
+        <v>0.0244</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.07149999999999999</v>
+        <v>0.0701</v>
       </c>
       <c r="C93">
-        <v>0.0472</v>
+        <v>0.0466</v>
       </c>
       <c r="D93">
-        <v>0.0243</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.0716</v>
+        <v>0.0703</v>
       </c>
       <c r="C94">
-        <v>0.0479</v>
+        <v>0.0474</v>
       </c>
       <c r="D94">
-        <v>0.0238</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.0721</v>
+        <v>0.0708</v>
       </c>
       <c r="C95">
-        <v>0.0488</v>
+        <v>0.0483</v>
       </c>
       <c r="D95">
-        <v>0.0233</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.07340000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C96">
-        <v>0.0503</v>
+        <v>0.0497</v>
       </c>
       <c r="D96">
-        <v>0.0232</v>
+        <v>0.0223</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.07580000000000001</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="C97">
-        <v>0.0525</v>
+        <v>0.0519</v>
       </c>
       <c r="D97">
-        <v>0.0233</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.078</v>
+        <v>0.0766</v>
       </c>
       <c r="C98">
-        <v>0.0544</v>
+        <v>0.0539</v>
       </c>
       <c r="D98">
-        <v>0.0236</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.0803</v>
+        <v>0.0789</v>
       </c>
       <c r="C99">
-        <v>0.0562</v>
+        <v>0.0556</v>
       </c>
       <c r="D99">
-        <v>0.0241</v>
+        <v>0.0232</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.0838</v>
+        <v>0.0823</v>
       </c>
       <c r="C100">
-        <v>0.0586</v>
+        <v>0.058</v>
       </c>
       <c r="D100">
-        <v>0.0252</v>
+        <v>0.0243</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.0877</v>
+        <v>0.0862</v>
       </c>
       <c r="C101">
-        <v>0.0612</v>
+        <v>0.0606</v>
       </c>
       <c r="D101">
-        <v>0.0265</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.09420000000000001</v>
+        <v>0.0927</v>
       </c>
       <c r="C102">
-        <v>0.06519999999999999</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="D102">
-        <v>0.029</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.1014</v>
+        <v>0.0999</v>
       </c>
       <c r="C103">
-        <v>0.0697</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="D103">
-        <v>0.0317</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.1092</v>
+        <v>0.1077</v>
       </c>
       <c r="C104">
-        <v>0.0747</v>
+        <v>0.0742</v>
       </c>
       <c r="D104">
-        <v>0.0345</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.1164</v>
+        <v>0.1149</v>
       </c>
       <c r="C105">
-        <v>0.07920000000000001</v>
+        <v>0.0786</v>
       </c>
       <c r="D105">
-        <v>0.0372</v>
+        <v>0.0362</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.1235</v>
+        <v>0.122</v>
       </c>
       <c r="C106">
-        <v>0.08359999999999999</v>
+        <v>0.08309999999999999</v>
       </c>
       <c r="D106">
-        <v>0.0399</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.1298</v>
+        <v>0.1283</v>
       </c>
       <c r="C107">
-        <v>0.08749999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D107">
-        <v>0.0423</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.1352</v>
+        <v>0.1337</v>
       </c>
       <c r="C108">
-        <v>0.09080000000000001</v>
+        <v>0.09030000000000001</v>
       </c>
       <c r="D108">
-        <v>0.0444</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.1394</v>
+        <v>0.1379</v>
       </c>
       <c r="C109">
-        <v>0.0931</v>
+        <v>0.0926</v>
       </c>
       <c r="D109">
-        <v>0.0463</v>
+        <v>0.0452</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.1429</v>
+        <v>0.1414</v>
       </c>
       <c r="C110">
-        <v>0.0948</v>
+        <v>0.0944</v>
       </c>
       <c r="D110">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.1448</v>
+        <v>0.1434</v>
       </c>
       <c r="C111">
-        <v>0.0954</v>
+        <v>0.095</v>
       </c>
       <c r="D111">
-        <v>0.0494</v>
+        <v>0.0484</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.1464</v>
+        <v>0.145</v>
       </c>
       <c r="C112">
-        <v>0.09569999999999999</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="D112">
-        <v>0.0508</v>
+        <v>0.0498</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.1481</v>
+        <v>0.1467</v>
       </c>
       <c r="C113">
-        <v>0.0961</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="D113">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.1499</v>
+        <v>0.1486</v>
       </c>
       <c r="C114">
-        <v>0.09669999999999999</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="D114">
-        <v>0.0533</v>
+        <v>0.0523</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.1518</v>
+        <v>0.1504</v>
       </c>
       <c r="C115">
-        <v>0.097</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="D115">
-        <v>0.0548</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.1529</v>
+        <v>0.1515</v>
       </c>
       <c r="C116">
-        <v>0.09660000000000001</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="D116">
-        <v>0.0563</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.1538</v>
+        <v>0.1525</v>
       </c>
       <c r="C117">
-        <v>0.0958</v>
+        <v>0.0955</v>
       </c>
       <c r="D117">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.1555</v>
+        <v>0.1542</v>
       </c>
       <c r="C118">
-        <v>0.0953</v>
+        <v>0.095</v>
       </c>
       <c r="D118">
-        <v>0.0602</v>
+        <v>0.0592</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.1571</v>
+        <v>0.1558</v>
       </c>
       <c r="C119">
-        <v>0.0948</v>
+        <v>0.0945</v>
       </c>
       <c r="D119">
-        <v>0.0623</v>
+        <v>0.0613</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.1578</v>
+        <v>0.1565</v>
       </c>
       <c r="C120">
-        <v>0.09420000000000001</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="D120">
-        <v>0.0636</v>
+        <v>0.06270000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.1588</v>
+        <v>0.1576</v>
       </c>
       <c r="C121">
-        <v>0.09370000000000001</v>
+        <v>0.0934</v>
       </c>
       <c r="D121">
-        <v>0.06510000000000001</v>
+        <v>0.06419999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.1581</v>
+        <v>0.1569</v>
       </c>
       <c r="C122">
-        <v>0.0924</v>
+        <v>0.0921</v>
       </c>
       <c r="D122">
-        <v>0.06569999999999999</v>
+        <v>0.06469999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.1576</v>
+        <v>0.1564</v>
       </c>
       <c r="C123">
-        <v>0.0911</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="D123">
-        <v>0.0665</v>
+        <v>0.06560000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.1578</v>
+        <v>0.1566</v>
       </c>
       <c r="C124">
-        <v>0.09039999999999999</v>
+        <v>0.0901</v>
       </c>
       <c r="D124">
-        <v>0.0674</v>
+        <v>0.0665</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.1581</v>
+        <v>0.1569</v>
       </c>
       <c r="C125">
-        <v>0.09</v>
+        <v>0.0898</v>
       </c>
       <c r="D125">
-        <v>0.06809999999999999</v>
+        <v>0.0672</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.1599</v>
+        <v>0.1588</v>
       </c>
       <c r="C126">
-        <v>0.09089999999999999</v>
+        <v>0.0906</v>
       </c>
       <c r="D126">
-        <v>0.06909999999999999</v>
+        <v>0.0682</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.1625</v>
+        <v>0.1613</v>
       </c>
       <c r="C127">
-        <v>0.0922</v>
+        <v>0.0919</v>
       </c>
       <c r="D127">
-        <v>0.0703</v>
+        <v>0.0694</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.1657</v>
+        <v>0.1645</v>
       </c>
       <c r="C128">
-        <v>0.0936</v>
+        <v>0.0934</v>
       </c>
       <c r="D128">
-        <v>0.07199999999999999</v>
+        <v>0.0711</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.17</v>
+        <v>0.1688</v>
       </c>
       <c r="C129">
-        <v>0.09569999999999999</v>
+        <v>0.0955</v>
       </c>
       <c r="D129">
-        <v>0.0743</v>
+        <v>0.0733</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.1742</v>
+        <v>0.173</v>
       </c>
       <c r="C130">
-        <v>0.0978</v>
+        <v>0.0975</v>
       </c>
       <c r="D130">
-        <v>0.0764</v>
+        <v>0.0755</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.1781</v>
+        <v>0.1769</v>
       </c>
       <c r="C131">
-        <v>0.09959999999999999</v>
+        <v>0.0994</v>
       </c>
       <c r="D131">
-        <v>0.0785</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.1825</v>
+        <v>0.1813</v>
       </c>
       <c r="C132">
-        <v>0.1021</v>
+        <v>0.1019</v>
       </c>
       <c r="D132">
-        <v>0.0804</v>
+        <v>0.0794</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.187</v>
+        <v>0.1858</v>
       </c>
       <c r="C133">
-        <v>0.1048</v>
+        <v>0.1045</v>
       </c>
       <c r="D133">
-        <v>0.0823</v>
+        <v>0.0813</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.1917</v>
+        <v>0.1905</v>
       </c>
       <c r="C134">
-        <v>0.1077</v>
+        <v>0.1074</v>
       </c>
       <c r="D134">
-        <v>0.08409999999999999</v>
+        <v>0.08309999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.1966</v>
+        <v>0.1954</v>
       </c>
       <c r="C135">
-        <v>0.1107</v>
+        <v>0.1105</v>
       </c>
       <c r="D135">
-        <v>0.0859</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.2012</v>
+        <v>0.2</v>
       </c>
       <c r="C136">
-        <v>0.1136</v>
+        <v>0.1134</v>
       </c>
       <c r="D136">
-        <v>0.0876</v>
+        <v>0.0866</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.2056</v>
+        <v>0.2043</v>
       </c>
       <c r="C137">
-        <v>0.1165</v>
+        <v>0.1163</v>
       </c>
       <c r="D137">
-        <v>0.0891</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.2096</v>
+        <v>0.2083</v>
       </c>
       <c r="C138">
-        <v>0.1195</v>
+        <v>0.1192</v>
       </c>
       <c r="D138">
-        <v>0.0901</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.2128</v>
+        <v>0.2116</v>
       </c>
       <c r="C139">
-        <v>0.1218</v>
+        <v>0.1216</v>
       </c>
       <c r="D139">
-        <v>0.091</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.2164</v>
+        <v>0.2151</v>
       </c>
       <c r="C140">
-        <v>0.1242</v>
+        <v>0.124</v>
       </c>
       <c r="D140">
-        <v>0.0922</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.2196</v>
+        <v>0.2183</v>
       </c>
       <c r="C141">
-        <v>0.1263</v>
+        <v>0.126</v>
       </c>
       <c r="D141">
-        <v>0.09329999999999999</v>
+        <v>0.09229999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.2233</v>
+        <v>0.2219</v>
       </c>
       <c r="C142">
-        <v>0.1288</v>
+        <v>0.1286</v>
       </c>
       <c r="D142">
-        <v>0.0945</v>
+        <v>0.0934</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.2263</v>
+        <v>0.2249</v>
       </c>
       <c r="C143">
-        <v>0.1308</v>
+        <v>0.1306</v>
       </c>
       <c r="D143">
-        <v>0.0955</v>
+        <v>0.09429999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.2287</v>
+        <v>0.2273</v>
       </c>
       <c r="C144">
-        <v>0.1321</v>
+        <v>0.1319</v>
       </c>
       <c r="D144">
-        <v>0.0965</v>
+        <v>0.0954</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.2318</v>
+        <v>0.2303</v>
       </c>
       <c r="C145">
-        <v>0.1337</v>
+        <v>0.1335</v>
       </c>
       <c r="D145">
-        <v>0.098</v>
+        <v>0.0969</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.2347</v>
+        <v>0.2333</v>
       </c>
       <c r="C146">
-        <v>0.1346</v>
+        <v>0.1343</v>
       </c>
       <c r="D146">
-        <v>0.1002</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.2374</v>
+        <v>0.2359</v>
       </c>
       <c r="C147">
-        <v>0.1347</v>
+        <v>0.1344</v>
       </c>
       <c r="D147">
-        <v>0.1027</v>
+        <v>0.1014</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.24</v>
+        <v>0.2385</v>
       </c>
       <c r="C148">
-        <v>0.1348</v>
+        <v>0.1345</v>
       </c>
       <c r="D148">
-        <v>0.1053</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.2425</v>
+        <v>0.241</v>
       </c>
       <c r="C149">
-        <v>0.1348</v>
+        <v>0.1346</v>
       </c>
       <c r="D149">
-        <v>0.1077</v>
+        <v>0.1064</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.2452</v>
+        <v>0.2436</v>
       </c>
       <c r="C150">
-        <v>0.135</v>
+        <v>0.1348</v>
       </c>
       <c r="D150">
-        <v>0.1102</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.2484</v>
+        <v>0.2468</v>
       </c>
       <c r="C151">
-        <v>0.1356</v>
+        <v>0.1353</v>
       </c>
       <c r="D151">
-        <v>0.1128</v>
+        <v>0.1115</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.2522</v>
+        <v>0.2506</v>
       </c>
       <c r="C152">
-        <v>0.1367</v>
+        <v>0.1364</v>
       </c>
       <c r="D152">
-        <v>0.1155</v>
+        <v>0.1142</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2545</v>
+        <v>0.2529</v>
       </c>
       <c r="C153">
-        <v>0.1365</v>
+        <v>0.1362</v>
       </c>
       <c r="D153">
-        <v>0.118</v>
+        <v>0.1167</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.2567</v>
+        <v>0.2551</v>
       </c>
       <c r="C154">
-        <v>0.1364</v>
+        <v>0.1361</v>
       </c>
       <c r="D154">
-        <v>0.1204</v>
+        <v>0.1191</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.259</v>
+        <v>0.2574</v>
       </c>
       <c r="C155">
-        <v>0.1362</v>
+        <v>0.1359</v>
       </c>
       <c r="D155">
-        <v>0.1228</v>
+        <v>0.1215</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.2621</v>
+        <v>0.2604</v>
       </c>
       <c r="C156">
-        <v>0.1367</v>
+        <v>0.1364</v>
       </c>
       <c r="D156">
-        <v>0.1254</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.2651</v>
+        <v>0.2634</v>
       </c>
       <c r="C157">
-        <v>0.1372</v>
+        <v>0.1369</v>
       </c>
       <c r="D157">
-        <v>0.1278</v>
+        <v>0.1265</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.2688</v>
+        <v>0.2672</v>
       </c>
       <c r="C158">
-        <v>0.1386</v>
+        <v>0.1383</v>
       </c>
       <c r="D158">
-        <v>0.1301</v>
+        <v>0.1289</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.2731</v>
+        <v>0.2715</v>
       </c>
       <c r="C159">
-        <v>0.141</v>
+        <v>0.1406</v>
       </c>
       <c r="D159">
-        <v>0.1322</v>
+        <v>0.1309</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.2764</v>
+        <v>0.2749</v>
       </c>
       <c r="C160">
-        <v>0.1427</v>
+        <v>0.1424</v>
       </c>
       <c r="D160">
-        <v>0.1337</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.2803</v>
+        <v>0.2787</v>
       </c>
       <c r="C161">
-        <v>0.1448</v>
+        <v>0.1444</v>
       </c>
       <c r="D161">
-        <v>0.1355</v>
+        <v>0.1343</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.2842</v>
+        <v>0.2826</v>
       </c>
       <c r="C162">
-        <v>0.1469</v>
+        <v>0.1466</v>
       </c>
       <c r="D162">
-        <v>0.1372</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.2874</v>
+        <v>0.2859</v>
       </c>
       <c r="C163">
-        <v>0.1491</v>
+        <v>0.1487</v>
       </c>
       <c r="D163">
-        <v>0.1383</v>
+        <v>0.1372</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.2903</v>
+        <v>0.2889</v>
       </c>
       <c r="C164">
-        <v>0.1513</v>
+        <v>0.151</v>
       </c>
       <c r="D164">
-        <v>0.139</v>
+        <v>0.1379</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.2921</v>
+        <v>0.2907</v>
       </c>
       <c r="C165">
-        <v>0.1529</v>
+        <v>0.1526</v>
       </c>
       <c r="D165">
-        <v>0.1392</v>
+        <v>0.1381</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.2931</v>
+        <v>0.2917</v>
       </c>
       <c r="C166">
-        <v>0.1547</v>
+        <v>0.1543</v>
       </c>
       <c r="D166">
-        <v>0.1384</v>
+        <v>0.1374</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.2941</v>
+        <v>0.2928</v>
       </c>
       <c r="C167">
-        <v>0.1573</v>
+        <v>0.1569</v>
       </c>
       <c r="D167">
-        <v>0.1369</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.2947</v>
+        <v>0.2934</v>
       </c>
       <c r="C168">
-        <v>0.1601</v>
+        <v>0.1598</v>
       </c>
       <c r="D168">
-        <v>0.1346</v>
+        <v>0.1336</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3496,13 +3496,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.2947</v>
+        <v>0.2934</v>
       </c>
       <c r="C169">
-        <v>0.1625</v>
+        <v>0.1622</v>
       </c>
       <c r="D169">
-        <v>0.1322</v>
+        <v>0.1312</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.2952</v>
+        <v>0.2939</v>
       </c>
       <c r="C170">
-        <v>0.1647</v>
+        <v>0.1644</v>
       </c>
       <c r="D170">
-        <v>0.1304</v>
+        <v>0.1295</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.2957</v>
+        <v>0.2944</v>
       </c>
       <c r="C171">
-        <v>0.1674</v>
+        <v>0.167</v>
       </c>
       <c r="D171">
-        <v>0.1283</v>
+        <v>0.1274</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.2949</v>
+        <v>0.2936</v>
       </c>
       <c r="C172">
-        <v>0.1689</v>
+        <v>0.1686</v>
       </c>
       <c r="D172">
-        <v>0.126</v>
+        <v>0.1251</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.2946</v>
+        <v>0.2933</v>
       </c>
       <c r="C173">
-        <v>0.171</v>
+        <v>0.1706</v>
       </c>
       <c r="D173">
-        <v>0.1236</v>
+        <v>0.1226</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.2936</v>
+        <v>0.2923</v>
       </c>
       <c r="C174">
-        <v>0.1725</v>
+        <v>0.1722</v>
       </c>
       <c r="D174">
-        <v>0.121</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.2926</v>
+        <v>0.2913</v>
       </c>
       <c r="C175">
-        <v>0.1741</v>
+        <v>0.1737</v>
       </c>
       <c r="D175">
-        <v>0.1185</v>
+        <v>0.1176</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.2908</v>
+        <v>0.2896</v>
       </c>
       <c r="C176">
-        <v>0.175</v>
+        <v>0.1746</v>
       </c>
       <c r="D176">
-        <v>0.1158</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2894</v>
+        <v>0.2881</v>
       </c>
       <c r="C177">
-        <v>0.1754</v>
+        <v>0.175</v>
       </c>
       <c r="D177">
-        <v>0.114</v>
+        <v>0.1131</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.2866</v>
+        <v>0.2853</v>
       </c>
       <c r="C178">
-        <v>0.1746</v>
+        <v>0.1742</v>
       </c>
       <c r="D178">
-        <v>0.112</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.283</v>
+        <v>0.2817</v>
       </c>
       <c r="C179">
-        <v>0.1728</v>
+        <v>0.1724</v>
       </c>
       <c r="D179">
-        <v>0.1102</v>
+        <v>0.1093</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.2798</v>
+        <v>0.2785</v>
       </c>
       <c r="C180">
-        <v>0.1713</v>
+        <v>0.1709</v>
       </c>
       <c r="D180">
-        <v>0.1085</v>
+        <v>0.1075</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.2757</v>
+        <v>0.2745</v>
       </c>
       <c r="C181">
-        <v>0.1694</v>
+        <v>0.1691</v>
       </c>
       <c r="D181">
-        <v>0.1063</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.2712</v>
+        <v>0.2699</v>
       </c>
       <c r="C182">
-        <v>0.167</v>
+        <v>0.1666</v>
       </c>
       <c r="D182">
-        <v>0.1042</v>
+        <v>0.1033</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.2665</v>
+        <v>0.2653</v>
       </c>
       <c r="C183">
-        <v>0.1643</v>
+        <v>0.1639</v>
       </c>
       <c r="D183">
-        <v>0.1023</v>
+        <v>0.1014</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.2623</v>
+        <v>0.2611</v>
       </c>
       <c r="C184">
-        <v>0.1614</v>
+        <v>0.1611</v>
       </c>
       <c r="D184">
-        <v>0.1009</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.2588</v>
+        <v>0.2576</v>
       </c>
       <c r="C185">
-        <v>0.159</v>
+        <v>0.1587</v>
       </c>
       <c r="D185">
-        <v>0.0998</v>
+        <v>0.0989</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.2554</v>
+        <v>0.2542</v>
       </c>
       <c r="C186">
-        <v>0.1566</v>
+        <v>0.1563</v>
       </c>
       <c r="D186">
-        <v>0.0988</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.252</v>
+        <v>0.2508</v>
       </c>
       <c r="C187">
-        <v>0.1538</v>
+        <v>0.1535</v>
       </c>
       <c r="D187">
-        <v>0.0982</v>
+        <v>0.0974</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.2487</v>
+        <v>0.2475</v>
       </c>
       <c r="C188">
-        <v>0.1509</v>
+        <v>0.1505</v>
       </c>
       <c r="D188">
-        <v>0.0979</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.2456</v>
+        <v>0.2445</v>
       </c>
       <c r="C189">
-        <v>0.1481</v>
+        <v>0.1478</v>
       </c>
       <c r="D189">
-        <v>0.0975</v>
+        <v>0.09669999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.2429</v>
+        <v>0.2417</v>
       </c>
       <c r="C190">
-        <v>0.146</v>
+        <v>0.1457</v>
       </c>
       <c r="D190">
-        <v>0.0968</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.2399</v>
+        <v>0.2388</v>
       </c>
       <c r="C191">
-        <v>0.1435</v>
+        <v>0.1431</v>
       </c>
       <c r="D191">
-        <v>0.0965</v>
+        <v>0.0956</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.2381</v>
+        <v>0.2369</v>
       </c>
       <c r="C192">
-        <v>0.1418</v>
+        <v>0.1415</v>
       </c>
       <c r="D192">
-        <v>0.0963</v>
+        <v>0.0955</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.2371</v>
+        <v>0.236</v>
       </c>
       <c r="C193">
-        <v>0.1409</v>
+        <v>0.1406</v>
       </c>
       <c r="D193">
-        <v>0.09619999999999999</v>
+        <v>0.0954</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.2367</v>
+        <v>0.2355</v>
       </c>
       <c r="C194">
-        <v>0.1405</v>
+        <v>0.1401</v>
       </c>
       <c r="D194">
-        <v>0.09619999999999999</v>
+        <v>0.0954</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.2366</v>
+        <v>0.2354</v>
       </c>
       <c r="C195">
-        <v>0.1403</v>
+        <v>0.1399</v>
       </c>
       <c r="D195">
-        <v>0.0963</v>
+        <v>0.0955</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.2372</v>
+        <v>0.236</v>
       </c>
       <c r="C196">
-        <v>0.1409</v>
+        <v>0.1405</v>
       </c>
       <c r="D196">
-        <v>0.0964</v>
+        <v>0.0955</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.2386</v>
+        <v>0.2373</v>
       </c>
       <c r="C197">
-        <v>0.1428</v>
+        <v>0.1424</v>
       </c>
       <c r="D197">
-        <v>0.0958</v>
+        <v>0.0949</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.24</v>
+        <v>0.2387</v>
       </c>
       <c r="C198">
-        <v>0.1447</v>
+        <v>0.1443</v>
       </c>
       <c r="D198">
-        <v>0.09520000000000001</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.2409</v>
+        <v>0.2396</v>
       </c>
       <c r="C199">
-        <v>0.1463</v>
+        <v>0.1459</v>
       </c>
       <c r="D199">
-        <v>0.0946</v>
+        <v>0.09370000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.241</v>
+        <v>0.2397</v>
       </c>
       <c r="C200">
-        <v>0.1472</v>
+        <v>0.1469</v>
       </c>
       <c r="D200">
-        <v>0.09370000000000001</v>
+        <v>0.0929</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.2414</v>
+        <v>0.2401</v>
       </c>
       <c r="C201">
-        <v>0.1486</v>
+        <v>0.1482</v>
       </c>
       <c r="D201">
-        <v>0.09279999999999999</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.242</v>
+        <v>0.2406</v>
       </c>
       <c r="C202">
-        <v>0.1503</v>
+        <v>0.1499</v>
       </c>
       <c r="D202">
-        <v>0.0917</v>
+        <v>0.0907</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.2424</v>
+        <v>0.2411</v>
       </c>
       <c r="C203">
-        <v>0.152</v>
+        <v>0.1516</v>
       </c>
       <c r="D203">
-        <v>0.0905</v>
+        <v>0.0895</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.2422</v>
+        <v>0.2408</v>
       </c>
       <c r="C204">
-        <v>0.1533</v>
+        <v>0.1529</v>
       </c>
       <c r="D204">
-        <v>0.08890000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.2419</v>
+        <v>0.2405</v>
       </c>
       <c r="C205">
-        <v>0.1546</v>
+        <v>0.1542</v>
       </c>
       <c r="D205">
-        <v>0.0873</v>
+        <v>0.0863</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.2408</v>
+        <v>0.2394</v>
       </c>
       <c r="C206">
-        <v>0.1554</v>
+        <v>0.155</v>
       </c>
       <c r="D206">
-        <v>0.08550000000000001</v>
+        <v>0.08450000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.2402</v>
+        <v>0.2388</v>
       </c>
       <c r="C207">
-        <v>0.1567</v>
+        <v>0.1563</v>
       </c>
       <c r="D207">
-        <v>0.08359999999999999</v>
+        <v>0.0825</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.2396</v>
+        <v>0.2382</v>
       </c>
       <c r="C208">
-        <v>0.1575</v>
+        <v>0.1571</v>
       </c>
       <c r="D208">
-        <v>0.08210000000000001</v>
+        <v>0.08110000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.2391</v>
+        <v>0.2376</v>
       </c>
       <c r="C209">
-        <v>0.1584</v>
+        <v>0.158</v>
       </c>
       <c r="D209">
-        <v>0.08069999999999999</v>
+        <v>0.0796</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.2377</v>
+        <v>0.2362</v>
       </c>
       <c r="C210">
-        <v>0.1587</v>
+        <v>0.1582</v>
       </c>
       <c r="D210">
-        <v>0.0791</v>
+        <v>0.0779</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.237</v>
+        <v>0.2354</v>
       </c>
       <c r="C211">
-        <v>0.1592</v>
+        <v>0.1587</v>
       </c>
       <c r="D211">
-        <v>0.0779</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.2352</v>
+        <v>0.2336</v>
       </c>
       <c r="C212">
-        <v>0.1586</v>
+        <v>0.1581</v>
       </c>
       <c r="D212">
-        <v>0.0767</v>
+        <v>0.0755</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.234</v>
+        <v>0.2324</v>
       </c>
       <c r="C213">
-        <v>0.1581</v>
+        <v>0.1577</v>
       </c>
       <c r="D213">
-        <v>0.0759</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.2327</v>
+        <v>0.231</v>
       </c>
       <c r="C214">
-        <v>0.1576</v>
+        <v>0.1571</v>
       </c>
       <c r="D214">
-        <v>0.0751</v>
+        <v>0.07389999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.2309</v>
+        <v>0.2293</v>
       </c>
       <c r="C215">
-        <v>0.1565</v>
+        <v>0.156</v>
       </c>
       <c r="D215">
-        <v>0.0745</v>
+        <v>0.0732</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.2287</v>
+        <v>0.2271</v>
       </c>
       <c r="C216">
-        <v>0.1549</v>
+        <v>0.1544</v>
       </c>
       <c r="D216">
-        <v>0.07389999999999999</v>
+        <v>0.0726</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.2254</v>
+        <v>0.2237</v>
       </c>
       <c r="C217">
-        <v>0.1521</v>
+        <v>0.1516</v>
       </c>
       <c r="D217">
-        <v>0.0733</v>
+        <v>0.0721</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.2223</v>
+        <v>0.2206</v>
       </c>
       <c r="C218">
-        <v>0.1494</v>
+        <v>0.149</v>
       </c>
       <c r="D218">
-        <v>0.07290000000000001</v>
+        <v>0.0717</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.2194</v>
+        <v>0.2177</v>
       </c>
       <c r="C219">
-        <v>0.1466</v>
+        <v>0.1462</v>
       </c>
       <c r="D219">
-        <v>0.0728</v>
+        <v>0.07149999999999999</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.2165</v>
+        <v>0.2148</v>
       </c>
       <c r="C220">
-        <v>0.1435</v>
+        <v>0.1431</v>
       </c>
       <c r="D220">
-        <v>0.073</v>
+        <v>0.0717</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.2139</v>
+        <v>0.2122</v>
       </c>
       <c r="C221">
-        <v>0.1405</v>
+        <v>0.14</v>
       </c>
       <c r="D221">
-        <v>0.07340000000000001</v>
+        <v>0.0722</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.2102</v>
+        <v>0.2085</v>
       </c>
       <c r="C222">
-        <v>0.136</v>
+        <v>0.1356</v>
       </c>
       <c r="D222">
-        <v>0.0741</v>
+        <v>0.07290000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.2073</v>
+        <v>0.2056</v>
       </c>
       <c r="C223">
-        <v>0.1321</v>
+        <v>0.1317</v>
       </c>
       <c r="D223">
-        <v>0.0752</v>
+        <v>0.07389999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.2048</v>
+        <v>0.2032</v>
       </c>
       <c r="C224">
-        <v>0.128</v>
+        <v>0.1276</v>
       </c>
       <c r="D224">
-        <v>0.07679999999999999</v>
+        <v>0.0756</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.2019</v>
+        <v>0.2002</v>
       </c>
       <c r="C225">
-        <v>0.1234</v>
+        <v>0.123</v>
       </c>
       <c r="D225">
-        <v>0.0785</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.1996</v>
+        <v>0.1979</v>
       </c>
       <c r="C226">
-        <v>0.1191</v>
+        <v>0.1188</v>
       </c>
       <c r="D226">
-        <v>0.0804</v>
+        <v>0.0791</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.1965</v>
+        <v>0.1948</v>
       </c>
       <c r="C227">
-        <v>0.114</v>
+        <v>0.1136</v>
       </c>
       <c r="D227">
-        <v>0.0825</v>
+        <v>0.08119999999999999</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.1933</v>
+        <v>0.1916</v>
       </c>
       <c r="C228">
-        <v>0.1093</v>
+        <v>0.109</v>
       </c>
       <c r="D228">
-        <v>0.0839</v>
+        <v>0.08260000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.1901</v>
+        <v>0.1885</v>
       </c>
       <c r="C229">
-        <v>0.1046</v>
+        <v>0.1043</v>
       </c>
       <c r="D229">
-        <v>0.08550000000000001</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.1883</v>
+        <v>0.1867</v>
       </c>
       <c r="C230">
-        <v>0.1011</v>
+        <v>0.1008</v>
       </c>
       <c r="D230">
-        <v>0.0872</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.1857</v>
+        <v>0.1841</v>
       </c>
       <c r="C231">
-        <v>0.09719999999999999</v>
+        <v>0.0969</v>
       </c>
       <c r="D231">
-        <v>0.0885</v>
+        <v>0.0872</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.1841</v>
+        <v>0.1826</v>
       </c>
       <c r="C232">
-        <v>0.09420000000000001</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="D232">
-        <v>0.09</v>
+        <v>0.0887</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.1819</v>
+        <v>0.1804</v>
       </c>
       <c r="C233">
-        <v>0.0905</v>
+        <v>0.0902</v>
       </c>
       <c r="D233">
-        <v>0.0915</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.1802</v>
+        <v>0.1786</v>
       </c>
       <c r="C234">
-        <v>0.0871</v>
+        <v>0.0868</v>
       </c>
       <c r="D234">
-        <v>0.0931</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.1783</v>
+        <v>0.1767</v>
       </c>
       <c r="C235">
-        <v>0.08359999999999999</v>
+        <v>0.0833</v>
       </c>
       <c r="D235">
-        <v>0.09470000000000001</v>
+        <v>0.0934</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.1768</v>
+        <v>0.1752</v>
       </c>
       <c r="C236">
-        <v>0.0805</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="D236">
-        <v>0.0964</v>
+        <v>0.0951</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.1766</v>
+        <v>0.175</v>
       </c>
       <c r="C237">
-        <v>0.078</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="D237">
-        <v>0.0985</v>
+        <v>0.09719999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.1771</v>
+        <v>0.1755</v>
       </c>
       <c r="C238">
-        <v>0.0759</v>
+        <v>0.0756</v>
       </c>
       <c r="D238">
-        <v>0.1012</v>
+        <v>0.0999</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.1787</v>
+        <v>0.1771</v>
       </c>
       <c r="C239">
-        <v>0.07480000000000001</v>
+        <v>0.0745</v>
       </c>
       <c r="D239">
-        <v>0.1039</v>
+        <v>0.1025</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.1812</v>
+        <v>0.1795</v>
       </c>
       <c r="C240">
-        <v>0.0745</v>
+        <v>0.0742</v>
       </c>
       <c r="D240">
-        <v>0.1067</v>
+        <v>0.1053</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.1835</v>
+        <v>0.1819</v>
       </c>
       <c r="C241">
-        <v>0.07389999999999999</v>
+        <v>0.0736</v>
       </c>
       <c r="D241">
-        <v>0.1097</v>
+        <v>0.1083</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.1864</v>
+        <v>0.1847</v>
       </c>
       <c r="C242">
-        <v>0.074</v>
+        <v>0.0737</v>
       </c>
       <c r="D242">
-        <v>0.1124</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.1892</v>
+        <v>0.1875</v>
       </c>
       <c r="C243">
-        <v>0.074</v>
+        <v>0.0737</v>
       </c>
       <c r="D243">
-        <v>0.1152</v>
+        <v>0.1138</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.1924</v>
+        <v>0.1907</v>
       </c>
       <c r="C244">
-        <v>0.0747</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="D244">
-        <v>0.1177</v>
+        <v>0.1163</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.1961</v>
+        <v>0.1944</v>
       </c>
       <c r="C245">
-        <v>0.0761</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="D245">
-        <v>0.12</v>
+        <v>0.1186</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.1996</v>
+        <v>0.1978</v>
       </c>
       <c r="C246">
-        <v>0.07729999999999999</v>
+        <v>0.077</v>
       </c>
       <c r="D246">
-        <v>0.1223</v>
+        <v>0.1209</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.2037</v>
+        <v>0.202</v>
       </c>
       <c r="C247">
-        <v>0.0788</v>
+        <v>0.0785</v>
       </c>
       <c r="D247">
-        <v>0.1249</v>
+        <v>0.1235</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.2083</v>
+        <v>0.2066</v>
       </c>
       <c r="C248">
-        <v>0.08</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="D248">
-        <v>0.1282</v>
+        <v>0.1268</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.2126</v>
+        <v>0.2109</v>
       </c>
       <c r="C249">
-        <v>0.081</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="D249">
-        <v>0.1316</v>
+        <v>0.1302</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.2166</v>
+        <v>0.2149</v>
       </c>
       <c r="C250">
-        <v>0.0814</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="D250">
-        <v>0.1352</v>
+        <v>0.1338</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.2208</v>
+        <v>0.2191</v>
       </c>
       <c r="C251">
-        <v>0.0818</v>
+        <v>0.0814</v>
       </c>
       <c r="D251">
-        <v>0.139</v>
+        <v>0.1377</v>
       </c>
     </row>
   </sheetData>
